--- a/qPCR data/Compiled_Ctvalues_080415.xlsx
+++ b/qPCR data/Compiled_Ctvalues_080415.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake H\Documents\GitHub\Resilience-Project\qPCR data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-705" yWindow="-465" windowWidth="27315" windowHeight="15360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35560" windowHeight="23020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="All-data" sheetId="2" r:id="rId2"/>
+    <sheet name="GBcheck" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="326">
   <si>
     <t>Name</t>
   </si>
@@ -1001,6 +997,9 @@
   <si>
     <t>#value</t>
   </si>
+  <si>
+    <t>Cq2</t>
+  </si>
 </sst>
 </file>
 
@@ -1080,10 +1079,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1103,13 +1112,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="17">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1123,6 +1142,801 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GBcheck!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rep1.ct.GRB2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>GBcheck!$A$2:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>28.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.57</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.55</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.07</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.89</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.85</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32.16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32.03</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.91</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.06</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31.92</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28.61</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33.32</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28.98</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33.25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30.65</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32.38</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30.97</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>31.52</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32.46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>30.74</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GBcheck!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>opticorr.GRB2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>GBcheck!$B$2:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>27.8835416666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.3835416666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.5535416666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.4435416666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.5035416666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.2035416666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.9035416666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.5935416666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.1435416666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.2735416666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.8335416666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.7235416666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.5535416666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.2635416666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.8435416666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.3735416666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.8035416666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.3635416666667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.5035416666667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.6935416666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.8735416666667</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.3035416666667</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.4335416666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.9135416666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30.9335416666667</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30.3235416666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31.3135416666667</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31.6335416666667</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31.7135416666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.5535416666667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.4135416666667</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.3035416666667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30.4635416666667</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31.0135416666667</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28.4135416666667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31.6535416666667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30.0435416666667</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.4335416666667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>31.0635416666667</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.7935416666667</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30.8335416666667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30.2635416666667</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>31.9035416666667</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32.1735416666667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32.4135416666667</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>31.4135416666667</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31.4035416666667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32.2635416666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GBcheck!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cq2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>GBcheck!$C$2:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>26.8945589268167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.2209054450485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.1778087588885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.6156952958187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.1749074163143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.5768209004802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.2254881665399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.7701832318082</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.8633034243956</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.5194899048436</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.5707591173748</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.7388868240581</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.1303429305877</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.3652476832842</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.9004307550896</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.1810557057972</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.0005584094746</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.3688593474409</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.5187671445556</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.1942358178089</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.4105253867957</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29.4007423265296</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.780218905608</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.4158297025657</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.1975749437079</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.4683484784</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.9692158004672</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.1249861603421</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27.3134906388594</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.2417440287097</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33.9616204897148</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.5077294479317</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.4370572871249</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29.0662675079294</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>29.5916272493548</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29.2181802541942</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26.7394011921202</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26.4642490787776</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27.2502780024822</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28.0509916809908</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.6616820682399</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26.8131122143228</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.137236547683</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.3475603058337</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28.5844423508446</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31.8716896098175</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>29.4913522821717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GBcheck!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>GBcheck!$D$2:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>27.6005107360989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.0047202878797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.2197144047614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.8276430997119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.2591024643309</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.9845511490268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.8246656955586</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.1619236998029</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.9191216379648</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.6637174930343</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.6310329069612</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.5764724865041</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.3122433232542</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.608146629774</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.0673018857034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.4331771935426</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.6675880507702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.5398945330788</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.8133115197019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.8883349068084</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.3891382070848</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29.1173548169652</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.9010023421368</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.6429390404836</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.105082733556</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.29760194944</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.020604200291</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.2137733359103</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27.4230623892386</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.7189802825181</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34.0855072082313</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.7716391156984</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.552657122419</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28.8228040738402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>29.1819619550352</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29.1298262275195</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26.6767502709424</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26.5175539320326</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27.0275393645951</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28.1900786336313</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29.0952799685292</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.4069930132607</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26.556847138384</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.1270213650576</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.1436486298457</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28.5891715671896</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31.3088089726515</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>29.8253307101963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1814139320"/>
+        <c:axId val="-1962062808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1814139320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1962062808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1962062808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1814139320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1449,13 +2263,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FG49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:163">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1943,7 +2757,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:163">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2434,7 +3248,7 @@
         <v>2.20544302797878</v>
       </c>
     </row>
-    <row r="3" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:163">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2925,7 +3739,7 @@
         <v>3.35896017903121</v>
       </c>
     </row>
-    <row r="4" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:163">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3416,7 +4230,7 @@
         <v>2.3896129629032199</v>
       </c>
     </row>
-    <row r="5" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:163">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3907,7 +4721,7 @@
         <v>1.8446253112364399</v>
       </c>
     </row>
-    <row r="6" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:163">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4398,7 +5212,7 @@
         <v>2.1277231440139301</v>
       </c>
     </row>
-    <row r="7" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:163">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4889,7 +5703,7 @@
         <v>1.2825240156561999</v>
       </c>
     </row>
-    <row r="8" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:163">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5380,7 +6194,7 @@
         <v>2.0705610810197301</v>
       </c>
     </row>
-    <row r="9" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:163">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5871,7 +6685,7 @@
         <v>2.1235456441862302</v>
       </c>
     </row>
-    <row r="10" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:163">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6362,7 +7176,7 @@
         <v>3.2889342395734</v>
       </c>
     </row>
-    <row r="11" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:163">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6853,7 +7667,7 @@
         <v>3.2666853496377901</v>
       </c>
     </row>
-    <row r="12" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:163">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7344,7 +8158,7 @@
         <v>2.2981481811086901</v>
       </c>
     </row>
-    <row r="13" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:163">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7835,7 +8649,7 @@
         <v>2.0548579726231702</v>
       </c>
     </row>
-    <row r="14" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:163">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8326,7 +9140,7 @@
         <v>2.0913366592516902</v>
       </c>
     </row>
-    <row r="15" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:163">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8817,7 +9631,7 @@
         <v>2.12695360768363</v>
       </c>
     </row>
-    <row r="16" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:163">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9308,7 +10122,7 @@
         <v>2.43936251364789</v>
       </c>
     </row>
-    <row r="17" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:163">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9799,7 +10613,7 @@
         <v>2.4349921558800398</v>
       </c>
     </row>
-    <row r="18" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:163">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10290,7 +11104,7 @@
         <v>1.7335527119504499</v>
       </c>
     </row>
-    <row r="19" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:163">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10781,7 +11595,7 @@
         <v>2.18049984733958</v>
       </c>
     </row>
-    <row r="20" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:163">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11272,7 +12086,7 @@
         <v>2.3106255979899202</v>
       </c>
     </row>
-    <row r="21" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:163">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11763,7 +12577,7 @@
         <v>2.33995112254091</v>
       </c>
     </row>
-    <row r="22" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:163">
       <c r="A22">
         <v>21</v>
       </c>
@@ -12254,7 +13068,7 @@
         <v>2.5197692557067799</v>
       </c>
     </row>
-    <row r="23" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:163">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12745,7 +13559,7 @@
         <v>2.2680691284675101</v>
       </c>
     </row>
-    <row r="24" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:163">
       <c r="A24">
         <v>23</v>
       </c>
@@ -13236,7 +14050,7 @@
         <v>1.99954964728618</v>
       </c>
     </row>
-    <row r="25" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:163">
       <c r="A25">
         <v>24</v>
       </c>
@@ -13727,7 +14541,7 @@
         <v>1.7976966702280599</v>
       </c>
     </row>
-    <row r="26" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:163">
       <c r="A26">
         <v>25</v>
       </c>
@@ -14218,7 +15032,7 @@
         <v>2.0452031876029402</v>
       </c>
     </row>
-    <row r="27" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:163">
       <c r="A27">
         <v>26</v>
       </c>
@@ -14709,7 +15523,7 @@
         <v>2.0183277051653201</v>
       </c>
     </row>
-    <row r="28" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:163">
       <c r="A28">
         <v>27</v>
       </c>
@@ -15200,7 +16014,7 @@
         <v>2.1366165931128598</v>
       </c>
     </row>
-    <row r="29" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:163">
       <c r="A29">
         <v>28</v>
       </c>
@@ -15691,7 +16505,7 @@
         <v>2.4273897158050302</v>
       </c>
     </row>
-    <row r="30" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:163">
       <c r="A30">
         <v>29</v>
       </c>
@@ -16182,7 +16996,7 @@
         <v>2.39614184249817</v>
       </c>
     </row>
-    <row r="31" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:163">
       <c r="A31">
         <v>30</v>
       </c>
@@ -16673,7 +17487,7 @@
         <v>2.6101234065008398</v>
       </c>
     </row>
-    <row r="32" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:163">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17164,7 +17978,7 @@
         <v>2.2434430955051199</v>
       </c>
     </row>
-    <row r="33" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:163">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17655,7 +18469,7 @@
         <v>2.0857626670385199</v>
       </c>
     </row>
-    <row r="34" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:163">
       <c r="A34">
         <v>33</v>
       </c>
@@ -18146,7 +18960,7 @@
         <v>2.1950810779782999</v>
       </c>
     </row>
-    <row r="35" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:163">
       <c r="A35">
         <v>34</v>
       </c>
@@ -18637,7 +19451,7 @@
         <v>1.935032751704</v>
       </c>
     </row>
-    <row r="36" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:163">
       <c r="A36">
         <v>35</v>
       </c>
@@ -19128,7 +19942,7 @@
         <v>2.3001550595195002</v>
       </c>
     </row>
-    <row r="37" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:163">
       <c r="A37">
         <v>36</v>
       </c>
@@ -19619,7 +20433,7 @@
         <v>2.4891251698624699</v>
       </c>
     </row>
-    <row r="38" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:163">
       <c r="A38">
         <v>37</v>
       </c>
@@ -20110,7 +20924,7 @@
         <v>2.1090888311065998</v>
       </c>
     </row>
-    <row r="39" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:163">
       <c r="A39">
         <v>38</v>
       </c>
@@ -20601,7 +21415,7 @@
         <v>1.9559636099039299</v>
       </c>
     </row>
-    <row r="40" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:163">
       <c r="A40">
         <v>39</v>
       </c>
@@ -21092,7 +21906,7 @@
         <v>2.22794011770559</v>
       </c>
     </row>
-    <row r="41" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:163">
       <c r="A41">
         <v>40</v>
       </c>
@@ -21583,7 +22397,7 @@
         <v>2.1030029252409599</v>
       </c>
     </row>
-    <row r="42" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:163">
       <c r="A42">
         <v>41</v>
       </c>
@@ -22074,7 +22888,7 @@
         <v>2.0801574312031099</v>
       </c>
     </row>
-    <row r="43" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:163">
       <c r="A43">
         <v>42</v>
       </c>
@@ -22565,7 +23379,7 @@
         <v>1.7918809896219301</v>
       </c>
     </row>
-    <row r="44" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:163">
       <c r="A44">
         <v>43</v>
       </c>
@@ -23056,7 +23870,7 @@
         <v>2.24397341779882</v>
       </c>
     </row>
-    <row r="45" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:163">
       <c r="A45">
         <v>44</v>
       </c>
@@ -23547,7 +24361,7 @@
         <v>1.97279258059183</v>
       </c>
     </row>
-    <row r="46" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:163">
       <c r="A46">
         <v>45</v>
       </c>
@@ -24038,7 +24852,7 @@
         <v>3.4221193441425402</v>
       </c>
     </row>
-    <row r="47" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:163">
       <c r="A47">
         <v>46</v>
       </c>
@@ -24529,7 +25343,7 @@
         <v>2.31754554198795</v>
       </c>
     </row>
-    <row r="48" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:163">
       <c r="A48">
         <v>47</v>
       </c>
@@ -25020,7 +25834,7 @@
         <v>2.2850043704383101</v>
       </c>
     </row>
-    <row r="49" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:163">
       <c r="A49">
         <v>48</v>
       </c>
@@ -25527,49 +26341,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CU1" workbookViewId="0">
-      <selection activeCell="CZ8" sqref="CZ8"/>
+    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
+      <selection activeCell="BR10" sqref="BR10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="1"/>
-    <col min="3" max="5" width="10.875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="2"/>
+    <col min="2" max="2" width="11" style="1"/>
+    <col min="3" max="5" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
-    <col min="13" max="13" width="14.875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="14.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.875" style="2"/>
-    <col min="18" max="18" width="13.875" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="14.125" customWidth="1"/>
-    <col min="22" max="22" width="12.875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="10.875" style="2"/>
-    <col min="30" max="30" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="2"/>
+    <col min="18" max="18" width="13.83203125" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="14.1640625" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11" style="2"/>
+    <col min="30" max="30" width="13.6640625" customWidth="1"/>
     <col min="31" max="31" width="13.5" style="2" customWidth="1"/>
     <col min="32" max="32" width="13.5" customWidth="1"/>
-    <col min="33" max="33" width="10.875" style="1"/>
+    <col min="33" max="33" width="11" style="1"/>
     <col min="36" max="36" width="13.5" customWidth="1"/>
-    <col min="37" max="37" width="10.875" style="2"/>
-    <col min="41" max="41" width="10.875" style="2"/>
-    <col min="43" max="43" width="10.875" style="1"/>
-    <col min="47" max="47" width="10.875" style="2"/>
-    <col min="49" max="49" width="10.875" style="2"/>
-    <col min="51" max="51" width="10.875" style="1"/>
-    <col min="55" max="55" width="10.875" style="2"/>
-    <col min="57" max="57" width="10.875" style="2"/>
-    <col min="59" max="59" width="10.875" style="1"/>
-    <col min="63" max="63" width="10.875" style="2"/>
-    <col min="67" max="67" width="10.875" style="2"/>
-    <col min="77" max="77" width="12.375" customWidth="1"/>
-    <col min="78" max="79" width="17.75" customWidth="1"/>
+    <col min="37" max="37" width="11" style="2"/>
+    <col min="41" max="41" width="11" style="2"/>
+    <col min="43" max="43" width="11" style="1"/>
+    <col min="47" max="47" width="11" style="2"/>
+    <col min="49" max="49" width="11" style="2"/>
+    <col min="51" max="51" width="11" style="1"/>
+    <col min="55" max="55" width="11" style="2"/>
+    <col min="57" max="57" width="11" style="2"/>
+    <col min="59" max="59" width="11" style="1"/>
+    <col min="63" max="63" width="11" style="2"/>
+    <col min="67" max="67" width="11" style="2"/>
+    <col min="77" max="77" width="12.33203125" customWidth="1"/>
+    <col min="78" max="79" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:184">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26066,7 +26880,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:184">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26301,7 +27115,7 @@
         <v>27.600510736098901</v>
       </c>
       <c r="CI2">
-        <f>ABS(CF2-CH2)</f>
+        <f t="shared" ref="CI2:CI49" si="4">ABS(CF2-CH2)</f>
         <v>0.70595180928220103</v>
       </c>
       <c r="CL2">
@@ -26585,7 +27399,7 @@
         <v>2.20544302797878</v>
       </c>
     </row>
-    <row r="3" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:184">
       <c r="A3">
         <v>2</v>
       </c>
@@ -26688,15 +27502,15 @@
         <v>11.38</v>
       </c>
       <c r="AO3" s="2">
-        <f t="shared" ref="AO3:AO49" si="4">AM3+10.4</f>
+        <f t="shared" ref="AO3:AO49" si="5">AM3+10.4</f>
         <v>28.18</v>
       </c>
       <c r="AP3">
-        <f t="shared" ref="AP3:AP49" si="5">ABS(AK3-AO3)</f>
+        <f t="shared" ref="AP3:AP49" si="6">ABS(AK3-AO3)</f>
         <v>0.98000000000000043</v>
       </c>
       <c r="AQ3" s="1">
-        <f t="shared" ref="AQ3:AQ49" si="6">AVERAGE(AK3,AO3)</f>
+        <f t="shared" ref="AQ3:AQ49" si="7">AVERAGE(AK3,AO3)</f>
         <v>28.67</v>
       </c>
       <c r="AT3">
@@ -26712,11 +27526,11 @@
         <v>31.26</v>
       </c>
       <c r="AX3">
-        <f t="shared" ref="AX3:AX49" si="7">ABS(AU3-AW3)</f>
+        <f t="shared" ref="AX3:AX49" si="8">ABS(AU3-AW3)</f>
         <v>0.11999999999999744</v>
       </c>
       <c r="AY3" s="1">
-        <f t="shared" ref="AY3:AY49" si="8">AVERAGE(AU3,AW3)</f>
+        <f t="shared" ref="AY3:AY49" si="9">AVERAGE(AU3,AW3)</f>
         <v>31.32</v>
       </c>
       <c r="BB3">
@@ -26735,7 +27549,7 @@
         <v>0.91</v>
       </c>
       <c r="BG3" s="1">
-        <f t="shared" ref="BG3:BG49" si="9">AVERAGE(BC3,BE3)</f>
+        <f t="shared" ref="BG3:BG49" si="10">AVERAGE(BC3,BE3)</f>
         <v>31.325000000000003</v>
       </c>
       <c r="BJ3">
@@ -26784,7 +27598,7 @@
         <v>28.383541666666702</v>
       </c>
       <c r="CA3">
-        <f t="shared" ref="CA3:CA49" si="10">ABS(BV3-BZ3)</f>
+        <f t="shared" ref="CA3:CA49" si="11">ABS(BV3-BZ3)</f>
         <v>3.6458333333300175E-2</v>
       </c>
       <c r="CB3">
@@ -26809,7 +27623,7 @@
         <v>28.004720287879699</v>
       </c>
       <c r="CI3">
-        <f>ABS(CF3-CH3)</f>
+        <f t="shared" si="4"/>
         <v>0.21618515716880182</v>
       </c>
       <c r="CL3">
@@ -26879,7 +27693,7 @@
         <v>31.603717565695501</v>
       </c>
       <c r="DH3">
-        <f t="shared" ref="DH3:DH49" si="11">ABS(DE3-DG3)</f>
+        <f t="shared" ref="DH3:DH49" si="12">ABS(DE3-DG3)</f>
         <v>0.27246094130680021</v>
       </c>
       <c r="DK3">
@@ -27093,7 +27907,7 @@
         <v>3.35896017903121</v>
       </c>
     </row>
-    <row r="4" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:184">
       <c r="A4">
         <v>3</v>
       </c>
@@ -27152,11 +27966,11 @@
         <v>12.42</v>
       </c>
       <c r="T4" s="3">
-        <f t="shared" ref="T4:T25" si="12">R4+15</f>
+        <f t="shared" ref="T4:T25" si="13">R4+15</f>
         <v>34.549999999999997</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:U25" si="13">ABS(P4-T4)</f>
+        <f t="shared" ref="U4:U25" si="14">ABS(P4-T4)</f>
         <v>2.5799999999999983</v>
       </c>
       <c r="V4" s="4">
@@ -27207,15 +28021,15 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="AO4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.35</v>
       </c>
       <c r="AP4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.42999999999999972</v>
       </c>
       <c r="AQ4" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.135000000000002</v>
       </c>
       <c r="AT4">
@@ -27231,11 +28045,11 @@
         <v>31.72</v>
       </c>
       <c r="AX4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1699999999999982</v>
       </c>
       <c r="AY4" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31.134999999999998</v>
       </c>
       <c r="BB4">
@@ -27254,7 +28068,7 @@
         <v>0.25999999999999801</v>
       </c>
       <c r="BG4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32.22</v>
       </c>
       <c r="BJ4">
@@ -27303,7 +28117,7 @@
         <v>29.5535416666667</v>
       </c>
       <c r="CA4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1535416666667011</v>
       </c>
       <c r="CB4">
@@ -27328,7 +28142,7 @@
         <v>27.219714404761401</v>
       </c>
       <c r="CI4">
-        <f>ABS(CF4-CH4)</f>
+        <f t="shared" si="4"/>
         <v>4.1905645872901687E-2</v>
       </c>
       <c r="CL4">
@@ -27398,7 +28212,7 @@
         <v>31.188661817211798</v>
       </c>
       <c r="DH4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.2456933658817988</v>
       </c>
       <c r="DK4">
@@ -27612,7 +28426,7 @@
         <v>2.3896129629032199</v>
       </c>
     </row>
-    <row r="5" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:184">
       <c r="A5">
         <v>4</v>
       </c>
@@ -27671,11 +28485,11 @@
         <v>13.49</v>
       </c>
       <c r="T5" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>33.230000000000004</v>
       </c>
       <c r="U5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5100000000000051</v>
       </c>
       <c r="V5" s="4">
@@ -27711,15 +28525,15 @@
         <v>9.49</v>
       </c>
       <c r="AO5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.17</v>
       </c>
       <c r="AP5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91000000000000014</v>
       </c>
       <c r="AQ5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.715000000000003</v>
       </c>
       <c r="AT5">
@@ -27735,11 +28549,11 @@
         <v>31.69</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2699999999999996</v>
       </c>
       <c r="AY5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31.055</v>
       </c>
       <c r="BB5">
@@ -27758,7 +28572,7 @@
         <v>1.02</v>
       </c>
       <c r="BG5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.65</v>
       </c>
       <c r="BJ5">
@@ -27807,7 +28621,7 @@
         <v>29.4435416666667</v>
       </c>
       <c r="CA5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17354166666670068</v>
       </c>
       <c r="CB5">
@@ -27832,7 +28646,7 @@
         <v>29.827643099711899</v>
       </c>
       <c r="CI5">
-        <f>ABS(CF5-CH5)</f>
+        <f t="shared" si="4"/>
         <v>0.21194780389319945</v>
       </c>
       <c r="CL5">
@@ -27902,7 +28716,7 @@
         <v>33.904169469586598</v>
       </c>
       <c r="DH5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.067438501869816E-2</v>
       </c>
       <c r="DK5">
@@ -28116,7 +28930,7 @@
         <v>1.8446253112364399</v>
       </c>
     </row>
-    <row r="6" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:184">
       <c r="A6">
         <v>5</v>
       </c>
@@ -28175,11 +28989,11 @@
         <v>14.07</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.59</v>
       </c>
       <c r="U6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.92999999999999972</v>
       </c>
       <c r="V6" s="4">
@@ -28230,15 +29044,15 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="AO6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.840000000000003</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.77000000000000313</v>
       </c>
       <c r="AQ6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.455000000000002</v>
       </c>
       <c r="AT6">
@@ -28254,11 +29068,11 @@
         <v>30.59</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2899999999999991</v>
       </c>
       <c r="AY6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29.945</v>
       </c>
       <c r="BB6">
@@ -28277,7 +29091,7 @@
         <v>1.9</v>
       </c>
       <c r="BG6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.689999999999998</v>
       </c>
       <c r="BJ6">
@@ -28326,7 +29140,7 @@
         <v>27.503541666666699</v>
       </c>
       <c r="CA6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.6458333333301312E-2</v>
       </c>
       <c r="CB6">
@@ -28351,7 +29165,7 @@
         <v>29.259102464330901</v>
       </c>
       <c r="CI6">
-        <f>ABS(CF6-CH6)</f>
+        <f t="shared" si="4"/>
         <v>8.4195048016599827E-2</v>
       </c>
       <c r="CL6">
@@ -28421,7 +29235,7 @@
         <v>33.505695374213502</v>
       </c>
       <c r="DH6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.50385295435579991</v>
       </c>
       <c r="DK6">
@@ -28635,7 +29449,7 @@
         <v>2.1277231440139301</v>
       </c>
     </row>
-    <row r="7" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:184">
       <c r="A7">
         <v>6</v>
       </c>
@@ -28694,11 +29508,11 @@
         <v>16.71</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>35.28</v>
       </c>
       <c r="U7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.7100000000000009</v>
       </c>
       <c r="V7" s="4">
@@ -28734,15 +29548,15 @@
         <v>10.52</v>
       </c>
       <c r="AO7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.450000000000003</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.11999999999999744</v>
       </c>
       <c r="AQ7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>32.510000000000005</v>
       </c>
       <c r="AT7">
@@ -28758,11 +29572,11 @@
         <v>36.81</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.70000000000000284</v>
       </c>
       <c r="AY7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>36.46</v>
       </c>
       <c r="BB7">
@@ -28781,7 +29595,7 @@
         <v>1.45</v>
       </c>
       <c r="BG7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>36.704999999999998</v>
       </c>
       <c r="BJ7">
@@ -28830,7 +29644,7 @@
         <v>33.203541666666702</v>
       </c>
       <c r="CA7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.7264583333332979</v>
       </c>
       <c r="CB7">
@@ -28855,7 +29669,7 @@
         <v>29.9845511490268</v>
       </c>
       <c r="CI7">
-        <f>ABS(CF7-CH7)</f>
+        <f t="shared" si="4"/>
         <v>0.40773024854659923</v>
       </c>
       <c r="CL7">
@@ -28925,7 +29739,7 @@
         <v>34.221839257521999</v>
       </c>
       <c r="DH7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.5644953389596878E-2</v>
       </c>
       <c r="DK7">
@@ -29139,7 +29953,7 @@
         <v>1.2825240156561999</v>
       </c>
     </row>
-    <row r="8" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:184">
       <c r="A8">
         <v>7</v>
       </c>
@@ -29198,11 +30012,11 @@
         <v>12.99</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.950000000000003</v>
       </c>
       <c r="U8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.0100000000000016</v>
       </c>
       <c r="V8" s="4">
@@ -29238,15 +30052,15 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="AO8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.03</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1799999999999997</v>
       </c>
       <c r="AQ8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.44</v>
       </c>
       <c r="AT8">
@@ -29262,11 +30076,11 @@
         <v>31.12</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.82000000000000028</v>
       </c>
       <c r="AY8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31.53</v>
       </c>
       <c r="BB8">
@@ -29285,7 +30099,7 @@
         <v>2.27</v>
       </c>
       <c r="BG8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.734999999999999</v>
       </c>
       <c r="BJ8">
@@ -29334,7 +30148,7 @@
         <v>27.903541666666701</v>
       </c>
       <c r="CA8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.51354166666670054</v>
       </c>
       <c r="CB8">
@@ -29359,7 +30173,7 @@
         <v>27.8246656955586</v>
       </c>
       <c r="CI8">
-        <f>ABS(CF8-CH8)</f>
+        <f t="shared" si="4"/>
         <v>0.59917752901870003</v>
       </c>
       <c r="CL8">
@@ -29429,7 +30243,7 @@
         <v>31.7855309696081</v>
       </c>
       <c r="DH8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5264267608926012</v>
       </c>
       <c r="DK8">
@@ -29643,7 +30457,7 @@
         <v>2.0705610810197301</v>
       </c>
     </row>
-    <row r="9" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:184">
       <c r="A9">
         <v>8</v>
       </c>
@@ -29702,11 +30516,11 @@
         <v>12.85</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.239999999999995</v>
       </c>
       <c r="U9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.149999999999995</v>
       </c>
       <c r="V9" s="4">
@@ -29726,15 +30540,15 @@
         <v>17.29</v>
       </c>
       <c r="AD9">
-        <f t="shared" ref="AD9:AD24" si="14">AA9-AC9</f>
+        <f t="shared" ref="AD9:AD24" si="15">AA9-AC9</f>
         <v>11.82</v>
       </c>
       <c r="AE9" s="2">
-        <f t="shared" ref="AE9:AE24" si="15">AC9+13.3</f>
+        <f t="shared" ref="AE9:AE24" si="16">AC9+13.3</f>
         <v>30.59</v>
       </c>
       <c r="AF9">
-        <f t="shared" ref="AF9:AF24" si="16">ABS(AA9-AE9)</f>
+        <f t="shared" ref="AF9:AF24" si="17">ABS(AA9-AE9)</f>
         <v>1.4800000000000004</v>
       </c>
       <c r="AG9" s="1">
@@ -29757,15 +30571,15 @@
         <v>9.69</v>
       </c>
       <c r="AO9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.299999999999997</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.7099999999999973</v>
       </c>
       <c r="AQ9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.945</v>
       </c>
       <c r="AT9">
@@ -29781,11 +30595,11 @@
         <v>30.39</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0899999999999999</v>
       </c>
       <c r="AY9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.935000000000002</v>
       </c>
       <c r="BB9">
@@ -29804,7 +30618,7 @@
         <v>1.7</v>
       </c>
       <c r="BG9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.79</v>
       </c>
       <c r="BJ9">
@@ -29853,7 +30667,7 @@
         <v>28.593541666666699</v>
       </c>
       <c r="CA9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.503541666666699</v>
       </c>
       <c r="CB9">
@@ -29878,7 +30692,7 @@
         <v>25.161923699802902</v>
       </c>
       <c r="CI9">
-        <f>ABS(CF9-CH9)</f>
+        <f t="shared" si="4"/>
         <v>1.6082595320052988</v>
       </c>
       <c r="CL9">
@@ -29948,7 +30762,7 @@
         <v>30.660012446578101</v>
       </c>
       <c r="DH9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.57512683226799766</v>
       </c>
       <c r="DK9">
@@ -30162,7 +30976,7 @@
         <v>2.1235456441862302</v>
       </c>
     </row>
-    <row r="10" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:184">
       <c r="A10">
         <v>17</v>
       </c>
@@ -30221,11 +31035,11 @@
         <v>16.59</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.63</v>
       </c>
       <c r="U10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5899999999999999</v>
       </c>
       <c r="V10" s="4">
@@ -30245,15 +31059,15 @@
         <v>18.690000000000001</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12.739999999999998</v>
       </c>
       <c r="AE10" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>31.990000000000002</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.56000000000000227</v>
       </c>
       <c r="AG10" s="1">
@@ -30276,15 +31090,15 @@
         <v>9.23</v>
       </c>
       <c r="AO10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.82</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1700000000000017</v>
       </c>
       <c r="AQ10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.234999999999999</v>
       </c>
       <c r="AT10">
@@ -30300,11 +31114,11 @@
         <v>30.97</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.19999999999999929</v>
       </c>
       <c r="AY10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.869999999999997</v>
       </c>
       <c r="BB10">
@@ -30323,7 +31137,7 @@
         <v>1.44</v>
       </c>
       <c r="BG10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.23</v>
       </c>
       <c r="BJ10">
@@ -30372,7 +31186,7 @@
         <v>30.1435416666667</v>
       </c>
       <c r="CA10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2635416666667005</v>
       </c>
       <c r="CB10">
@@ -30397,7 +31211,7 @@
         <v>26.9191216379648</v>
       </c>
       <c r="CI10">
-        <f>ABS(CF10-CH10)</f>
+        <f t="shared" si="4"/>
         <v>5.5818213569200026E-2</v>
       </c>
       <c r="CL10">
@@ -30467,7 +31281,7 @@
         <v>30.365989257934</v>
       </c>
       <c r="DH10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16915517973430028</v>
       </c>
       <c r="DK10" t="s">
@@ -30681,7 +31495,7 @@
         <v>1.7335527119504499</v>
       </c>
     </row>
-    <row r="11" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:184">
       <c r="A11">
         <v>18</v>
       </c>
@@ -30740,11 +31554,11 @@
         <v>16</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.78</v>
       </c>
       <c r="U11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="V11" s="4">
@@ -30764,15 +31578,15 @@
         <v>15.98</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13.059999999999999</v>
       </c>
       <c r="AE11" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29.28</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.24000000000000199</v>
       </c>
       <c r="AG11" s="1">
@@ -30795,15 +31609,15 @@
         <v>9.56</v>
       </c>
       <c r="AO11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.17</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.84000000000000341</v>
       </c>
       <c r="AQ11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27.75</v>
       </c>
       <c r="AT11">
@@ -30819,11 +31633,11 @@
         <v>28.88</v>
       </c>
       <c r="AX11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.96000000000000085</v>
       </c>
       <c r="AY11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29.36</v>
       </c>
       <c r="BB11">
@@ -30842,7 +31656,7 @@
         <v>0.98</v>
       </c>
       <c r="BG11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.939999999999998</v>
       </c>
       <c r="BJ11">
@@ -30891,7 +31705,7 @@
         <v>28.273541666666699</v>
       </c>
       <c r="CA11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.42645833333330074</v>
       </c>
       <c r="CB11">
@@ -30916,7 +31730,7 @@
         <v>28.663717493034301</v>
       </c>
       <c r="CI11">
-        <f>ABS(CF11-CH11)</f>
+        <f t="shared" si="4"/>
         <v>0.14422758819070225</v>
       </c>
       <c r="CL11">
@@ -30986,7 +31800,7 @@
         <v>32.877962410610102</v>
       </c>
       <c r="DH11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.9307287072301733E-2</v>
       </c>
       <c r="DK11">
@@ -31200,7 +32014,7 @@
         <v>2.18049984733958</v>
       </c>
     </row>
-    <row r="12" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:184">
       <c r="A12">
         <v>19</v>
       </c>
@@ -31259,11 +32073,11 @@
         <v>15.17</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.299999999999997</v>
       </c>
       <c r="U12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.17000000000000171</v>
       </c>
       <c r="V12" s="4">
@@ -31283,15 +32097,15 @@
         <v>19</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12.920000000000002</v>
       </c>
       <c r="AE12" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>32.299999999999997</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.37999999999999545</v>
       </c>
       <c r="AG12" s="1">
@@ -31314,15 +32128,15 @@
         <v>11.58</v>
       </c>
       <c r="AO12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.79</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1799999999999997</v>
       </c>
       <c r="AQ12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.38</v>
       </c>
       <c r="AT12">
@@ -31338,11 +32152,11 @@
         <v>30.43</v>
       </c>
       <c r="AX12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.71999999999999886</v>
       </c>
       <c r="AY12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.79</v>
       </c>
       <c r="BB12">
@@ -31361,7 +32175,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="BG12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.86</v>
       </c>
       <c r="BJ12" t="s">
@@ -31407,7 +32221,7 @@
         <v>29.833541666666701</v>
       </c>
       <c r="CA12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4435416666667003</v>
       </c>
       <c r="CB12">
@@ -31432,7 +32246,7 @@
         <v>29.631032906961199</v>
       </c>
       <c r="CI12">
-        <f>ABS(CF12-CH12)</f>
+        <f t="shared" si="4"/>
         <v>6.0273789586400284E-2</v>
       </c>
       <c r="CL12">
@@ -31502,7 +32316,7 @@
         <v>33.390079418113501</v>
       </c>
       <c r="DH12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18380176021020134</v>
       </c>
       <c r="DK12">
@@ -31716,7 +32530,7 @@
         <v>2.3106255979899202</v>
       </c>
     </row>
-    <row r="13" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:184">
       <c r="A13">
         <v>20</v>
       </c>
@@ -31775,11 +32589,11 @@
         <v>16.420000000000002</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.62</v>
       </c>
       <c r="U13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.4199999999999982</v>
       </c>
       <c r="V13" s="4">
@@ -31799,15 +32613,15 @@
         <v>16.64</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13.18</v>
       </c>
       <c r="AE13" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29.94</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.12000000000000099</v>
       </c>
       <c r="AG13" s="1">
@@ -31830,15 +32644,15 @@
         <v>8.8800000000000008</v>
       </c>
       <c r="AO13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.04</v>
       </c>
       <c r="AP13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5199999999999996</v>
       </c>
       <c r="AQ13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.28</v>
       </c>
       <c r="AT13">
@@ -31854,11 +32668,11 @@
         <v>29.99</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.33999999999999986</v>
       </c>
       <c r="AY13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29.82</v>
       </c>
       <c r="BB13">
@@ -31877,7 +32691,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="BG13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.72</v>
       </c>
       <c r="BJ13">
@@ -31926,7 +32740,7 @@
         <v>28.723541666666701</v>
       </c>
       <c r="CA13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2535416666667025</v>
       </c>
       <c r="CB13">
@@ -31951,7 +32765,7 @@
         <v>28.576472486504102</v>
       </c>
       <c r="CI13">
-        <f>ABS(CF13-CH13)</f>
+        <f t="shared" si="4"/>
         <v>0.16241433755399726</v>
       </c>
       <c r="CL13">
@@ -32021,7 +32835,7 @@
         <v>33.101647472408303</v>
       </c>
       <c r="DH13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.52050675255670598</v>
       </c>
       <c r="DK13" t="s">
@@ -32235,7 +33049,7 @@
         <v>2.33995112254091</v>
       </c>
     </row>
-    <row r="14" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:184">
       <c r="A14">
         <v>21</v>
       </c>
@@ -32294,11 +33108,11 @@
         <v>15.3</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.9</v>
       </c>
       <c r="U14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000426</v>
       </c>
       <c r="V14" s="4">
@@ -32318,15 +33132,15 @@
         <v>16.760000000000002</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12.2</v>
       </c>
       <c r="AE14" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30.060000000000002</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.1000000000000014</v>
       </c>
       <c r="AG14" s="1">
@@ -32349,15 +33163,15 @@
         <v>8.84</v>
       </c>
       <c r="AO14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.369999999999997</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5599999999999987</v>
       </c>
       <c r="AQ14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.589999999999996</v>
       </c>
       <c r="AT14">
@@ -32373,11 +33187,11 @@
         <v>29.8</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.64000000000000057</v>
       </c>
       <c r="AY14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.12</v>
       </c>
       <c r="BB14">
@@ -32396,7 +33210,7 @@
         <v>1.9999999999999601E-2</v>
       </c>
       <c r="BG14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.450000000000003</v>
       </c>
       <c r="BJ14">
@@ -32445,7 +33259,7 @@
         <v>29.5535416666667</v>
       </c>
       <c r="CA14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.54354166666669812</v>
       </c>
       <c r="CB14">
@@ -32470,7 +33284,7 @@
         <v>28.312243323254201</v>
       </c>
       <c r="CI14">
-        <f>ABS(CF14-CH14)</f>
+        <f t="shared" si="4"/>
         <v>0.18190039266649904</v>
       </c>
       <c r="CL14">
@@ -32540,7 +33354,7 @@
         <v>32.770216045316502</v>
       </c>
       <c r="DH14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.7814935754286019</v>
       </c>
       <c r="DK14">
@@ -32754,7 +33568,7 @@
         <v>2.5197692557067799</v>
       </c>
     </row>
-    <row r="15" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:184">
       <c r="A15">
         <v>22</v>
       </c>
@@ -32813,11 +33627,11 @@
         <v>15.6</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.620000000000005</v>
       </c>
       <c r="U15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.59999999999999432</v>
       </c>
       <c r="V15" s="4">
@@ -32837,15 +33651,15 @@
         <v>17.489999999999998</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.680000000000003</v>
       </c>
       <c r="AE15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30.79</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6199999999999974</v>
       </c>
       <c r="AG15" s="1">
@@ -32868,15 +33682,15 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="AO15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.65</v>
       </c>
       <c r="AP15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1899999999999977</v>
       </c>
       <c r="AQ15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.055</v>
       </c>
       <c r="AT15">
@@ -32892,11 +33706,11 @@
         <v>30.82</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2699999999999996</v>
       </c>
       <c r="AY15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.185000000000002</v>
       </c>
       <c r="BB15">
@@ -32915,7 +33729,7 @@
         <v>0.62999999999999901</v>
       </c>
       <c r="BG15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.924999999999997</v>
       </c>
       <c r="BJ15">
@@ -32964,7 +33778,7 @@
         <v>30.263541666666701</v>
       </c>
       <c r="CA15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6935416666667003</v>
       </c>
       <c r="CB15">
@@ -32989,7 +33803,7 @@
         <v>27.608146629774001</v>
       </c>
       <c r="CI15">
-        <f>ABS(CF15-CH15)</f>
+        <f t="shared" si="4"/>
         <v>0.24289894648980237</v>
       </c>
       <c r="CL15">
@@ -33059,7 +33873,7 @@
         <v>32.1524996911673</v>
       </c>
       <c r="DH15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.3031694563856</v>
       </c>
       <c r="DK15">
@@ -33273,7 +34087,7 @@
         <v>2.2680691284675101</v>
       </c>
     </row>
-    <row r="16" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:184">
       <c r="A16">
         <v>23</v>
       </c>
@@ -33332,11 +34146,11 @@
         <v>16.96</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.31</v>
       </c>
       <c r="U16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.9600000000000044</v>
       </c>
       <c r="V16" s="4">
@@ -33356,15 +34170,15 @@
         <v>17</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13.73</v>
       </c>
       <c r="AE16" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30.3</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.42999999999999972</v>
       </c>
       <c r="AG16" s="1">
@@ -33387,15 +34201,15 @@
         <v>9</v>
       </c>
       <c r="AO16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.47</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3999999999999986</v>
       </c>
       <c r="AQ16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27.77</v>
       </c>
       <c r="AT16">
@@ -33411,11 +34225,11 @@
         <v>29.95</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.72000000000000242</v>
       </c>
       <c r="AY16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.310000000000002</v>
       </c>
       <c r="BB16">
@@ -33434,7 +34248,7 @@
         <v>1.41</v>
       </c>
       <c r="BG16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.365000000000002</v>
       </c>
       <c r="BJ16">
@@ -33483,7 +34297,7 @@
         <v>28.843541666666699</v>
       </c>
       <c r="CA16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5935416666666988</v>
       </c>
       <c r="CB16">
@@ -33508,7 +34322,7 @@
         <v>27.067301885703401</v>
       </c>
       <c r="CI16">
-        <f>ABS(CF16-CH16)</f>
+        <f t="shared" si="4"/>
         <v>0.16687113061379932</v>
       </c>
       <c r="CL16">
@@ -33578,7 +34392,7 @@
         <v>30.358756354109701</v>
       </c>
       <c r="DH16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.7991554375221028</v>
       </c>
       <c r="DK16" t="s">
@@ -33792,7 +34606,7 @@
         <v>1.99954964728618</v>
       </c>
     </row>
-    <row r="17" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:184">
       <c r="A17">
         <v>24</v>
       </c>
@@ -33851,11 +34665,11 @@
         <v>16.809999999999999</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.620000000000005</v>
       </c>
       <c r="U17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.8099999999999952</v>
       </c>
       <c r="V17" s="4">
@@ -33875,15 +34689,15 @@
         <v>20.68</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.649999999999999</v>
       </c>
       <c r="AE17" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>33.980000000000004</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6500000000000057</v>
       </c>
       <c r="AG17" s="1">
@@ -33906,15 +34720,15 @@
         <v>10.56</v>
       </c>
       <c r="AO17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.46</v>
       </c>
       <c r="AP17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16000000000000014</v>
       </c>
       <c r="AQ17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.54</v>
       </c>
       <c r="AT17">
@@ -33930,11 +34744,11 @@
         <v>31.87</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3399999999999999</v>
       </c>
       <c r="AY17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31.200000000000003</v>
       </c>
       <c r="BB17">
@@ -33953,7 +34767,7 @@
         <v>0.82</v>
       </c>
       <c r="BG17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.63</v>
       </c>
       <c r="BJ17">
@@ -34002,7 +34816,7 @@
         <v>30.3735416666667</v>
       </c>
       <c r="CA17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1735416666667007</v>
       </c>
       <c r="CB17">
@@ -34027,7 +34841,7 @@
         <v>29.433177193542601</v>
       </c>
       <c r="CI17">
-        <f>ABS(CF17-CH17)</f>
+        <f t="shared" si="4"/>
         <v>0.25212148774540211</v>
       </c>
       <c r="CL17">
@@ -34097,7 +34911,7 @@
         <v>33.273776580364903</v>
       </c>
       <c r="DH17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.74087470539949862</v>
       </c>
       <c r="DK17">
@@ -34311,7 +35125,7 @@
         <v>1.7976966702280599</v>
       </c>
     </row>
-    <row r="18" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:184">
       <c r="A18">
         <v>33</v>
       </c>
@@ -34370,11 +35184,11 @@
         <v>14.5</v>
       </c>
       <c r="T18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.09</v>
       </c>
       <c r="U18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="V18" s="4">
@@ -34394,15 +35208,15 @@
         <v>16.89</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13.649999999999999</v>
       </c>
       <c r="AE18" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30.19</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.34999999999999787</v>
       </c>
       <c r="AG18" s="1">
@@ -34425,15 +35239,15 @@
         <v>11.16</v>
       </c>
       <c r="AO18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.53</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.75999999999999801</v>
       </c>
       <c r="AQ18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.91</v>
       </c>
       <c r="AT18">
@@ -34449,11 +35263,11 @@
         <v>29.28</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1400000000000006</v>
       </c>
       <c r="AY18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29.85</v>
       </c>
       <c r="BB18">
@@ -34472,7 +35286,7 @@
         <v>1.45</v>
       </c>
       <c r="BG18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.515000000000001</v>
       </c>
       <c r="BJ18" t="s">
@@ -34518,7 +35332,7 @@
         <v>28.8035416666667</v>
       </c>
       <c r="CA18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.2335416666666994</v>
       </c>
       <c r="CB18">
@@ -34543,7 +35357,7 @@
         <v>26.667588050770199</v>
       </c>
       <c r="CI18">
-        <f>ABS(CF18-CH18)</f>
+        <f t="shared" si="4"/>
         <v>0.33297035870440084</v>
       </c>
       <c r="CL18">
@@ -34613,7 +35427,7 @@
         <v>31.560169322391999</v>
       </c>
       <c r="DH18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.28005795639889897</v>
       </c>
       <c r="DK18" t="s">
@@ -34827,7 +35641,7 @@
         <v>2.1950810779782999</v>
       </c>
     </row>
-    <row r="19" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:184">
       <c r="A19">
         <v>34</v>
       </c>
@@ -34886,11 +35700,11 @@
         <v>12.99</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.53</v>
       </c>
       <c r="U19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.0100000000000016</v>
       </c>
       <c r="V19" s="4">
@@ -34910,15 +35724,15 @@
         <v>16.29</v>
       </c>
       <c r="AD19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13.380000000000003</v>
       </c>
       <c r="AE19" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29.59</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.0000000000001847E-2</v>
       </c>
       <c r="AG19" s="1">
@@ -34941,15 +35755,15 @@
         <v>11.12</v>
       </c>
       <c r="AO19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="AP19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.71999999999999886</v>
       </c>
       <c r="AQ19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27.36</v>
       </c>
       <c r="AT19">
@@ -34965,11 +35779,11 @@
         <v>27.7</v>
       </c>
       <c r="AX19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6799999999999997</v>
       </c>
       <c r="AY19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29.04</v>
       </c>
       <c r="BB19">
@@ -34988,7 +35802,7 @@
         <v>0.60999999999999899</v>
       </c>
       <c r="BG19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.265000000000001</v>
       </c>
       <c r="BJ19" t="s">
@@ -35034,7 +35848,7 @@
         <v>29.363541666666698</v>
       </c>
       <c r="CA19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8135416666666977</v>
       </c>
       <c r="CB19">
@@ -35059,7 +35873,7 @@
         <v>30.539894533078801</v>
       </c>
       <c r="CI19">
-        <f>ABS(CF19-CH19)</f>
+        <f t="shared" si="4"/>
         <v>0.17103518563790132</v>
       </c>
       <c r="CL19">
@@ -35129,7 +35943,7 @@
         <v>34.585237649539202</v>
       </c>
       <c r="DH19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0741087434756977</v>
       </c>
       <c r="DK19">
@@ -35343,7 +36157,7 @@
         <v>1.935032751704</v>
       </c>
     </row>
-    <row r="20" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:184">
       <c r="A20">
         <v>35</v>
       </c>
@@ -35402,11 +36216,11 @@
         <v>14.16</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.81</v>
       </c>
       <c r="U20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.83999999999999986</v>
       </c>
       <c r="V20" s="4">
@@ -35426,15 +36240,15 @@
         <v>17.93</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12.260000000000002</v>
       </c>
       <c r="AE20" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>31.23</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.0399999999999991</v>
       </c>
       <c r="AG20" s="1">
@@ -35457,15 +36271,15 @@
         <v>11.39</v>
       </c>
       <c r="AO20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.160000000000004</v>
       </c>
       <c r="AP20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.98999999999999488</v>
       </c>
       <c r="AQ20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.655000000000001</v>
       </c>
       <c r="AT20">
@@ -35481,11 +36295,11 @@
         <v>29.54</v>
       </c>
       <c r="AX20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6000000000000014</v>
       </c>
       <c r="AY20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.34</v>
       </c>
       <c r="BB20">
@@ -35504,7 +36318,7 @@
         <v>1.24</v>
       </c>
       <c r="BG20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.2</v>
       </c>
       <c r="BJ20" t="s">
@@ -35550,7 +36364,7 @@
         <v>29.503541666666699</v>
       </c>
       <c r="CA20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.9635416666666998</v>
       </c>
       <c r="CB20">
@@ -35575,7 +36389,7 @@
         <v>28.813311519701902</v>
       </c>
       <c r="CI20">
-        <f>ABS(CF20-CH20)</f>
+        <f t="shared" si="4"/>
         <v>0.29454437514630172</v>
       </c>
       <c r="CL20">
@@ -35645,7 +36459,7 @@
         <v>33.021621615082999</v>
       </c>
       <c r="DH20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.9244924052538011</v>
       </c>
       <c r="DK20">
@@ -35859,7 +36673,7 @@
         <v>2.3001550595195002</v>
       </c>
     </row>
-    <row r="21" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:184">
       <c r="A21">
         <v>36</v>
       </c>
@@ -35918,11 +36732,11 @@
         <v>14.15</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.69</v>
       </c>
       <c r="U21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.85000000000000142</v>
       </c>
       <c r="V21" s="4">
@@ -35942,15 +36756,15 @@
         <v>16.12</v>
       </c>
       <c r="AD21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15.09</v>
       </c>
       <c r="AE21" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29.42</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.7899999999999991</v>
       </c>
       <c r="AG21" s="1">
@@ -35973,15 +36787,15 @@
         <v>10.88</v>
       </c>
       <c r="AO21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.39</v>
       </c>
       <c r="AP21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.48000000000000043</v>
       </c>
       <c r="AQ21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.630000000000003</v>
       </c>
       <c r="AT21">
@@ -35997,11 +36811,11 @@
         <v>29.17</v>
       </c>
       <c r="AX21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6899999999999977</v>
       </c>
       <c r="AY21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.015000000000001</v>
       </c>
       <c r="BB21">
@@ -36020,7 +36834,7 @@
         <v>0.44999999999999901</v>
       </c>
       <c r="BG21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.825000000000003</v>
       </c>
       <c r="BJ21" t="s">
@@ -36066,7 +36880,7 @@
         <v>30.6935416666667</v>
       </c>
       <c r="CA21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3835416666667015</v>
       </c>
       <c r="CB21">
@@ -36091,7 +36905,7 @@
         <v>25.888334906808399</v>
       </c>
       <c r="CI21">
-        <f>ABS(CF21-CH21)</f>
+        <f t="shared" si="4"/>
         <v>0.30590091100049932</v>
       </c>
       <c r="CL21">
@@ -36161,7 +36975,7 @@
         <v>30.398997027265299</v>
       </c>
       <c r="DH21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.25119916571960133</v>
       </c>
       <c r="DK21">
@@ -36375,7 +37189,7 @@
         <v>2.4891251698624699</v>
       </c>
     </row>
-    <row r="22" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:184">
       <c r="A22">
         <v>37</v>
       </c>
@@ -36434,11 +37248,11 @@
         <v>14.68</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.61</v>
       </c>
       <c r="U22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.32000000000000028</v>
       </c>
       <c r="V22" s="4">
@@ -36458,15 +37272,15 @@
         <v>16.010000000000002</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13.779999999999998</v>
       </c>
       <c r="AE22" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29.310000000000002</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.47999999999999687</v>
       </c>
       <c r="AG22" s="1">
@@ -36489,15 +37303,15 @@
         <v>11.1</v>
       </c>
       <c r="AO22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.28</v>
       </c>
       <c r="AP22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.69999999999999929</v>
       </c>
       <c r="AQ22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.630000000000003</v>
       </c>
       <c r="AT22">
@@ -36513,11 +37327,11 @@
         <v>28.48</v>
       </c>
       <c r="AX22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0700000000000003</v>
       </c>
       <c r="AY22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29.515000000000001</v>
       </c>
       <c r="BB22">
@@ -36536,7 +37350,7 @@
         <v>0.68</v>
       </c>
       <c r="BG22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.34</v>
       </c>
       <c r="BJ22" t="s">
@@ -36582,7 +37396,7 @@
         <v>29.8735416666667</v>
       </c>
       <c r="CA22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.80354166666669968</v>
       </c>
       <c r="CB22">
@@ -36607,7 +37421,7 @@
         <v>27.389138207084802</v>
       </c>
       <c r="CI22">
-        <f>ABS(CF22-CH22)</f>
+        <f t="shared" si="4"/>
         <v>2.1387179710899318E-2</v>
       </c>
       <c r="CL22">
@@ -36677,7 +37491,7 @@
         <v>30.965343237682902</v>
       </c>
       <c r="DH22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.8414863109999686E-2</v>
       </c>
       <c r="DK22">
@@ -36891,7 +37705,7 @@
         <v>2.1090888311065998</v>
       </c>
     </row>
-    <row r="23" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:184">
       <c r="A23">
         <v>38</v>
       </c>
@@ -36950,11 +37764,11 @@
         <v>12.75</v>
       </c>
       <c r="T23" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>33.31</v>
       </c>
       <c r="U23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.2500000000000036</v>
       </c>
       <c r="V23" s="4">
@@ -36974,15 +37788,15 @@
         <v>16.54</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16.160000000000004</v>
       </c>
       <c r="AE23" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29.84</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.860000000000003</v>
       </c>
       <c r="AG23" s="1">
@@ -37005,15 +37819,15 @@
         <v>10.91</v>
       </c>
       <c r="AO23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.54</v>
       </c>
       <c r="AP23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51000000000000156</v>
       </c>
       <c r="AQ23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.795000000000002</v>
       </c>
       <c r="AT23">
@@ -37029,11 +37843,11 @@
         <v>29.74</v>
       </c>
       <c r="AX23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.620000000000001</v>
       </c>
       <c r="AY23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.549999999999997</v>
       </c>
       <c r="BB23">
@@ -37052,7 +37866,7 @@
         <v>1.05</v>
       </c>
       <c r="BG23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.215</v>
       </c>
       <c r="BJ23" t="s">
@@ -37098,7 +37912,7 @@
         <v>30.3035416666667</v>
       </c>
       <c r="CA23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4135416666666991</v>
       </c>
       <c r="CB23">
@@ -37123,7 +37937,7 @@
         <v>29.1173548169652</v>
       </c>
       <c r="CI23">
-        <f>ABS(CF23-CH23)</f>
+        <f t="shared" si="4"/>
         <v>0.28338750956439895</v>
       </c>
       <c r="CL23">
@@ -37193,7 +38007,7 @@
         <v>33.3118818441868</v>
       </c>
       <c r="DH23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.561804714260262E-2</v>
       </c>
       <c r="DK23">
@@ -37407,7 +38221,7 @@
         <v>1.9559636099039299</v>
       </c>
     </row>
-    <row r="24" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:184">
       <c r="A24">
         <v>39</v>
       </c>
@@ -37466,11 +38280,11 @@
         <v>15.75</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.159999999999997</v>
       </c>
       <c r="U24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.75</v>
       </c>
       <c r="V24" s="4">
@@ -37490,15 +38304,15 @@
         <v>21.61</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.84</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34.909999999999997</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.4599999999999973</v>
       </c>
       <c r="AG24" s="1">
@@ -37521,15 +38335,15 @@
         <v>9.34</v>
       </c>
       <c r="AO24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.259999999999998</v>
       </c>
       <c r="AP24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0599999999999987</v>
       </c>
       <c r="AQ24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.729999999999997</v>
       </c>
       <c r="AT24">
@@ -37545,11 +38359,11 @@
         <v>30.48</v>
       </c>
       <c r="AX24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8499999999999979</v>
       </c>
       <c r="AY24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31.405000000000001</v>
       </c>
       <c r="BB24">
@@ -37568,7 +38382,7 @@
         <v>0.619999999999997</v>
       </c>
       <c r="BG24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.66</v>
       </c>
       <c r="BJ24">
@@ -37617,7 +38431,7 @@
         <v>30.433541666666699</v>
       </c>
       <c r="CA24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.95354166666669826</v>
       </c>
       <c r="CB24">
@@ -37642,7 +38456,7 @@
         <v>29.901002342136799</v>
       </c>
       <c r="CI24">
-        <f>ABS(CF24-CH24)</f>
+        <f t="shared" si="4"/>
         <v>0.12078343652880008</v>
       </c>
       <c r="CL24">
@@ -37712,7 +38526,7 @@
         <v>33.808613849563201</v>
       </c>
       <c r="DH24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.43431443013140125</v>
       </c>
       <c r="DK24" t="s">
@@ -37926,7 +38740,7 @@
         <v>2.22794011770559</v>
       </c>
     </row>
-    <row r="25" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:184">
       <c r="A25">
         <v>40</v>
       </c>
@@ -37985,11 +38799,11 @@
         <v>14.95</v>
       </c>
       <c r="T25" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.81</v>
       </c>
       <c r="U25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.9999999999997158E-2</v>
       </c>
       <c r="V25" s="4">
@@ -38022,15 +38836,15 @@
         <v>11.65</v>
       </c>
       <c r="AO25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.35</v>
       </c>
       <c r="AP25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
       <c r="AQ25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.975000000000001</v>
       </c>
       <c r="AT25">
@@ -38046,11 +38860,11 @@
         <v>29.37</v>
       </c>
       <c r="AX25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2300000000000004</v>
       </c>
       <c r="AY25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.484999999999999</v>
       </c>
       <c r="BB25">
@@ -38069,7 +38883,7 @@
         <v>0.87999999999999901</v>
       </c>
       <c r="BG25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.03</v>
       </c>
       <c r="BJ25">
@@ -38118,7 +38932,7 @@
         <v>30.913541666666699</v>
       </c>
       <c r="CA25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0635416666666977</v>
       </c>
       <c r="CB25">
@@ -38143,7 +38957,7 @@
         <v>29.642939040483601</v>
       </c>
       <c r="CI25">
-        <f>ABS(CF25-CH25)</f>
+        <f t="shared" si="4"/>
         <v>0.22710933791790211</v>
       </c>
       <c r="CL25">
@@ -38213,7 +39027,7 @@
         <v>33.712447488457499</v>
       </c>
       <c r="DH25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.45979978886330031</v>
       </c>
       <c r="DK25">
@@ -38427,7 +39241,7 @@
         <v>2.1030029252409599</v>
       </c>
     </row>
-    <row r="26" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:184">
       <c r="A26">
         <v>9</v>
       </c>
@@ -38499,15 +39313,15 @@
         <v>17.829999999999998</v>
       </c>
       <c r="AD26">
-        <f t="shared" ref="AD26:AD33" si="17">AA26-AC26</f>
+        <f t="shared" ref="AD26:AD33" si="18">AA26-AC26</f>
         <v>14.550000000000004</v>
       </c>
       <c r="AE26" s="2">
-        <f t="shared" ref="AE26:AE33" si="18">AC26+13.3</f>
+        <f t="shared" ref="AE26:AE33" si="19">AC26+13.3</f>
         <v>31.13</v>
       </c>
       <c r="AF26">
-        <f t="shared" ref="AF26:AF33" si="19">ABS(AA26-AE26)</f>
+        <f t="shared" ref="AF26:AF33" si="20">ABS(AA26-AE26)</f>
         <v>1.2500000000000036</v>
       </c>
       <c r="AG26" s="1">
@@ -38530,15 +39344,15 @@
         <v>10.44</v>
       </c>
       <c r="AO26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.33</v>
       </c>
       <c r="AP26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.00000000000027E-2</v>
       </c>
       <c r="AQ26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.35</v>
       </c>
       <c r="AT26">
@@ -38554,11 +39368,11 @@
         <v>33.36</v>
       </c>
       <c r="AX26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8999999999999986</v>
       </c>
       <c r="AY26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>34.31</v>
       </c>
       <c r="BB26">
@@ -38577,7 +39391,7 @@
         <v>0.85000000000000098</v>
       </c>
       <c r="BG26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.324999999999999</v>
       </c>
       <c r="BJ26">
@@ -38626,7 +39440,7 @@
         <v>30.933541666666699</v>
       </c>
       <c r="CA26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2264583333332979</v>
       </c>
       <c r="CB26">
@@ -38651,7 +39465,7 @@
         <v>27.105082733555999</v>
       </c>
       <c r="CI26">
-        <f>ABS(CF26-CH26)</f>
+        <f t="shared" si="4"/>
         <v>9.2492210151899457E-2</v>
       </c>
       <c r="CL26">
@@ -38721,7 +39535,7 @@
         <v>30.968714251096198</v>
       </c>
       <c r="DH26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.15353955087310212</v>
       </c>
       <c r="DK26">
@@ -38935,7 +39749,7 @@
         <v>3.2889342395734</v>
       </c>
     </row>
-    <row r="27" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:184">
       <c r="A27">
         <v>10</v>
       </c>
@@ -39018,15 +39832,15 @@
         <v>16.93</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16.270000000000003</v>
       </c>
       <c r="AE27" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.23</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.9700000000000024</v>
       </c>
       <c r="AG27" s="1">
@@ -39049,15 +39863,15 @@
         <v>10.029999999999999</v>
       </c>
       <c r="AO27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.11</v>
       </c>
       <c r="AP27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.37000000000000099</v>
       </c>
       <c r="AQ27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.924999999999997</v>
       </c>
       <c r="AT27">
@@ -39073,11 +39887,11 @@
         <v>32.46</v>
       </c>
       <c r="AX27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.69999999999999574</v>
       </c>
       <c r="AY27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.81</v>
       </c>
       <c r="BB27">
@@ -39096,7 +39910,7 @@
         <v>0.52</v>
       </c>
       <c r="BG27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.11</v>
       </c>
       <c r="BJ27">
@@ -39145,7 +39959,7 @@
         <v>30.323541666666699</v>
       </c>
       <c r="CA27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7064583333333019</v>
       </c>
       <c r="CB27">
@@ -39170,7 +39984,7 @@
         <v>26.297601949440001</v>
       </c>
       <c r="CI27">
-        <f>ABS(CF27-CH27)</f>
+        <f t="shared" si="4"/>
         <v>0.17074652895999876</v>
       </c>
       <c r="CL27">
@@ -39240,7 +40054,7 @@
         <v>30.229695332692199</v>
       </c>
       <c r="DH27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.37810595228500077</v>
       </c>
       <c r="DK27">
@@ -39454,7 +40268,7 @@
         <v>3.2666853496377901</v>
       </c>
     </row>
-    <row r="28" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:184">
       <c r="A28">
         <v>11</v>
       </c>
@@ -39537,15 +40351,15 @@
         <v>17.399999999999999</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>15.590000000000003</v>
       </c>
       <c r="AE28" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.7</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.2900000000000027</v>
       </c>
       <c r="AG28" s="1">
@@ -39568,15 +40382,15 @@
         <v>11.72</v>
       </c>
       <c r="AO28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.189999999999998</v>
       </c>
       <c r="AP28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3200000000000038</v>
       </c>
       <c r="AQ28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.85</v>
       </c>
       <c r="AT28">
@@ -39592,11 +40406,11 @@
         <v>31.54</v>
       </c>
       <c r="AX28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2700000000000031</v>
       </c>
       <c r="AY28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.674999999999997</v>
       </c>
       <c r="BB28">
@@ -39615,7 +40429,7 @@
         <v>0.92000000000000204</v>
       </c>
       <c r="BG28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.86</v>
       </c>
       <c r="BJ28">
@@ -39664,7 +40478,7 @@
         <v>31.313541666666701</v>
       </c>
       <c r="CA28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.8864583333333016</v>
       </c>
       <c r="CB28">
@@ -39689,7 +40503,7 @@
         <v>27.020604200291</v>
       </c>
       <c r="CI28">
-        <f>ABS(CF28-CH28)</f>
+        <f t="shared" si="4"/>
         <v>5.1388399823800057E-2</v>
       </c>
       <c r="CL28">
@@ -39759,7 +40573,7 @@
         <v>30.044045316340799</v>
       </c>
       <c r="DH28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.8064367040059324E-4</v>
       </c>
       <c r="DK28">
@@ -39973,7 +40787,7 @@
         <v>2.2981481811086901</v>
       </c>
     </row>
-    <row r="29" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:184">
       <c r="A29">
         <v>12</v>
       </c>
@@ -40045,15 +40859,15 @@
         <v>15.24</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>14.770000000000001</v>
       </c>
       <c r="AE29" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28.54</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.4700000000000024</v>
       </c>
       <c r="AG29" s="1">
@@ -40076,15 +40890,15 @@
         <v>9.33</v>
       </c>
       <c r="AO29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.119999999999997</v>
       </c>
       <c r="AP29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0699999999999967</v>
       </c>
       <c r="AQ29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.585000000000001</v>
       </c>
       <c r="AT29">
@@ -40100,11 +40914,11 @@
         <v>34.26</v>
       </c>
       <c r="AX29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.64000000000000057</v>
       </c>
       <c r="AY29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33.94</v>
       </c>
       <c r="BB29">
@@ -40123,7 +40937,7 @@
         <v>0.34999999999999798</v>
       </c>
       <c r="BG29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.884999999999998</v>
       </c>
       <c r="BJ29" t="s">
@@ -40169,7 +40983,7 @@
         <v>31.633541666666702</v>
       </c>
       <c r="CA29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2764583333332951</v>
       </c>
       <c r="CB29">
@@ -40194,7 +41008,7 @@
         <v>29.2137733359103</v>
       </c>
       <c r="CI29">
-        <f>ABS(CF29-CH29)</f>
+        <f t="shared" si="4"/>
         <v>8.8787175568199928E-2</v>
       </c>
       <c r="CL29">
@@ -40264,7 +41078,7 @@
         <v>33.440021652653698</v>
       </c>
       <c r="DH29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.1217832427047369E-3</v>
       </c>
       <c r="DK29">
@@ -40478,7 +41292,7 @@
         <v>2.0548579726231702</v>
       </c>
     </row>
-    <row r="30" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:184">
       <c r="A30">
         <v>13</v>
       </c>
@@ -40561,15 +41375,15 @@
         <v>19.46</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>13.240000000000002</v>
       </c>
       <c r="AE30" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32.760000000000005</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.0000000000002274E-2</v>
       </c>
       <c r="AG30" s="1">
@@ -40592,15 +41406,15 @@
         <v>11.74</v>
       </c>
       <c r="AO30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.86</v>
       </c>
       <c r="AP30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3399999999999999</v>
       </c>
       <c r="AQ30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.53</v>
       </c>
       <c r="AT30">
@@ -40616,11 +41430,11 @@
         <v>32.049999999999997</v>
       </c>
       <c r="AX30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.67999999999999972</v>
       </c>
       <c r="AY30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.39</v>
       </c>
       <c r="BB30">
@@ -40639,7 +41453,7 @@
         <v>0.56000000000000205</v>
       </c>
       <c r="BG30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28.66</v>
       </c>
       <c r="BJ30" t="s">
@@ -40685,7 +41499,7 @@
         <v>31.7135416666667</v>
       </c>
       <c r="CA30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.97354166666670139</v>
       </c>
       <c r="CB30">
@@ -40710,7 +41524,7 @@
         <v>27.423062389238599</v>
       </c>
       <c r="CI30">
-        <f>ABS(CF30-CH30)</f>
+        <f t="shared" si="4"/>
         <v>0.10957175037919953</v>
       </c>
       <c r="CL30">
@@ -40780,7 +41594,7 @@
         <v>31.529422947657501</v>
       </c>
       <c r="DH30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.1370478765199437E-2</v>
       </c>
       <c r="DK30">
@@ -40994,7 +41808,7 @@
         <v>2.0913366592516902</v>
       </c>
     </row>
-    <row r="31" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:184">
       <c r="A31">
         <v>14</v>
       </c>
@@ -41077,15 +41891,15 @@
         <v>16.84</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16.2</v>
       </c>
       <c r="AE31" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.14</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.8999999999999986</v>
       </c>
       <c r="AG31" s="1">
@@ -41108,15 +41922,15 @@
         <v>12.1</v>
       </c>
       <c r="AO31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.43</v>
       </c>
       <c r="AP31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6999999999999993</v>
       </c>
       <c r="AQ31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.28</v>
       </c>
       <c r="AT31">
@@ -41132,11 +41946,11 @@
         <v>32.18</v>
       </c>
       <c r="AX31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.21000000000000085</v>
       </c>
       <c r="AY31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.284999999999997</v>
       </c>
       <c r="BB31">
@@ -41155,7 +41969,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="BG31" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.18</v>
       </c>
       <c r="BJ31">
@@ -41228,7 +42042,7 @@
         <v>30.7189802825181</v>
       </c>
       <c r="CI31">
-        <f>ABS(CF31-CH31)</f>
+        <f t="shared" si="4"/>
         <v>0.47723625380839962</v>
       </c>
       <c r="CL31">
@@ -41298,7 +42112,7 @@
         <v>34.8437232003619</v>
       </c>
       <c r="DH31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13746413028049886</v>
       </c>
       <c r="DK31">
@@ -41512,7 +42326,7 @@
         <v>2.12695360768363</v>
       </c>
     </row>
-    <row r="32" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:184">
       <c r="A32">
         <v>15</v>
       </c>
@@ -41584,15 +42398,15 @@
         <v>17.46</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.689999999999998</v>
       </c>
       <c r="AE32" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.76</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.61000000000000298</v>
       </c>
       <c r="AG32" s="1">
@@ -41615,15 +42429,15 @@
         <v>11.91</v>
       </c>
       <c r="AO32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.39</v>
       </c>
       <c r="AP32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.509999999999998</v>
       </c>
       <c r="AQ32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.145</v>
       </c>
       <c r="AT32">
@@ -41639,11 +42453,11 @@
         <v>32.26</v>
       </c>
       <c r="AX32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1300000000000026</v>
       </c>
       <c r="AY32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.825000000000003</v>
       </c>
       <c r="BB32">
@@ -41662,7 +42476,7 @@
         <v>0.69000000000000095</v>
       </c>
       <c r="BG32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.274999999999999</v>
       </c>
       <c r="BJ32" t="s">
@@ -41708,7 +42522,7 @@
         <v>31.413541666666699</v>
       </c>
       <c r="CA32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3535416666667004</v>
       </c>
       <c r="CB32">
@@ -41733,7 +42547,7 @@
         <v>34.085507208231299</v>
       </c>
       <c r="CI32">
-        <f>ABS(CF32-CH32)</f>
+        <f t="shared" si="4"/>
         <v>0.12388671851650201</v>
       </c>
       <c r="CL32">
@@ -41803,7 +42617,7 @@
         <v>36.471923728485997</v>
       </c>
       <c r="DH32" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="DK32">
@@ -42017,7 +42831,7 @@
         <v>2.43936251364789</v>
       </c>
     </row>
-    <row r="33" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:184">
       <c r="A33">
         <v>16</v>
       </c>
@@ -42089,15 +42903,15 @@
         <v>16.71</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16.490000000000002</v>
       </c>
       <c r="AE33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.01</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.1900000000000013</v>
       </c>
       <c r="AG33" s="1">
@@ -42120,15 +42934,15 @@
         <v>11.28</v>
       </c>
       <c r="AO33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.340000000000003</v>
       </c>
       <c r="AP33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.87999999999999545</v>
       </c>
       <c r="AQ33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.78</v>
       </c>
       <c r="AT33">
@@ -42144,11 +42958,11 @@
         <v>31.93</v>
       </c>
       <c r="AX33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.990000000000002</v>
       </c>
       <c r="AY33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.924999999999997</v>
       </c>
       <c r="BB33">
@@ -42167,7 +42981,7 @@
         <v>0.85999999999999899</v>
       </c>
       <c r="BG33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.13</v>
       </c>
       <c r="BJ33">
@@ -42216,7 +43030,7 @@
         <v>31.3035416666667</v>
       </c>
       <c r="CA33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.70354166666669826</v>
       </c>
       <c r="CB33">
@@ -42241,7 +43055,7 @@
         <v>27.771639115698399</v>
       </c>
       <c r="CI33">
-        <f>ABS(CF33-CH33)</f>
+        <f t="shared" si="4"/>
         <v>0.26390966776670055</v>
       </c>
       <c r="CL33">
@@ -42311,7 +43125,7 @@
         <v>31.752926040618501</v>
       </c>
       <c r="DH33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.35866857032140231</v>
       </c>
       <c r="DK33">
@@ -42525,7 +43339,7 @@
         <v>2.4349921558800398</v>
       </c>
     </row>
-    <row r="34" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:184">
       <c r="A34">
         <v>25</v>
       </c>
@@ -42584,11 +43398,11 @@
         <v>15.7</v>
       </c>
       <c r="T34" s="3">
-        <f t="shared" ref="T34:T49" si="20">R34+15</f>
+        <f t="shared" ref="T34:T49" si="21">R34+15</f>
         <v>31.33</v>
       </c>
       <c r="U34">
-        <f t="shared" ref="U34:U49" si="21">ABS(P34-T34)</f>
+        <f t="shared" ref="U34:U49" si="22">ABS(P34-T34)</f>
         <v>0.70000000000000284</v>
       </c>
       <c r="V34" s="4">
@@ -42624,15 +43438,15 @@
         <v>11.76</v>
       </c>
       <c r="AO34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.130000000000003</v>
       </c>
       <c r="AP34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3599999999999959</v>
       </c>
       <c r="AQ34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.810000000000002</v>
       </c>
       <c r="AT34">
@@ -42648,11 +43462,11 @@
         <v>31.76</v>
       </c>
       <c r="AX34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.379999999999999</v>
       </c>
       <c r="AY34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.950000000000003</v>
       </c>
       <c r="BB34">
@@ -42671,7 +43485,7 @@
         <v>2.12</v>
       </c>
       <c r="BG34" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.91</v>
       </c>
       <c r="BJ34">
@@ -42720,7 +43534,7 @@
         <v>30.4635416666667</v>
       </c>
       <c r="CA34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.8635416666666984</v>
       </c>
       <c r="CB34">
@@ -42745,7 +43559,7 @@
         <v>26.552657122418999</v>
       </c>
       <c r="CI34">
-        <f>ABS(CF34-CH34)</f>
+        <f t="shared" si="4"/>
         <v>0.11559983529409834</v>
       </c>
       <c r="CL34">
@@ -42815,7 +43629,7 @@
         <v>30.436183483506301</v>
       </c>
       <c r="DH34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.8069395743798964E-2</v>
       </c>
       <c r="DK34">
@@ -43029,7 +43843,7 @@
         <v>2.0452031876029402</v>
       </c>
     </row>
-    <row r="35" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:184">
       <c r="A35">
         <v>26</v>
       </c>
@@ -43088,11 +43902,11 @@
         <v>18.059999999999999</v>
       </c>
       <c r="T35" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>31.06</v>
       </c>
       <c r="U35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.0599999999999987</v>
       </c>
       <c r="V35" s="4">
@@ -43116,7 +43930,7 @@
         <v>15.929999999999996</v>
       </c>
       <c r="AE35" s="2">
-        <f t="shared" ref="AE35:AE40" si="22">AC35+13.3</f>
+        <f t="shared" ref="AE35:AE40" si="23">AC35+13.3</f>
         <v>30.92</v>
       </c>
       <c r="AF35">
@@ -43143,15 +43957,15 @@
         <v>9.48</v>
       </c>
       <c r="AO35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.22</v>
       </c>
       <c r="AP35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91999999999999815</v>
       </c>
       <c r="AQ35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.759999999999998</v>
       </c>
       <c r="AT35">
@@ -43167,11 +43981,11 @@
         <v>32.28</v>
       </c>
       <c r="AX35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1899999999999977</v>
       </c>
       <c r="AY35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33.375</v>
       </c>
       <c r="BB35">
@@ -43190,7 +44004,7 @@
         <v>1.29</v>
       </c>
       <c r="BG35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.835000000000001</v>
       </c>
       <c r="BJ35">
@@ -43239,7 +44053,7 @@
         <v>31.013541666666701</v>
       </c>
       <c r="CA35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.90645833333330117</v>
       </c>
       <c r="CB35">
@@ -43264,7 +44078,7 @@
         <v>28.822804073840199</v>
       </c>
       <c r="CI35">
-        <f>ABS(CF35-CH35)</f>
+        <f t="shared" si="4"/>
         <v>0.24346343408920035</v>
       </c>
       <c r="CL35">
@@ -43334,7 +44148,7 @@
         <v>33.5656731221153</v>
       </c>
       <c r="DH35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.20982087090430213</v>
       </c>
       <c r="DK35">
@@ -43548,7 +44362,7 @@
         <v>2.0183277051653201</v>
       </c>
     </row>
-    <row r="36" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:184">
       <c r="A36">
         <v>27</v>
       </c>
@@ -43607,11 +44421,11 @@
         <v>16.63</v>
       </c>
       <c r="T36" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>31.11</v>
       </c>
       <c r="U36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.6300000000000026</v>
       </c>
       <c r="V36" s="4">
@@ -43628,7 +44442,7 @@
         <v>18.309999999999999</v>
       </c>
       <c r="AE36" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>31.61</v>
       </c>
       <c r="AG36" s="1">
@@ -43651,15 +44465,15 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AO36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.9</v>
       </c>
       <c r="AP36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1999999999999993</v>
       </c>
       <c r="AQ36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27.799999999999997</v>
       </c>
       <c r="AT36">
@@ -43675,11 +44489,11 @@
         <v>31.76</v>
       </c>
       <c r="AX36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1900000000000013</v>
       </c>
       <c r="AY36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.355000000000004</v>
       </c>
       <c r="BB36">
@@ -43698,7 +44512,7 @@
         <v>2.08</v>
       </c>
       <c r="BG36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.54</v>
       </c>
       <c r="BJ36" t="s">
@@ -43744,7 +44558,7 @@
         <v>28.413541666666699</v>
       </c>
       <c r="CA36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.19645833333330032</v>
       </c>
       <c r="CB36">
@@ -43769,7 +44583,7 @@
         <v>29.181961955035199</v>
       </c>
       <c r="CI36">
-        <f>ABS(CF36-CH36)</f>
+        <f t="shared" si="4"/>
         <v>0.40966529431960197</v>
       </c>
       <c r="CL36">
@@ -43839,7 +44653,7 @@
         <v>33.546167946091799</v>
       </c>
       <c r="DH36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1868267083434958</v>
       </c>
       <c r="DK36">
@@ -44053,7 +44867,7 @@
         <v>2.1366165931128598</v>
       </c>
     </row>
-    <row r="37" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:184">
       <c r="A37">
         <v>28</v>
       </c>
@@ -44112,11 +44926,11 @@
         <v>18.29</v>
       </c>
       <c r="T37" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>30.53</v>
       </c>
       <c r="U37">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.2899999999999991</v>
       </c>
       <c r="V37" s="4">
@@ -44140,7 +44954,7 @@
         <v>13.73</v>
       </c>
       <c r="AE37" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>29.7</v>
       </c>
       <c r="AF37">
@@ -44167,15 +44981,15 @@
         <v>9.91</v>
       </c>
       <c r="AO37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.270000000000003</v>
       </c>
       <c r="AP37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49000000000000199</v>
       </c>
       <c r="AQ37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31.025000000000002</v>
       </c>
       <c r="AT37">
@@ -44191,11 +45005,11 @@
         <v>32.72</v>
       </c>
       <c r="AX37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.64999999999999858</v>
       </c>
       <c r="AY37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33.045000000000002</v>
       </c>
       <c r="BB37">
@@ -44214,7 +45028,7 @@
         <v>2.6500000000000101</v>
       </c>
       <c r="BG37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>34.195</v>
       </c>
       <c r="BJ37">
@@ -44263,7 +45077,7 @@
         <v>31.653541666666701</v>
       </c>
       <c r="CA37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6664583333332992</v>
       </c>
       <c r="CB37">
@@ -44288,7 +45102,7 @@
         <v>29.129826227519501</v>
       </c>
       <c r="CI37">
-        <f>ABS(CF37-CH37)</f>
+        <f t="shared" si="4"/>
         <v>8.8354026674696939E-2</v>
       </c>
       <c r="CL37">
@@ -44358,7 +45172,7 @@
         <v>33.486522216539598</v>
       </c>
       <c r="DH37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.6069664837998801E-2</v>
       </c>
       <c r="DK37" t="s">
@@ -44572,7 +45386,7 @@
         <v>2.4273897158050302</v>
       </c>
     </row>
-    <row r="38" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:184">
       <c r="A38">
         <v>29</v>
       </c>
@@ -44631,11 +45445,11 @@
         <v>15.29</v>
       </c>
       <c r="T38" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>30.65</v>
       </c>
       <c r="U38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.2900000000000027</v>
       </c>
       <c r="V38" s="4">
@@ -44659,7 +45473,7 @@
         <v>13.2</v>
       </c>
       <c r="AE38" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="AF38">
@@ -44686,15 +45500,15 @@
         <v>8.31</v>
       </c>
       <c r="AO38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.82</v>
       </c>
       <c r="AP38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.09</v>
       </c>
       <c r="AQ38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.774999999999999</v>
       </c>
       <c r="AT38">
@@ -44710,11 +45524,11 @@
         <v>30.47</v>
       </c>
       <c r="AX38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2900000000000027</v>
       </c>
       <c r="AY38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31.115000000000002</v>
       </c>
       <c r="BB38">
@@ -44733,7 +45547,7 @@
         <v>1.18</v>
       </c>
       <c r="BG38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.99</v>
       </c>
       <c r="BJ38">
@@ -44782,7 +45596,7 @@
         <v>30.043541666666702</v>
       </c>
       <c r="CA38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0635416666667012</v>
       </c>
       <c r="CB38">
@@ -44807,7 +45621,7 @@
         <v>26.676750270942399</v>
       </c>
       <c r="CI38">
-        <f>ABS(CF38-CH38)</f>
+        <f t="shared" si="4"/>
         <v>6.2650921177802132E-2</v>
       </c>
       <c r="CL38">
@@ -44877,7 +45691,7 @@
         <v>30.700026937014901</v>
       </c>
       <c r="DH38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.24646159940949985</v>
       </c>
       <c r="DK38">
@@ -45091,7 +45905,7 @@
         <v>2.39614184249817</v>
       </c>
     </row>
-    <row r="39" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:184">
       <c r="A39">
         <v>30</v>
       </c>
@@ -45150,11 +45964,11 @@
         <v>15.05</v>
       </c>
       <c r="T39" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>30.71</v>
       </c>
       <c r="U39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.0000000000000711E-2</v>
       </c>
       <c r="V39" s="4">
@@ -45178,7 +45992,7 @@
         <v>11.079999999999998</v>
       </c>
       <c r="AE39" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>27.62</v>
       </c>
       <c r="AF39">
@@ -45205,15 +46019,15 @@
         <v>9.82</v>
       </c>
       <c r="AO39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.36</v>
       </c>
       <c r="AP39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.57999999999999829</v>
       </c>
       <c r="AQ39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.07</v>
       </c>
       <c r="AT39">
@@ -45229,11 +46043,11 @@
         <v>30.99</v>
       </c>
       <c r="AX39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0400000000000027</v>
       </c>
       <c r="AY39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.51</v>
       </c>
       <c r="BB39">
@@ -45252,7 +46066,7 @@
         <v>1.86</v>
       </c>
       <c r="BG39" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.57</v>
       </c>
       <c r="BJ39">
@@ -45301,7 +46115,7 @@
         <v>31.433541666666699</v>
       </c>
       <c r="CA39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2335416666666994</v>
       </c>
       <c r="CB39">
@@ -45326,7 +46140,7 @@
         <v>26.517553932032602</v>
       </c>
       <c r="CI39">
-        <f>ABS(CF39-CH39)</f>
+        <f t="shared" si="4"/>
         <v>5.3304853255003337E-2</v>
       </c>
       <c r="CL39">
@@ -45396,7 +46210,7 @@
         <v>30.643316291953301</v>
       </c>
       <c r="DH39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.454759381379759E-2</v>
       </c>
       <c r="DK39">
@@ -45610,7 +46424,7 @@
         <v>2.6101234065008398</v>
       </c>
     </row>
-    <row r="40" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:184">
       <c r="A40">
         <v>31</v>
       </c>
@@ -45669,11 +46483,11 @@
         <v>13.99</v>
       </c>
       <c r="T40" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>31.73</v>
       </c>
       <c r="U40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0100000000000016</v>
       </c>
       <c r="V40" s="4">
@@ -45697,7 +46511,7 @@
         <v>15.650000000000002</v>
       </c>
       <c r="AE40" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>30.04</v>
       </c>
       <c r="AF40">
@@ -45724,15 +46538,15 @@
         <v>8.89</v>
       </c>
       <c r="AO40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.240000000000002</v>
       </c>
       <c r="AP40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5100000000000016</v>
       </c>
       <c r="AQ40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.484999999999999</v>
       </c>
       <c r="AT40" t="s">
@@ -45745,7 +46559,7 @@
         <v>32.159999999999997</v>
       </c>
       <c r="AY40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.159999999999997</v>
       </c>
       <c r="BB40">
@@ -45764,7 +46578,7 @@
         <v>1.31</v>
       </c>
       <c r="BG40" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.085000000000001</v>
       </c>
       <c r="BJ40">
@@ -45813,7 +46627,7 @@
         <v>31.063541666666701</v>
       </c>
       <c r="CA40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.96354166666669983</v>
       </c>
       <c r="CB40">
@@ -45838,7 +46652,7 @@
         <v>27.0275393645951</v>
       </c>
       <c r="CI40">
-        <f>ABS(CF40-CH40)</f>
+        <f t="shared" si="4"/>
         <v>0.22273863788710102</v>
       </c>
       <c r="CL40">
@@ -45908,7 +46722,7 @@
         <v>30.8249461565138</v>
       </c>
       <c r="DH40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.29605153156310138</v>
       </c>
       <c r="DK40" t="s">
@@ -46122,7 +46936,7 @@
         <v>2.2434430955051199</v>
       </c>
     </row>
-    <row r="41" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:184">
       <c r="A41">
         <v>32</v>
       </c>
@@ -46181,11 +46995,11 @@
         <v>16.16</v>
       </c>
       <c r="T41" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>31.67</v>
       </c>
       <c r="U41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.1599999999999966</v>
       </c>
       <c r="V41" s="4">
@@ -46218,15 +47032,15 @@
         <v>10.45</v>
       </c>
       <c r="AO41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.560000000000002</v>
       </c>
       <c r="AP41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.9999999999997158E-2</v>
       </c>
       <c r="AQ41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.585000000000001</v>
       </c>
       <c r="AT41">
@@ -46242,11 +47056,11 @@
         <v>33.700000000000003</v>
       </c>
       <c r="AX41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.019999999999996</v>
       </c>
       <c r="AY41" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>34.71</v>
       </c>
       <c r="BB41">
@@ -46265,7 +47079,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="BG41" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.909999999999997</v>
       </c>
       <c r="BJ41">
@@ -46314,7 +47128,7 @@
         <v>32.793541666666698</v>
       </c>
       <c r="CA41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.45645833333330188</v>
       </c>
       <c r="CB41">
@@ -46339,7 +47153,7 @@
         <v>28.190078633631298</v>
       </c>
       <c r="CI41">
-        <f>ABS(CF41-CH41)</f>
+        <f t="shared" si="4"/>
         <v>0.13908695264049697</v>
       </c>
       <c r="CL41">
@@ -46409,7 +47223,7 @@
         <v>32.932000075985997</v>
       </c>
       <c r="DH41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.0070284876941855E-3</v>
       </c>
       <c r="DK41">
@@ -46623,7 +47437,7 @@
         <v>2.0857626670385199</v>
       </c>
     </row>
-    <row r="42" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:184">
       <c r="A42">
         <v>41</v>
       </c>
@@ -46682,11 +47496,11 @@
         <v>16.95</v>
       </c>
       <c r="T42" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>30.79</v>
       </c>
       <c r="U42">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.9500000000000028</v>
       </c>
       <c r="V42" s="4">
@@ -46737,15 +47551,15 @@
         <v>10.119999999999999</v>
       </c>
       <c r="AO42" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.75</v>
       </c>
       <c r="AP42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.28000000000000114</v>
       </c>
       <c r="AQ42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.61</v>
       </c>
       <c r="AT42">
@@ -46761,11 +47575,11 @@
         <v>34.159999999999997</v>
       </c>
       <c r="AX42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
       <c r="AY42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33.409999999999997</v>
       </c>
       <c r="BB42">
@@ -46784,7 +47598,7 @@
         <v>0.110000000000003</v>
       </c>
       <c r="BG42" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.045000000000002</v>
       </c>
       <c r="BJ42">
@@ -46830,7 +47644,7 @@
         <v>30.833541666666701</v>
       </c>
       <c r="CA42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18354166666670224</v>
       </c>
       <c r="CB42">
@@ -46855,7 +47669,7 @@
         <v>29.095279968529201</v>
       </c>
       <c r="CI42" t="e">
-        <f>ABS(CF42-CH42)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="CL42">
@@ -46925,7 +47739,7 @@
         <v>36.595448340791997</v>
       </c>
       <c r="DH42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.6705824699939953</v>
       </c>
       <c r="DK42">
@@ -47139,7 +47953,7 @@
         <v>2.0801574312031099</v>
       </c>
     </row>
-    <row r="43" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:184">
       <c r="A43">
         <v>42</v>
       </c>
@@ -47198,11 +48012,11 @@
         <v>19.71</v>
       </c>
       <c r="T43" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>30.45</v>
       </c>
       <c r="U43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.7099999999999973</v>
       </c>
       <c r="V43" s="4">
@@ -47253,15 +48067,15 @@
         <v>10.210000000000001</v>
       </c>
       <c r="AO43" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.6</v>
       </c>
       <c r="AP43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.19000000000000128</v>
       </c>
       <c r="AQ43" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.505000000000003</v>
       </c>
       <c r="AT43">
@@ -47277,11 +48091,11 @@
         <v>33.24</v>
       </c>
       <c r="AX43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1900000000000013</v>
       </c>
       <c r="AY43" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.145000000000003</v>
       </c>
       <c r="BB43">
@@ -47300,7 +48114,7 @@
         <v>1.84</v>
       </c>
       <c r="BG43" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.009999999999998</v>
       </c>
       <c r="BJ43">
@@ -47349,7 +48163,7 @@
         <v>30.263541666666701</v>
       </c>
       <c r="CA43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.116458333333302</v>
       </c>
       <c r="CB43">
@@ -47374,7 +48188,7 @@
         <v>27.406993013260699</v>
       </c>
       <c r="CI43">
-        <f>ABS(CF43-CH43)</f>
+        <f t="shared" si="4"/>
         <v>0.25468905497920247</v>
       </c>
       <c r="CL43">
@@ -47444,7 +48258,7 @@
         <v>32.500795493682098</v>
       </c>
       <c r="DH43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.72678958277349892</v>
       </c>
       <c r="DK43">
@@ -47658,7 +48472,7 @@
         <v>1.7918809896219301</v>
       </c>
     </row>
-    <row r="44" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:184">
       <c r="A44">
         <v>43</v>
       </c>
@@ -47717,11 +48531,11 @@
         <v>15.04</v>
       </c>
       <c r="T44" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>31.56</v>
       </c>
       <c r="U44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.00000000000027E-2</v>
       </c>
       <c r="V44" s="4">
@@ -47754,15 +48568,15 @@
         <v>12.71</v>
       </c>
       <c r="AO44" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.33</v>
       </c>
       <c r="AP44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3100000000000023</v>
       </c>
       <c r="AQ44" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.484999999999999</v>
       </c>
       <c r="AT44" t="s">
@@ -47775,7 +48589,7 @@
         <v>33.31</v>
       </c>
       <c r="AY44" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33.31</v>
       </c>
       <c r="BB44">
@@ -47794,7 +48608,7 @@
         <v>1.39</v>
       </c>
       <c r="BG44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.314999999999998</v>
       </c>
       <c r="BJ44">
@@ -47843,7 +48657,7 @@
         <v>31.903541666666701</v>
       </c>
       <c r="CA44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93354166666670224</v>
       </c>
       <c r="CB44">
@@ -47868,7 +48682,7 @@
         <v>26.556847138384001</v>
       </c>
       <c r="CI44">
-        <f>ABS(CF44-CH44)</f>
+        <f t="shared" si="4"/>
         <v>0.25626507593879921</v>
       </c>
       <c r="CL44">
@@ -47938,7 +48752,7 @@
         <v>31.176454518501998</v>
       </c>
       <c r="DH44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.2366620290043997</v>
       </c>
       <c r="DK44">
@@ -48152,7 +48966,7 @@
         <v>2.24397341779882</v>
       </c>
     </row>
-    <row r="45" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:184">
       <c r="A45">
         <v>44</v>
       </c>
@@ -48211,11 +49025,11 @@
         <v>15.78</v>
       </c>
       <c r="T45" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>32.06</v>
       </c>
       <c r="U45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.78000000000000114</v>
       </c>
       <c r="V45" s="4">
@@ -48266,15 +49080,15 @@
         <v>12.56</v>
       </c>
       <c r="AO45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.65</v>
       </c>
       <c r="AP45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.16</v>
       </c>
       <c r="AQ45" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.729999999999997</v>
       </c>
       <c r="AT45">
@@ -48290,11 +49104,11 @@
         <v>32.93</v>
       </c>
       <c r="AX45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.78999999999999915</v>
       </c>
       <c r="AY45" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.534999999999997</v>
       </c>
       <c r="BB45">
@@ -48313,7 +49127,7 @@
         <v>0.73</v>
       </c>
       <c r="BG45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.045000000000002</v>
       </c>
       <c r="BJ45">
@@ -48362,7 +49176,7 @@
         <v>32.173541666666701</v>
       </c>
       <c r="CA45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.6535416666667011</v>
       </c>
       <c r="CB45">
@@ -48387,7 +49201,7 @@
         <v>28.127021365057601</v>
       </c>
       <c r="CI45">
-        <f>ABS(CF45-CH45)</f>
+        <f t="shared" si="4"/>
         <v>1.0215182625398E-2</v>
       </c>
       <c r="CL45">
@@ -48457,7 +49271,7 @@
         <v>32.416273675247702</v>
       </c>
       <c r="DH45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.22355625918120126</v>
       </c>
       <c r="DK45">
@@ -48671,7 +49485,7 @@
         <v>1.97279258059183</v>
       </c>
     </row>
-    <row r="46" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:184">
       <c r="A46">
         <v>45</v>
       </c>
@@ -48730,11 +49544,11 @@
         <v>14.74</v>
       </c>
       <c r="T46" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>31.61</v>
       </c>
       <c r="U46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.25999999999999801</v>
       </c>
       <c r="V46" s="4">
@@ -48785,15 +49599,15 @@
         <v>13.28</v>
       </c>
       <c r="AO46" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.910000000000004</v>
       </c>
       <c r="AP46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8799999999999955</v>
       </c>
       <c r="AQ46" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31.35</v>
       </c>
       <c r="AT46" t="s">
@@ -48806,7 +49620,7 @@
         <v>35.18</v>
       </c>
       <c r="AY46" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35.18</v>
       </c>
       <c r="BB46">
@@ -48825,7 +49639,7 @@
         <v>1.32</v>
       </c>
       <c r="BG46" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>33.28</v>
       </c>
       <c r="BJ46">
@@ -48874,7 +49688,7 @@
         <v>32.413541666666703</v>
       </c>
       <c r="CA46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.6458333333298185E-2</v>
       </c>
       <c r="CB46">
@@ -48899,7 +49713,7 @@
         <v>27.1436486298457</v>
       </c>
       <c r="CI46">
-        <f>ABS(CF46-CH46)</f>
+        <f t="shared" si="4"/>
         <v>0.20391167598799953</v>
       </c>
       <c r="CL46">
@@ -48969,7 +49783,7 @@
         <v>31.031395779896201</v>
       </c>
       <c r="DH46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.6837235272998896E-2</v>
       </c>
       <c r="DK46">
@@ -49183,7 +49997,7 @@
         <v>3.4221193441425402</v>
       </c>
     </row>
-    <row r="47" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:184">
       <c r="A47">
         <v>46</v>
       </c>
@@ -49242,11 +50056,11 @@
         <v>16.149999999999999</v>
       </c>
       <c r="T47" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>30.93</v>
       </c>
       <c r="U47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.1499999999999986</v>
       </c>
       <c r="V47" s="4">
@@ -49297,15 +50111,15 @@
         <v>10.19</v>
       </c>
       <c r="AO47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.740000000000002</v>
       </c>
       <c r="AP47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.21000000000000085</v>
       </c>
       <c r="AQ47" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.635000000000002</v>
       </c>
       <c r="AT47">
@@ -49321,11 +50135,11 @@
         <v>33.42</v>
       </c>
       <c r="AX47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.45000000000000284</v>
       </c>
       <c r="AY47" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33.195</v>
       </c>
       <c r="BB47">
@@ -49344,7 +50158,7 @@
         <v>0.93999999999999795</v>
       </c>
       <c r="BG47" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.86</v>
       </c>
       <c r="BJ47">
@@ -49393,7 +50207,7 @@
         <v>31.413541666666699</v>
       </c>
       <c r="CA47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.1864583333333023</v>
       </c>
       <c r="CB47">
@@ -49418,7 +50232,7 @@
         <v>28.589171567189599</v>
       </c>
       <c r="CI47">
-        <f>ABS(CF47-CH47)</f>
+        <f t="shared" si="4"/>
         <v>4.7292163449981217E-3</v>
       </c>
       <c r="CL47">
@@ -49488,7 +50302,7 @@
         <v>33.424677808130298</v>
       </c>
       <c r="DH47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.60069518599370042</v>
       </c>
       <c r="DK47">
@@ -49702,7 +50516,7 @@
         <v>2.31754554198795</v>
       </c>
     </row>
-    <row r="48" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:184">
       <c r="A48">
         <v>47</v>
       </c>
@@ -49761,11 +50575,11 @@
         <v>14.25</v>
       </c>
       <c r="T48" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>32.32</v>
       </c>
       <c r="U48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.75</v>
       </c>
       <c r="V48" s="4">
@@ -49816,15 +50630,15 @@
         <v>11.62</v>
       </c>
       <c r="AO48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.310000000000002</v>
       </c>
       <c r="AP48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2199999999999989</v>
       </c>
       <c r="AQ48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.92</v>
       </c>
       <c r="AT48" t="s">
@@ -49837,7 +50651,7 @@
         <v>32.32</v>
       </c>
       <c r="AY48" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.32</v>
       </c>
       <c r="BB48">
@@ -49856,7 +50670,7 @@
         <v>2.52</v>
       </c>
       <c r="BG48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.65</v>
       </c>
       <c r="BJ48">
@@ -49905,7 +50719,7 @@
         <v>31.403541666666701</v>
       </c>
       <c r="CA48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.66354166666670267</v>
       </c>
       <c r="CB48">
@@ -49930,7 +50744,7 @@
         <v>31.308808972651502</v>
       </c>
       <c r="CI48">
-        <f>ABS(CF48-CH48)</f>
+        <f t="shared" si="4"/>
         <v>0.56288063716599979</v>
       </c>
       <c r="CL48">
@@ -50000,7 +50814,7 @@
         <v>35.609306575728901</v>
       </c>
       <c r="DH48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.42315112082759754</v>
       </c>
       <c r="DK48">
@@ -50214,7 +51028,7 @@
         <v>2.2850043704383101</v>
       </c>
     </row>
-    <row r="49" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:184">
       <c r="A49">
         <v>48</v>
       </c>
@@ -50273,11 +51087,11 @@
         <v>16.510000000000002</v>
       </c>
       <c r="T49" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>33.71</v>
       </c>
       <c r="U49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.509999999999998</v>
       </c>
       <c r="V49" s="4">
@@ -50328,15 +51142,15 @@
         <v>9.8699999999999992</v>
       </c>
       <c r="AO49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.479999999999997</v>
       </c>
       <c r="AP49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.52999999999999758</v>
       </c>
       <c r="AQ49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31.214999999999996</v>
       </c>
       <c r="AT49">
@@ -50352,11 +51166,11 @@
         <v>33.340000000000003</v>
       </c>
       <c r="AX49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0900000000000034</v>
       </c>
       <c r="AY49" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.295000000000002</v>
       </c>
       <c r="BB49">
@@ -50375,7 +51189,7 @@
         <v>2.63</v>
       </c>
       <c r="BG49" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.085000000000001</v>
       </c>
       <c r="BJ49">
@@ -50424,7 +51238,7 @@
         <v>32.263541666666697</v>
       </c>
       <c r="CA49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0264583333333022</v>
       </c>
       <c r="CB49">
@@ -50449,7 +51263,7 @@
         <v>29.825330710196301</v>
       </c>
       <c r="CI49">
-        <f>ABS(CF49-CH49)</f>
+        <f t="shared" si="4"/>
         <v>0.33397842802460076</v>
       </c>
       <c r="CL49">
@@ -50519,7 +51333,7 @@
         <v>33.521779122397398</v>
       </c>
       <c r="DH49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.22550934385780153</v>
       </c>
       <c r="DK49">
@@ -50733,7 +51547,7 @@
         <v>1.9838565845443401</v>
       </c>
     </row>
-    <row r="50" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:184">
       <c r="S50">
         <f>AVERAGE(S2:S49)</f>
         <v>14.969583333333331</v>
@@ -50883,4 +51697,715 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>28.76</v>
+      </c>
+      <c r="B2">
+        <v>27.883541666666702</v>
+      </c>
+      <c r="C2">
+        <v>26.8945589268167</v>
+      </c>
+      <c r="D2">
+        <v>27.600510736098901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>28.42</v>
+      </c>
+      <c r="B3">
+        <v>28.383541666666702</v>
+      </c>
+      <c r="C3">
+        <v>28.220905445048501</v>
+      </c>
+      <c r="D3">
+        <v>28.004720287879699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>29.4</v>
+      </c>
+      <c r="B4">
+        <v>29.5535416666667</v>
+      </c>
+      <c r="C4">
+        <v>27.177808758888499</v>
+      </c>
+      <c r="D4">
+        <v>27.219714404761401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>29.27</v>
+      </c>
+      <c r="B5">
+        <v>29.4435416666667</v>
+      </c>
+      <c r="C5">
+        <v>29.6156952958187</v>
+      </c>
+      <c r="D5">
+        <v>29.827643099711899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>27.57</v>
+      </c>
+      <c r="B6">
+        <v>27.503541666666699</v>
+      </c>
+      <c r="C6">
+        <v>29.174907416314301</v>
+      </c>
+      <c r="D6">
+        <v>29.259102464330901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>33.93</v>
+      </c>
+      <c r="B7">
+        <v>33.203541666666702</v>
+      </c>
+      <c r="C7">
+        <v>29.5768209004802</v>
+      </c>
+      <c r="D7">
+        <v>29.9845511490268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>27.39</v>
+      </c>
+      <c r="B8">
+        <v>27.903541666666701</v>
+      </c>
+      <c r="C8">
+        <v>27.2254881665399</v>
+      </c>
+      <c r="D8">
+        <v>27.8246656955586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>27.09</v>
+      </c>
+      <c r="B9">
+        <v>28.593541666666699</v>
+      </c>
+      <c r="C9">
+        <v>26.7701832318082</v>
+      </c>
+      <c r="D9">
+        <v>25.161923699802902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>28.88</v>
+      </c>
+      <c r="B10">
+        <v>30.1435416666667</v>
+      </c>
+      <c r="C10">
+        <v>26.8633034243956</v>
+      </c>
+      <c r="D10">
+        <v>26.9191216379648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>28.7</v>
+      </c>
+      <c r="B11">
+        <v>28.273541666666699</v>
+      </c>
+      <c r="C11">
+        <v>28.519489904843599</v>
+      </c>
+      <c r="D11">
+        <v>28.663717493034301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>28.39</v>
+      </c>
+      <c r="B12">
+        <v>29.833541666666701</v>
+      </c>
+      <c r="C12">
+        <v>29.570759117374799</v>
+      </c>
+      <c r="D12">
+        <v>29.631032906961199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>27.47</v>
+      </c>
+      <c r="B13">
+        <v>28.723541666666701</v>
+      </c>
+      <c r="C13">
+        <v>28.738886824058099</v>
+      </c>
+      <c r="D13">
+        <v>28.576472486504102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>29.01</v>
+      </c>
+      <c r="B14">
+        <v>29.5535416666667</v>
+      </c>
+      <c r="C14">
+        <v>28.130342930587702</v>
+      </c>
+      <c r="D14">
+        <v>28.312243323254201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>28.57</v>
+      </c>
+      <c r="B15">
+        <v>30.263541666666701</v>
+      </c>
+      <c r="C15">
+        <v>27.365247683284199</v>
+      </c>
+      <c r="D15">
+        <v>27.608146629774001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>27.25</v>
+      </c>
+      <c r="B16">
+        <v>28.843541666666699</v>
+      </c>
+      <c r="C16">
+        <v>26.900430755089602</v>
+      </c>
+      <c r="D16">
+        <v>27.067301885703401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>29.2</v>
+      </c>
+      <c r="B17">
+        <v>30.3735416666667</v>
+      </c>
+      <c r="C17">
+        <v>29.181055705797199</v>
+      </c>
+      <c r="D17">
+        <v>29.433177193542601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>28.57</v>
+      </c>
+      <c r="B18">
+        <v>28.8035416666667</v>
+      </c>
+      <c r="C18">
+        <v>27.0005584094746</v>
+      </c>
+      <c r="D18">
+        <v>26.667588050770199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>27.55</v>
+      </c>
+      <c r="B19">
+        <v>29.363541666666698</v>
+      </c>
+      <c r="C19">
+        <v>30.3688593474409</v>
+      </c>
+      <c r="D19">
+        <v>30.539894533078801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>27.54</v>
+      </c>
+      <c r="B20">
+        <v>29.503541666666699</v>
+      </c>
+      <c r="C20">
+        <v>28.5187671445556</v>
+      </c>
+      <c r="D20">
+        <v>28.813311519701902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>29.31</v>
+      </c>
+      <c r="B21">
+        <v>30.6935416666667</v>
+      </c>
+      <c r="C21">
+        <v>26.194235817808899</v>
+      </c>
+      <c r="D21">
+        <v>25.888334906808399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>29.07</v>
+      </c>
+      <c r="B22">
+        <v>29.8735416666667</v>
+      </c>
+      <c r="C22">
+        <v>27.410525386795701</v>
+      </c>
+      <c r="D22">
+        <v>27.389138207084802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>28.89</v>
+      </c>
+      <c r="B23">
+        <v>30.3035416666667</v>
+      </c>
+      <c r="C23">
+        <v>29.400742326529599</v>
+      </c>
+      <c r="D23">
+        <v>29.1173548169652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>29.48</v>
+      </c>
+      <c r="B24">
+        <v>30.433541666666699</v>
+      </c>
+      <c r="C24">
+        <v>29.780218905607999</v>
+      </c>
+      <c r="D24">
+        <v>29.901002342136799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>28.85</v>
+      </c>
+      <c r="B25">
+        <v>30.913541666666699</v>
+      </c>
+      <c r="C25">
+        <v>29.415829702565699</v>
+      </c>
+      <c r="D25">
+        <v>29.642939040483601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>32.159999999999997</v>
+      </c>
+      <c r="B26">
+        <v>30.933541666666699</v>
+      </c>
+      <c r="C26">
+        <v>27.197574943707899</v>
+      </c>
+      <c r="D26">
+        <v>27.105082733555999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>32.03</v>
+      </c>
+      <c r="B27">
+        <v>30.323541666666699</v>
+      </c>
+      <c r="C27">
+        <v>26.468348478399999</v>
+      </c>
+      <c r="D27">
+        <v>26.297601949440001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="B28">
+        <v>31.313541666666701</v>
+      </c>
+      <c r="C28">
+        <v>26.9692158004672</v>
+      </c>
+      <c r="D28">
+        <v>27.020604200291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="B29">
+        <v>31.633541666666702</v>
+      </c>
+      <c r="C29">
+        <v>29.1249861603421</v>
+      </c>
+      <c r="D29">
+        <v>29.2137733359103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>30.74</v>
+      </c>
+      <c r="B30">
+        <v>31.7135416666667</v>
+      </c>
+      <c r="C30">
+        <v>27.313490638859399</v>
+      </c>
+      <c r="D30">
+        <v>27.423062389238599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>31.25</v>
+      </c>
+      <c r="B31">
+        <v>15.5535416666667</v>
+      </c>
+      <c r="C31">
+        <v>30.2417440287097</v>
+      </c>
+      <c r="D31">
+        <v>30.7189802825181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>30.06</v>
+      </c>
+      <c r="B32">
+        <v>31.413541666666699</v>
+      </c>
+      <c r="C32">
+        <v>33.961620489714797</v>
+      </c>
+      <c r="D32">
+        <v>34.085507208231299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>30.6</v>
+      </c>
+      <c r="B33">
+        <v>31.3035416666667</v>
+      </c>
+      <c r="C33">
+        <v>27.507729447931698</v>
+      </c>
+      <c r="D33">
+        <v>27.771639115698399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>29.6</v>
+      </c>
+      <c r="B34">
+        <v>30.4635416666667</v>
+      </c>
+      <c r="C34">
+        <v>26.437057287124901</v>
+      </c>
+      <c r="D34">
+        <v>26.552657122418999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>31.92</v>
+      </c>
+      <c r="B35">
+        <v>31.013541666666701</v>
+      </c>
+      <c r="C35">
+        <v>29.0662675079294</v>
+      </c>
+      <c r="D35">
+        <v>28.822804073840199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>28.61</v>
+      </c>
+      <c r="B36">
+        <v>28.413541666666699</v>
+      </c>
+      <c r="C36">
+        <v>29.591627249354801</v>
+      </c>
+      <c r="D36">
+        <v>29.181961955035199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>33.32</v>
+      </c>
+      <c r="B37">
+        <v>31.653541666666701</v>
+      </c>
+      <c r="C37">
+        <v>29.218180254194198</v>
+      </c>
+      <c r="D37">
+        <v>29.129826227519501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>28.98</v>
+      </c>
+      <c r="B38">
+        <v>30.043541666666702</v>
+      </c>
+      <c r="C38">
+        <v>26.739401192120202</v>
+      </c>
+      <c r="D38">
+        <v>26.676750270942399</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>30.2</v>
+      </c>
+      <c r="B39">
+        <v>31.433541666666699</v>
+      </c>
+      <c r="C39">
+        <v>26.464249078777598</v>
+      </c>
+      <c r="D39">
+        <v>26.517553932032602</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>30.1</v>
+      </c>
+      <c r="B40">
+        <v>31.063541666666701</v>
+      </c>
+      <c r="C40">
+        <v>27.250278002482201</v>
+      </c>
+      <c r="D40">
+        <v>27.0275393645951</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>33.25</v>
+      </c>
+      <c r="B41">
+        <v>32.793541666666698</v>
+      </c>
+      <c r="C41">
+        <v>28.050991680990801</v>
+      </c>
+      <c r="D41">
+        <v>28.190078633631298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>30.65</v>
+      </c>
+      <c r="B42">
+        <v>30.833541666666701</v>
+      </c>
+      <c r="C42" t="s">
+        <v>307</v>
+      </c>
+      <c r="D42">
+        <v>29.095279968529201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>32.380000000000003</v>
+      </c>
+      <c r="B43">
+        <v>30.263541666666701</v>
+      </c>
+      <c r="C43">
+        <v>27.661682068239902</v>
+      </c>
+      <c r="D43">
+        <v>27.406993013260699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>30.97</v>
+      </c>
+      <c r="B44">
+        <v>31.903541666666701</v>
+      </c>
+      <c r="C44">
+        <v>26.8131122143228</v>
+      </c>
+      <c r="D44">
+        <v>26.556847138384001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>31.52</v>
+      </c>
+      <c r="B45">
+        <v>32.173541666666701</v>
+      </c>
+      <c r="C45">
+        <v>28.137236547682999</v>
+      </c>
+      <c r="D45">
+        <v>28.127021365057601</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>32.46</v>
+      </c>
+      <c r="B46">
+        <v>32.413541666666703</v>
+      </c>
+      <c r="C46">
+        <v>27.347560305833699</v>
+      </c>
+      <c r="D46">
+        <v>27.1436486298457</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>33.6</v>
+      </c>
+      <c r="B47">
+        <v>31.413541666666699</v>
+      </c>
+      <c r="C47">
+        <v>28.584442350844601</v>
+      </c>
+      <c r="D47">
+        <v>28.589171567189599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>30.74</v>
+      </c>
+      <c r="B48">
+        <v>31.403541666666701</v>
+      </c>
+      <c r="C48">
+        <v>31.871689609817501</v>
+      </c>
+      <c r="D48">
+        <v>31.308808972651502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>33.29</v>
+      </c>
+      <c r="B49">
+        <v>32.263541666666697</v>
+      </c>
+      <c r="C49">
+        <v>29.4913522821717</v>
+      </c>
+      <c r="D49">
+        <v>29.825330710196301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/qPCR data/Compiled_Ctvalues_080415.xlsx
+++ b/qPCR data/Compiled_Ctvalues_080415.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake H\Documents\GitHub\Resilience-Project\qPCR data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35560" windowHeight="23020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-705" yWindow="-465" windowWidth="27315" windowHeight="15360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="1" r:id="rId1"/>
-    <sheet name="All-data" sheetId="2" r:id="rId2"/>
-    <sheet name="GBcheck" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="325">
   <si>
     <t>Name</t>
   </si>
@@ -997,9 +1001,6 @@
   <si>
     <t>#value</t>
   </si>
-  <si>
-    <t>Cq2</t>
-  </si>
 </sst>
 </file>
 
@@ -1079,20 +1080,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1112,23 +1103,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="7">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1142,801 +1123,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>GBcheck!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>rep1.ct.GRB2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>GBcheck!$A$2:$A$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>28.76</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.42</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.57</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33.93</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27.39</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27.09</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28.88</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28.39</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>27.47</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28.57</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>27.25</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>29.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>28.57</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27.55</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27.54</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29.31</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>29.07</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28.89</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>29.48</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28.85</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>32.16</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>32.03</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>32.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32.91</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30.74</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31.25</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30.06</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>30.6</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>29.6</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>31.92</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>28.61</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>33.32</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>28.98</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>30.2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>30.1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>33.25</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>30.65</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>32.38</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>30.97</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>31.52</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>32.46</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>33.6</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>30.74</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>33.29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>GBcheck!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>opticorr.GRB2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>GBcheck!$B$2:$B$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>27.8835416666667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.3835416666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.5535416666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.4435416666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.5035416666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33.2035416666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27.9035416666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28.5935416666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30.1435416666667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.2735416666667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29.8335416666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.7235416666667</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.5535416666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30.2635416666667</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.8435416666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30.3735416666667</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>28.8035416666667</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>29.3635416666667</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>29.5035416666667</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>30.6935416666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>29.8735416666667</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>30.3035416666667</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>30.4335416666667</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>30.9135416666667</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>30.9335416666667</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>30.3235416666667</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>31.3135416666667</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>31.6335416666667</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>31.7135416666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>15.5535416666667</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31.4135416666667</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31.3035416666667</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>30.4635416666667</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>31.0135416666667</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>28.4135416666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>31.6535416666667</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>30.0435416666667</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>31.4335416666667</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>31.0635416666667</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>32.7935416666667</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>30.8335416666667</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>30.2635416666667</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>31.9035416666667</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>32.1735416666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>32.4135416666667</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>31.4135416666667</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>31.4035416666667</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>32.2635416666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>GBcheck!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cq2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>GBcheck!$C$2:$C$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>26.8945589268167</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.2209054450485</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.1778087588885</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.6156952958187</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29.1749074163143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.5768209004802</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27.2254881665399</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26.7701832318082</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26.8633034243956</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.5194899048436</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29.5707591173748</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.7388868240581</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28.1303429305877</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27.3652476832842</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26.9004307550896</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>29.1810557057972</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27.0005584094746</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30.3688593474409</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28.5187671445556</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>26.1942358178089</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27.4105253867957</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>29.4007423265296</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>29.780218905608</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>29.4158297025657</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>27.1975749437079</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26.4683484784</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26.9692158004672</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29.1249861603421</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>27.3134906388594</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30.2417440287097</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>33.9616204897148</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>27.5077294479317</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>26.4370572871249</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>29.0662675079294</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>29.5916272493548</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>29.2181802541942</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>26.7394011921202</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>26.4642490787776</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>27.2502780024822</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>28.0509916809908</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>27.6616820682399</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>26.8131122143228</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>28.137236547683</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>27.3475603058337</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>28.5844423508446</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>31.8716896098175</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>29.4913522821717</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>GBcheck!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cq</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>GBcheck!$D$2:$D$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>27.6005107360989</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.0047202878797</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.2197144047614</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.8276430997119</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29.2591024643309</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.9845511490268</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27.8246656955586</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25.1619236998029</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26.9191216379648</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.6637174930343</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29.6310329069612</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.5764724865041</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28.3122433232542</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27.608146629774</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>27.0673018857034</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>29.4331771935426</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26.6675880507702</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30.5398945330788</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28.8133115197019</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25.8883349068084</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27.3891382070848</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>29.1173548169652</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>29.9010023421368</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>29.6429390404836</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>27.105082733556</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26.29760194944</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27.020604200291</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29.2137733359103</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>27.4230623892386</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30.7189802825181</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>34.0855072082313</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>27.7716391156984</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>26.552657122419</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>28.8228040738402</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>29.1819619550352</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>29.1298262275195</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>26.6767502709424</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>26.5175539320326</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>27.0275393645951</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>28.1900786336313</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>29.0952799685292</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>27.4069930132607</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>26.556847138384</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>28.1270213650576</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>27.1436486298457</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>28.5891715671896</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>31.3088089726515</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>29.8253307101963</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1814139320"/>
-        <c:axId val="-1962062808"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1814139320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1962062808"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1962062808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1814139320"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2263,13 +1449,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FG49"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:163">
+    <row r="1" spans="1:163" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2757,7 +1943,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:163">
+    <row r="2" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3248,7 +2434,7 @@
         <v>2.20544302797878</v>
       </c>
     </row>
-    <row r="3" spans="1:163">
+    <row r="3" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3739,7 +2925,7 @@
         <v>3.35896017903121</v>
       </c>
     </row>
-    <row r="4" spans="1:163">
+    <row r="4" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4230,7 +3416,7 @@
         <v>2.3896129629032199</v>
       </c>
     </row>
-    <row r="5" spans="1:163">
+    <row r="5" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4721,7 +3907,7 @@
         <v>1.8446253112364399</v>
       </c>
     </row>
-    <row r="6" spans="1:163">
+    <row r="6" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5212,7 +4398,7 @@
         <v>2.1277231440139301</v>
       </c>
     </row>
-    <row r="7" spans="1:163">
+    <row r="7" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5703,7 +4889,7 @@
         <v>1.2825240156561999</v>
       </c>
     </row>
-    <row r="8" spans="1:163">
+    <row r="8" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6194,7 +5380,7 @@
         <v>2.0705610810197301</v>
       </c>
     </row>
-    <row r="9" spans="1:163">
+    <row r="9" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6685,7 +5871,7 @@
         <v>2.1235456441862302</v>
       </c>
     </row>
-    <row r="10" spans="1:163">
+    <row r="10" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7176,7 +6362,7 @@
         <v>3.2889342395734</v>
       </c>
     </row>
-    <row r="11" spans="1:163">
+    <row r="11" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7667,7 +6853,7 @@
         <v>3.2666853496377901</v>
       </c>
     </row>
-    <row r="12" spans="1:163">
+    <row r="12" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8158,7 +7344,7 @@
         <v>2.2981481811086901</v>
       </c>
     </row>
-    <row r="13" spans="1:163">
+    <row r="13" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8649,7 +7835,7 @@
         <v>2.0548579726231702</v>
       </c>
     </row>
-    <row r="14" spans="1:163">
+    <row r="14" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9140,7 +8326,7 @@
         <v>2.0913366592516902</v>
       </c>
     </row>
-    <row r="15" spans="1:163">
+    <row r="15" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9631,7 +8817,7 @@
         <v>2.12695360768363</v>
       </c>
     </row>
-    <row r="16" spans="1:163">
+    <row r="16" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10122,7 +9308,7 @@
         <v>2.43936251364789</v>
       </c>
     </row>
-    <row r="17" spans="1:163">
+    <row r="17" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10613,7 +9799,7 @@
         <v>2.4349921558800398</v>
       </c>
     </row>
-    <row r="18" spans="1:163">
+    <row r="18" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11104,7 +10290,7 @@
         <v>1.7335527119504499</v>
       </c>
     </row>
-    <row r="19" spans="1:163">
+    <row r="19" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11595,7 +10781,7 @@
         <v>2.18049984733958</v>
       </c>
     </row>
-    <row r="20" spans="1:163">
+    <row r="20" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -12086,7 +11272,7 @@
         <v>2.3106255979899202</v>
       </c>
     </row>
-    <row r="21" spans="1:163">
+    <row r="21" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -12577,7 +11763,7 @@
         <v>2.33995112254091</v>
       </c>
     </row>
-    <row r="22" spans="1:163">
+    <row r="22" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -13068,7 +12254,7 @@
         <v>2.5197692557067799</v>
       </c>
     </row>
-    <row r="23" spans="1:163">
+    <row r="23" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -13559,7 +12745,7 @@
         <v>2.2680691284675101</v>
       </c>
     </row>
-    <row r="24" spans="1:163">
+    <row r="24" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -14050,7 +13236,7 @@
         <v>1.99954964728618</v>
       </c>
     </row>
-    <row r="25" spans="1:163">
+    <row r="25" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -14541,7 +13727,7 @@
         <v>1.7976966702280599</v>
       </c>
     </row>
-    <row r="26" spans="1:163">
+    <row r="26" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -15032,7 +14218,7 @@
         <v>2.0452031876029402</v>
       </c>
     </row>
-    <row r="27" spans="1:163">
+    <row r="27" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -15523,7 +14709,7 @@
         <v>2.0183277051653201</v>
       </c>
     </row>
-    <row r="28" spans="1:163">
+    <row r="28" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -16014,7 +15200,7 @@
         <v>2.1366165931128598</v>
       </c>
     </row>
-    <row r="29" spans="1:163">
+    <row r="29" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -16505,7 +15691,7 @@
         <v>2.4273897158050302</v>
       </c>
     </row>
-    <row r="30" spans="1:163">
+    <row r="30" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -16996,7 +16182,7 @@
         <v>2.39614184249817</v>
       </c>
     </row>
-    <row r="31" spans="1:163">
+    <row r="31" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -17487,7 +16673,7 @@
         <v>2.6101234065008398</v>
       </c>
     </row>
-    <row r="32" spans="1:163">
+    <row r="32" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17978,7 +17164,7 @@
         <v>2.2434430955051199</v>
       </c>
     </row>
-    <row r="33" spans="1:163">
+    <row r="33" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -18469,7 +17655,7 @@
         <v>2.0857626670385199</v>
       </c>
     </row>
-    <row r="34" spans="1:163">
+    <row r="34" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -18960,7 +18146,7 @@
         <v>2.1950810779782999</v>
       </c>
     </row>
-    <row r="35" spans="1:163">
+    <row r="35" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -19451,7 +18637,7 @@
         <v>1.935032751704</v>
       </c>
     </row>
-    <row r="36" spans="1:163">
+    <row r="36" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -19942,7 +19128,7 @@
         <v>2.3001550595195002</v>
       </c>
     </row>
-    <row r="37" spans="1:163">
+    <row r="37" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -20433,7 +19619,7 @@
         <v>2.4891251698624699</v>
       </c>
     </row>
-    <row r="38" spans="1:163">
+    <row r="38" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -20924,7 +20110,7 @@
         <v>2.1090888311065998</v>
       </c>
     </row>
-    <row r="39" spans="1:163">
+    <row r="39" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -21415,7 +20601,7 @@
         <v>1.9559636099039299</v>
       </c>
     </row>
-    <row r="40" spans="1:163">
+    <row r="40" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -21906,7 +21092,7 @@
         <v>2.22794011770559</v>
       </c>
     </row>
-    <row r="41" spans="1:163">
+    <row r="41" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -22397,7 +21583,7 @@
         <v>2.1030029252409599</v>
       </c>
     </row>
-    <row r="42" spans="1:163">
+    <row r="42" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -22888,7 +22074,7 @@
         <v>2.0801574312031099</v>
       </c>
     </row>
-    <row r="43" spans="1:163">
+    <row r="43" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -23379,7 +22565,7 @@
         <v>1.7918809896219301</v>
       </c>
     </row>
-    <row r="44" spans="1:163">
+    <row r="44" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -23870,7 +23056,7 @@
         <v>2.24397341779882</v>
       </c>
     </row>
-    <row r="45" spans="1:163">
+    <row r="45" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -24361,7 +23547,7 @@
         <v>1.97279258059183</v>
       </c>
     </row>
-    <row r="46" spans="1:163">
+    <row r="46" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -24852,7 +24038,7 @@
         <v>3.4221193441425402</v>
       </c>
     </row>
-    <row r="47" spans="1:163">
+    <row r="47" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -25343,7 +24529,7 @@
         <v>2.31754554198795</v>
       </c>
     </row>
-    <row r="48" spans="1:163">
+    <row r="48" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -25834,7 +25020,7 @@
         <v>2.2850043704383101</v>
       </c>
     </row>
-    <row r="49" spans="1:163">
+    <row r="49" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -26341,49 +25527,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
-      <selection activeCell="BR10" sqref="BR10"/>
+    <sheetView tabSelected="1" topLeftCell="CU1" workbookViewId="0">
+      <selection activeCell="CZ8" sqref="CZ8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1"/>
-    <col min="3" max="5" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11" style="2"/>
+    <col min="2" max="2" width="10.875" style="1"/>
+    <col min="3" max="5" width="10.875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="2"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11" style="2"/>
-    <col min="18" max="18" width="13.83203125" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="14.1640625" customWidth="1"/>
-    <col min="22" max="22" width="12.83203125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11" style="2"/>
-    <col min="30" max="30" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="13" max="13" width="14.875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.875" style="2"/>
+    <col min="18" max="18" width="13.875" customWidth="1"/>
+    <col min="20" max="20" width="14.125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="14.125" customWidth="1"/>
+    <col min="22" max="22" width="12.875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10.875" style="2"/>
+    <col min="30" max="30" width="13.625" customWidth="1"/>
     <col min="31" max="31" width="13.5" style="2" customWidth="1"/>
     <col min="32" max="32" width="13.5" customWidth="1"/>
-    <col min="33" max="33" width="11" style="1"/>
+    <col min="33" max="33" width="10.875" style="1"/>
     <col min="36" max="36" width="13.5" customWidth="1"/>
-    <col min="37" max="37" width="11" style="2"/>
-    <col min="41" max="41" width="11" style="2"/>
-    <col min="43" max="43" width="11" style="1"/>
-    <col min="47" max="47" width="11" style="2"/>
-    <col min="49" max="49" width="11" style="2"/>
-    <col min="51" max="51" width="11" style="1"/>
-    <col min="55" max="55" width="11" style="2"/>
-    <col min="57" max="57" width="11" style="2"/>
-    <col min="59" max="59" width="11" style="1"/>
-    <col min="63" max="63" width="11" style="2"/>
-    <col min="67" max="67" width="11" style="2"/>
-    <col min="77" max="77" width="12.33203125" customWidth="1"/>
-    <col min="78" max="79" width="17.6640625" customWidth="1"/>
+    <col min="37" max="37" width="10.875" style="2"/>
+    <col min="41" max="41" width="10.875" style="2"/>
+    <col min="43" max="43" width="10.875" style="1"/>
+    <col min="47" max="47" width="10.875" style="2"/>
+    <col min="49" max="49" width="10.875" style="2"/>
+    <col min="51" max="51" width="10.875" style="1"/>
+    <col min="55" max="55" width="10.875" style="2"/>
+    <col min="57" max="57" width="10.875" style="2"/>
+    <col min="59" max="59" width="10.875" style="1"/>
+    <col min="63" max="63" width="10.875" style="2"/>
+    <col min="67" max="67" width="10.875" style="2"/>
+    <col min="77" max="77" width="12.375" customWidth="1"/>
+    <col min="78" max="79" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:184">
+    <row r="1" spans="1:184" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26880,7 +26066,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:184">
+    <row r="2" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27115,7 +26301,7 @@
         <v>27.600510736098901</v>
       </c>
       <c r="CI2">
-        <f t="shared" ref="CI2:CI49" si="4">ABS(CF2-CH2)</f>
+        <f>ABS(CF2-CH2)</f>
         <v>0.70595180928220103</v>
       </c>
       <c r="CL2">
@@ -27399,7 +26585,7 @@
         <v>2.20544302797878</v>
       </c>
     </row>
-    <row r="3" spans="1:184">
+    <row r="3" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -27502,15 +26688,15 @@
         <v>11.38</v>
       </c>
       <c r="AO3" s="2">
-        <f t="shared" ref="AO3:AO49" si="5">AM3+10.4</f>
+        <f t="shared" ref="AO3:AO49" si="4">AM3+10.4</f>
         <v>28.18</v>
       </c>
       <c r="AP3">
-        <f t="shared" ref="AP3:AP49" si="6">ABS(AK3-AO3)</f>
+        <f t="shared" ref="AP3:AP49" si="5">ABS(AK3-AO3)</f>
         <v>0.98000000000000043</v>
       </c>
       <c r="AQ3" s="1">
-        <f t="shared" ref="AQ3:AQ49" si="7">AVERAGE(AK3,AO3)</f>
+        <f t="shared" ref="AQ3:AQ49" si="6">AVERAGE(AK3,AO3)</f>
         <v>28.67</v>
       </c>
       <c r="AT3">
@@ -27526,11 +26712,11 @@
         <v>31.26</v>
       </c>
       <c r="AX3">
-        <f t="shared" ref="AX3:AX49" si="8">ABS(AU3-AW3)</f>
+        <f t="shared" ref="AX3:AX49" si="7">ABS(AU3-AW3)</f>
         <v>0.11999999999999744</v>
       </c>
       <c r="AY3" s="1">
-        <f t="shared" ref="AY3:AY49" si="9">AVERAGE(AU3,AW3)</f>
+        <f t="shared" ref="AY3:AY49" si="8">AVERAGE(AU3,AW3)</f>
         <v>31.32</v>
       </c>
       <c r="BB3">
@@ -27549,7 +26735,7 @@
         <v>0.91</v>
       </c>
       <c r="BG3" s="1">
-        <f t="shared" ref="BG3:BG49" si="10">AVERAGE(BC3,BE3)</f>
+        <f t="shared" ref="BG3:BG49" si="9">AVERAGE(BC3,BE3)</f>
         <v>31.325000000000003</v>
       </c>
       <c r="BJ3">
@@ -27598,7 +26784,7 @@
         <v>28.383541666666702</v>
       </c>
       <c r="CA3">
-        <f t="shared" ref="CA3:CA49" si="11">ABS(BV3-BZ3)</f>
+        <f t="shared" ref="CA3:CA49" si="10">ABS(BV3-BZ3)</f>
         <v>3.6458333333300175E-2</v>
       </c>
       <c r="CB3">
@@ -27623,7 +26809,7 @@
         <v>28.004720287879699</v>
       </c>
       <c r="CI3">
-        <f t="shared" si="4"/>
+        <f>ABS(CF3-CH3)</f>
         <v>0.21618515716880182</v>
       </c>
       <c r="CL3">
@@ -27693,7 +26879,7 @@
         <v>31.603717565695501</v>
       </c>
       <c r="DH3">
-        <f t="shared" ref="DH3:DH49" si="12">ABS(DE3-DG3)</f>
+        <f t="shared" ref="DH3:DH49" si="11">ABS(DE3-DG3)</f>
         <v>0.27246094130680021</v>
       </c>
       <c r="DK3">
@@ -27907,7 +27093,7 @@
         <v>3.35896017903121</v>
       </c>
     </row>
-    <row r="4" spans="1:184">
+    <row r="4" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -27966,11 +27152,11 @@
         <v>12.42</v>
       </c>
       <c r="T4" s="3">
-        <f t="shared" ref="T4:T25" si="13">R4+15</f>
+        <f t="shared" ref="T4:T25" si="12">R4+15</f>
         <v>34.549999999999997</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:U25" si="14">ABS(P4-T4)</f>
+        <f t="shared" ref="U4:U25" si="13">ABS(P4-T4)</f>
         <v>2.5799999999999983</v>
       </c>
       <c r="V4" s="4">
@@ -28021,15 +27207,15 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="AO4" s="2">
+        <f t="shared" si="4"/>
+        <v>30.35</v>
+      </c>
+      <c r="AP4">
         <f t="shared" si="5"/>
-        <v>30.35</v>
-      </c>
-      <c r="AP4">
+        <v>0.42999999999999972</v>
+      </c>
+      <c r="AQ4" s="1">
         <f t="shared" si="6"/>
-        <v>0.42999999999999972</v>
-      </c>
-      <c r="AQ4" s="1">
-        <f t="shared" si="7"/>
         <v>30.135000000000002</v>
       </c>
       <c r="AT4">
@@ -28045,11 +27231,11 @@
         <v>31.72</v>
       </c>
       <c r="AX4">
+        <f t="shared" si="7"/>
+        <v>1.1699999999999982</v>
+      </c>
+      <c r="AY4" s="1">
         <f t="shared" si="8"/>
-        <v>1.1699999999999982</v>
-      </c>
-      <c r="AY4" s="1">
-        <f t="shared" si="9"/>
         <v>31.134999999999998</v>
       </c>
       <c r="BB4">
@@ -28068,7 +27254,7 @@
         <v>0.25999999999999801</v>
       </c>
       <c r="BG4" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>32.22</v>
       </c>
       <c r="BJ4">
@@ -28117,7 +27303,7 @@
         <v>29.5535416666667</v>
       </c>
       <c r="CA4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.1535416666667011</v>
       </c>
       <c r="CB4">
@@ -28142,7 +27328,7 @@
         <v>27.219714404761401</v>
       </c>
       <c r="CI4">
-        <f t="shared" si="4"/>
+        <f>ABS(CF4-CH4)</f>
         <v>4.1905645872901687E-2</v>
       </c>
       <c r="CL4">
@@ -28212,7 +27398,7 @@
         <v>31.188661817211798</v>
       </c>
       <c r="DH4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.2456933658817988</v>
       </c>
       <c r="DK4">
@@ -28426,7 +27612,7 @@
         <v>2.3896129629032199</v>
       </c>
     </row>
-    <row r="5" spans="1:184">
+    <row r="5" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -28485,11 +27671,11 @@
         <v>13.49</v>
       </c>
       <c r="T5" s="3">
+        <f t="shared" si="12"/>
+        <v>33.230000000000004</v>
+      </c>
+      <c r="U5">
         <f t="shared" si="13"/>
-        <v>33.230000000000004</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="14"/>
         <v>1.5100000000000051</v>
       </c>
       <c r="V5" s="4">
@@ -28525,15 +27711,15 @@
         <v>9.49</v>
       </c>
       <c r="AO5" s="2">
+        <f t="shared" si="4"/>
+        <v>30.17</v>
+      </c>
+      <c r="AP5">
         <f t="shared" si="5"/>
-        <v>30.17</v>
-      </c>
-      <c r="AP5">
+        <v>0.91000000000000014</v>
+      </c>
+      <c r="AQ5" s="1">
         <f t="shared" si="6"/>
-        <v>0.91000000000000014</v>
-      </c>
-      <c r="AQ5" s="1">
-        <f t="shared" si="7"/>
         <v>29.715000000000003</v>
       </c>
       <c r="AT5">
@@ -28549,11 +27735,11 @@
         <v>31.69</v>
       </c>
       <c r="AX5">
+        <f t="shared" si="7"/>
+        <v>1.2699999999999996</v>
+      </c>
+      <c r="AY5" s="1">
         <f t="shared" si="8"/>
-        <v>1.2699999999999996</v>
-      </c>
-      <c r="AY5" s="1">
-        <f t="shared" si="9"/>
         <v>31.055</v>
       </c>
       <c r="BB5">
@@ -28572,7 +27758,7 @@
         <v>1.02</v>
       </c>
       <c r="BG5" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>31.65</v>
       </c>
       <c r="BJ5">
@@ -28621,7 +27807,7 @@
         <v>29.4435416666667</v>
       </c>
       <c r="CA5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.17354166666670068</v>
       </c>
       <c r="CB5">
@@ -28646,7 +27832,7 @@
         <v>29.827643099711899</v>
       </c>
       <c r="CI5">
-        <f t="shared" si="4"/>
+        <f>ABS(CF5-CH5)</f>
         <v>0.21194780389319945</v>
       </c>
       <c r="CL5">
@@ -28716,7 +27902,7 @@
         <v>33.904169469586598</v>
       </c>
       <c r="DH5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7.067438501869816E-2</v>
       </c>
       <c r="DK5">
@@ -28930,7 +28116,7 @@
         <v>1.8446253112364399</v>
       </c>
     </row>
-    <row r="6" spans="1:184">
+    <row r="6" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -28989,11 +28175,11 @@
         <v>14.07</v>
       </c>
       <c r="T6" s="3">
+        <f t="shared" si="12"/>
+        <v>31.59</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="13"/>
-        <v>31.59</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="14"/>
         <v>0.92999999999999972</v>
       </c>
       <c r="V6" s="4">
@@ -29044,15 +28230,15 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="AO6" s="2">
+        <f t="shared" si="4"/>
+        <v>28.840000000000003</v>
+      </c>
+      <c r="AP6">
         <f t="shared" si="5"/>
-        <v>28.840000000000003</v>
-      </c>
-      <c r="AP6">
+        <v>0.77000000000000313</v>
+      </c>
+      <c r="AQ6" s="1">
         <f t="shared" si="6"/>
-        <v>0.77000000000000313</v>
-      </c>
-      <c r="AQ6" s="1">
-        <f t="shared" si="7"/>
         <v>28.455000000000002</v>
       </c>
       <c r="AT6">
@@ -29068,11 +28254,11 @@
         <v>30.59</v>
       </c>
       <c r="AX6">
+        <f t="shared" si="7"/>
+        <v>1.2899999999999991</v>
+      </c>
+      <c r="AY6" s="1">
         <f t="shared" si="8"/>
-        <v>1.2899999999999991</v>
-      </c>
-      <c r="AY6" s="1">
-        <f t="shared" si="9"/>
         <v>29.945</v>
       </c>
       <c r="BB6">
@@ -29091,7 +28277,7 @@
         <v>1.9</v>
       </c>
       <c r="BG6" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>31.689999999999998</v>
       </c>
       <c r="BJ6">
@@ -29140,7 +28326,7 @@
         <v>27.503541666666699</v>
       </c>
       <c r="CA6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6.6458333333301312E-2</v>
       </c>
       <c r="CB6">
@@ -29165,7 +28351,7 @@
         <v>29.259102464330901</v>
       </c>
       <c r="CI6">
-        <f t="shared" si="4"/>
+        <f>ABS(CF6-CH6)</f>
         <v>8.4195048016599827E-2</v>
       </c>
       <c r="CL6">
@@ -29235,7 +28421,7 @@
         <v>33.505695374213502</v>
       </c>
       <c r="DH6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.50385295435579991</v>
       </c>
       <c r="DK6">
@@ -29449,7 +28635,7 @@
         <v>2.1277231440139301</v>
       </c>
     </row>
-    <row r="7" spans="1:184">
+    <row r="7" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -29508,11 +28694,11 @@
         <v>16.71</v>
       </c>
       <c r="T7" s="3">
+        <f t="shared" si="12"/>
+        <v>35.28</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="13"/>
-        <v>35.28</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="14"/>
         <v>1.7100000000000009</v>
       </c>
       <c r="V7" s="4">
@@ -29548,15 +28734,15 @@
         <v>10.52</v>
       </c>
       <c r="AO7" s="2">
+        <f t="shared" si="4"/>
+        <v>32.450000000000003</v>
+      </c>
+      <c r="AP7">
         <f t="shared" si="5"/>
-        <v>32.450000000000003</v>
-      </c>
-      <c r="AP7">
+        <v>0.11999999999999744</v>
+      </c>
+      <c r="AQ7" s="1">
         <f t="shared" si="6"/>
-        <v>0.11999999999999744</v>
-      </c>
-      <c r="AQ7" s="1">
-        <f t="shared" si="7"/>
         <v>32.510000000000005</v>
       </c>
       <c r="AT7">
@@ -29572,11 +28758,11 @@
         <v>36.81</v>
       </c>
       <c r="AX7">
+        <f t="shared" si="7"/>
+        <v>0.70000000000000284</v>
+      </c>
+      <c r="AY7" s="1">
         <f t="shared" si="8"/>
-        <v>0.70000000000000284</v>
-      </c>
-      <c r="AY7" s="1">
-        <f t="shared" si="9"/>
         <v>36.46</v>
       </c>
       <c r="BB7">
@@ -29595,7 +28781,7 @@
         <v>1.45</v>
       </c>
       <c r="BG7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>36.704999999999998</v>
       </c>
       <c r="BJ7">
@@ -29644,7 +28830,7 @@
         <v>33.203541666666702</v>
       </c>
       <c r="CA7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.7264583333332979</v>
       </c>
       <c r="CB7">
@@ -29669,7 +28855,7 @@
         <v>29.9845511490268</v>
       </c>
       <c r="CI7">
-        <f t="shared" si="4"/>
+        <f>ABS(CF7-CH7)</f>
         <v>0.40773024854659923</v>
       </c>
       <c r="CL7">
@@ -29739,7 +28925,7 @@
         <v>34.221839257521999</v>
       </c>
       <c r="DH7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>8.5644953389596878E-2</v>
       </c>
       <c r="DK7">
@@ -29953,7 +29139,7 @@
         <v>1.2825240156561999</v>
       </c>
     </row>
-    <row r="8" spans="1:184">
+    <row r="8" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -30012,11 +29198,11 @@
         <v>12.99</v>
       </c>
       <c r="T8" s="3">
+        <f t="shared" si="12"/>
+        <v>32.950000000000003</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="13"/>
-        <v>32.950000000000003</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="14"/>
         <v>2.0100000000000016</v>
       </c>
       <c r="V8" s="4">
@@ -30052,15 +29238,15 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="AO8" s="2">
+        <f t="shared" si="4"/>
+        <v>29.03</v>
+      </c>
+      <c r="AP8">
         <f t="shared" si="5"/>
-        <v>29.03</v>
-      </c>
-      <c r="AP8">
+        <v>1.1799999999999997</v>
+      </c>
+      <c r="AQ8" s="1">
         <f t="shared" si="6"/>
-        <v>1.1799999999999997</v>
-      </c>
-      <c r="AQ8" s="1">
-        <f t="shared" si="7"/>
         <v>28.44</v>
       </c>
       <c r="AT8">
@@ -30076,11 +29262,11 @@
         <v>31.12</v>
       </c>
       <c r="AX8">
+        <f t="shared" si="7"/>
+        <v>0.82000000000000028</v>
+      </c>
+      <c r="AY8" s="1">
         <f t="shared" si="8"/>
-        <v>0.82000000000000028</v>
-      </c>
-      <c r="AY8" s="1">
-        <f t="shared" si="9"/>
         <v>31.53</v>
       </c>
       <c r="BB8">
@@ -30099,7 +29285,7 @@
         <v>2.27</v>
       </c>
       <c r="BG8" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>31.734999999999999</v>
       </c>
       <c r="BJ8">
@@ -30148,7 +29334,7 @@
         <v>27.903541666666701</v>
       </c>
       <c r="CA8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.51354166666670054</v>
       </c>
       <c r="CB8">
@@ -30173,7 +29359,7 @@
         <v>27.8246656955586</v>
       </c>
       <c r="CI8">
-        <f t="shared" si="4"/>
+        <f>ABS(CF8-CH8)</f>
         <v>0.59917752901870003</v>
       </c>
       <c r="CL8">
@@ -30243,7 +29429,7 @@
         <v>31.7855309696081</v>
       </c>
       <c r="DH8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.5264267608926012</v>
       </c>
       <c r="DK8">
@@ -30457,7 +29643,7 @@
         <v>2.0705610810197301</v>
       </c>
     </row>
-    <row r="9" spans="1:184">
+    <row r="9" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -30516,11 +29702,11 @@
         <v>12.85</v>
       </c>
       <c r="T9" s="3">
+        <f t="shared" si="12"/>
+        <v>32.239999999999995</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="13"/>
-        <v>32.239999999999995</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="14"/>
         <v>2.149999999999995</v>
       </c>
       <c r="V9" s="4">
@@ -30540,15 +29726,15 @@
         <v>17.29</v>
       </c>
       <c r="AD9">
-        <f t="shared" ref="AD9:AD24" si="15">AA9-AC9</f>
+        <f t="shared" ref="AD9:AD24" si="14">AA9-AC9</f>
         <v>11.82</v>
       </c>
       <c r="AE9" s="2">
-        <f t="shared" ref="AE9:AE24" si="16">AC9+13.3</f>
+        <f t="shared" ref="AE9:AE24" si="15">AC9+13.3</f>
         <v>30.59</v>
       </c>
       <c r="AF9">
-        <f t="shared" ref="AF9:AF24" si="17">ABS(AA9-AE9)</f>
+        <f t="shared" ref="AF9:AF24" si="16">ABS(AA9-AE9)</f>
         <v>1.4800000000000004</v>
       </c>
       <c r="AG9" s="1">
@@ -30571,15 +29757,15 @@
         <v>9.69</v>
       </c>
       <c r="AO9" s="2">
+        <f t="shared" si="4"/>
+        <v>29.299999999999997</v>
+      </c>
+      <c r="AP9">
         <f t="shared" si="5"/>
-        <v>29.299999999999997</v>
-      </c>
-      <c r="AP9">
+        <v>0.7099999999999973</v>
+      </c>
+      <c r="AQ9" s="1">
         <f t="shared" si="6"/>
-        <v>0.7099999999999973</v>
-      </c>
-      <c r="AQ9" s="1">
-        <f t="shared" si="7"/>
         <v>28.945</v>
       </c>
       <c r="AT9">
@@ -30595,11 +29781,11 @@
         <v>30.39</v>
       </c>
       <c r="AX9">
+        <f t="shared" si="7"/>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="AY9" s="1">
         <f t="shared" si="8"/>
-        <v>1.0899999999999999</v>
-      </c>
-      <c r="AY9" s="1">
-        <f t="shared" si="9"/>
         <v>30.935000000000002</v>
       </c>
       <c r="BB9">
@@ -30618,7 +29804,7 @@
         <v>1.7</v>
       </c>
       <c r="BG9" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30.79</v>
       </c>
       <c r="BJ9">
@@ -30667,7 +29853,7 @@
         <v>28.593541666666699</v>
       </c>
       <c r="CA9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.503541666666699</v>
       </c>
       <c r="CB9">
@@ -30692,7 +29878,7 @@
         <v>25.161923699802902</v>
       </c>
       <c r="CI9">
-        <f t="shared" si="4"/>
+        <f>ABS(CF9-CH9)</f>
         <v>1.6082595320052988</v>
       </c>
       <c r="CL9">
@@ -30762,7 +29948,7 @@
         <v>30.660012446578101</v>
       </c>
       <c r="DH9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.57512683226799766</v>
       </c>
       <c r="DK9">
@@ -30976,7 +30162,7 @@
         <v>2.1235456441862302</v>
       </c>
     </row>
-    <row r="10" spans="1:184">
+    <row r="10" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17</v>
       </c>
@@ -31035,11 +30221,11 @@
         <v>16.59</v>
       </c>
       <c r="T10" s="3">
+        <f t="shared" si="12"/>
+        <v>31.63</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="13"/>
-        <v>31.63</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="14"/>
         <v>1.5899999999999999</v>
       </c>
       <c r="V10" s="4">
@@ -31059,15 +30245,15 @@
         <v>18.690000000000001</v>
       </c>
       <c r="AD10">
+        <f t="shared" si="14"/>
+        <v>12.739999999999998</v>
+      </c>
+      <c r="AE10" s="2">
         <f t="shared" si="15"/>
-        <v>12.739999999999998</v>
-      </c>
-      <c r="AE10" s="2">
+        <v>31.990000000000002</v>
+      </c>
+      <c r="AF10">
         <f t="shared" si="16"/>
-        <v>31.990000000000002</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="17"/>
         <v>0.56000000000000227</v>
       </c>
       <c r="AG10" s="1">
@@ -31090,15 +30276,15 @@
         <v>9.23</v>
       </c>
       <c r="AO10" s="2">
+        <f t="shared" si="4"/>
+        <v>29.82</v>
+      </c>
+      <c r="AP10">
         <f t="shared" si="5"/>
-        <v>29.82</v>
-      </c>
-      <c r="AP10">
+        <v>1.1700000000000017</v>
+      </c>
+      <c r="AQ10" s="1">
         <f t="shared" si="6"/>
-        <v>1.1700000000000017</v>
-      </c>
-      <c r="AQ10" s="1">
-        <f t="shared" si="7"/>
         <v>29.234999999999999</v>
       </c>
       <c r="AT10">
@@ -31114,11 +30300,11 @@
         <v>30.97</v>
       </c>
       <c r="AX10">
+        <f t="shared" si="7"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AY10" s="1">
         <f t="shared" si="8"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="AY10" s="1">
-        <f t="shared" si="9"/>
         <v>30.869999999999997</v>
       </c>
       <c r="BB10">
@@ -31137,7 +30323,7 @@
         <v>1.44</v>
       </c>
       <c r="BG10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>31.23</v>
       </c>
       <c r="BJ10">
@@ -31186,7 +30372,7 @@
         <v>30.1435416666667</v>
       </c>
       <c r="CA10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.2635416666667005</v>
       </c>
       <c r="CB10">
@@ -31211,7 +30397,7 @@
         <v>26.9191216379648</v>
       </c>
       <c r="CI10">
-        <f t="shared" si="4"/>
+        <f>ABS(CF10-CH10)</f>
         <v>5.5818213569200026E-2</v>
       </c>
       <c r="CL10">
@@ -31281,7 +30467,7 @@
         <v>30.365989257934</v>
       </c>
       <c r="DH10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.16915517973430028</v>
       </c>
       <c r="DK10" t="s">
@@ -31495,7 +30681,7 @@
         <v>1.7335527119504499</v>
       </c>
     </row>
-    <row r="11" spans="1:184">
+    <row r="11" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18</v>
       </c>
@@ -31554,11 +30740,11 @@
         <v>16</v>
       </c>
       <c r="T11" s="3">
+        <f t="shared" si="12"/>
+        <v>31.78</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="13"/>
-        <v>31.78</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="V11" s="4">
@@ -31578,15 +30764,15 @@
         <v>15.98</v>
       </c>
       <c r="AD11">
+        <f t="shared" si="14"/>
+        <v>13.059999999999999</v>
+      </c>
+      <c r="AE11" s="2">
         <f t="shared" si="15"/>
-        <v>13.059999999999999</v>
-      </c>
-      <c r="AE11" s="2">
+        <v>29.28</v>
+      </c>
+      <c r="AF11">
         <f t="shared" si="16"/>
-        <v>29.28</v>
-      </c>
-      <c r="AF11">
-        <f t="shared" si="17"/>
         <v>0.24000000000000199</v>
       </c>
       <c r="AG11" s="1">
@@ -31609,15 +30795,15 @@
         <v>9.56</v>
       </c>
       <c r="AO11" s="2">
+        <f t="shared" si="4"/>
+        <v>28.17</v>
+      </c>
+      <c r="AP11">
         <f t="shared" si="5"/>
-        <v>28.17</v>
-      </c>
-      <c r="AP11">
+        <v>0.84000000000000341</v>
+      </c>
+      <c r="AQ11" s="1">
         <f t="shared" si="6"/>
-        <v>0.84000000000000341</v>
-      </c>
-      <c r="AQ11" s="1">
-        <f t="shared" si="7"/>
         <v>27.75</v>
       </c>
       <c r="AT11">
@@ -31633,11 +30819,11 @@
         <v>28.88</v>
       </c>
       <c r="AX11">
+        <f t="shared" si="7"/>
+        <v>0.96000000000000085</v>
+      </c>
+      <c r="AY11" s="1">
         <f t="shared" si="8"/>
-        <v>0.96000000000000085</v>
-      </c>
-      <c r="AY11" s="1">
-        <f t="shared" si="9"/>
         <v>29.36</v>
       </c>
       <c r="BB11">
@@ -31656,7 +30842,7 @@
         <v>0.98</v>
       </c>
       <c r="BG11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30.939999999999998</v>
       </c>
       <c r="BJ11">
@@ -31705,7 +30891,7 @@
         <v>28.273541666666699</v>
       </c>
       <c r="CA11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.42645833333330074</v>
       </c>
       <c r="CB11">
@@ -31730,7 +30916,7 @@
         <v>28.663717493034301</v>
       </c>
       <c r="CI11">
-        <f t="shared" si="4"/>
+        <f>ABS(CF11-CH11)</f>
         <v>0.14422758819070225</v>
       </c>
       <c r="CL11">
@@ -31800,7 +30986,7 @@
         <v>32.877962410610102</v>
       </c>
       <c r="DH11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>8.9307287072301733E-2</v>
       </c>
       <c r="DK11">
@@ -32014,7 +31200,7 @@
         <v>2.18049984733958</v>
       </c>
     </row>
-    <row r="12" spans="1:184">
+    <row r="12" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>19</v>
       </c>
@@ -32073,11 +31259,11 @@
         <v>15.17</v>
       </c>
       <c r="T12" s="3">
+        <f t="shared" si="12"/>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="U12">
         <f t="shared" si="13"/>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="14"/>
         <v>0.17000000000000171</v>
       </c>
       <c r="V12" s="4">
@@ -32097,15 +31283,15 @@
         <v>19</v>
       </c>
       <c r="AD12">
+        <f t="shared" si="14"/>
+        <v>12.920000000000002</v>
+      </c>
+      <c r="AE12" s="2">
         <f t="shared" si="15"/>
-        <v>12.920000000000002</v>
-      </c>
-      <c r="AE12" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AF12">
         <f t="shared" si="16"/>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="17"/>
         <v>0.37999999999999545</v>
       </c>
       <c r="AG12" s="1">
@@ -32128,15 +31314,15 @@
         <v>11.58</v>
       </c>
       <c r="AO12" s="2">
+        <f t="shared" si="4"/>
+        <v>28.79</v>
+      </c>
+      <c r="AP12">
         <f t="shared" si="5"/>
-        <v>28.79</v>
-      </c>
-      <c r="AP12">
+        <v>1.1799999999999997</v>
+      </c>
+      <c r="AQ12" s="1">
         <f t="shared" si="6"/>
-        <v>1.1799999999999997</v>
-      </c>
-      <c r="AQ12" s="1">
-        <f t="shared" si="7"/>
         <v>29.38</v>
       </c>
       <c r="AT12">
@@ -32152,11 +31338,11 @@
         <v>30.43</v>
       </c>
       <c r="AX12">
+        <f t="shared" si="7"/>
+        <v>0.71999999999999886</v>
+      </c>
+      <c r="AY12" s="1">
         <f t="shared" si="8"/>
-        <v>0.71999999999999886</v>
-      </c>
-      <c r="AY12" s="1">
-        <f t="shared" si="9"/>
         <v>30.79</v>
       </c>
       <c r="BB12">
@@ -32175,7 +31361,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="BG12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>31.86</v>
       </c>
       <c r="BJ12" t="s">
@@ -32221,7 +31407,7 @@
         <v>29.833541666666701</v>
       </c>
       <c r="CA12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.4435416666667003</v>
       </c>
       <c r="CB12">
@@ -32246,7 +31432,7 @@
         <v>29.631032906961199</v>
       </c>
       <c r="CI12">
-        <f t="shared" si="4"/>
+        <f>ABS(CF12-CH12)</f>
         <v>6.0273789586400284E-2</v>
       </c>
       <c r="CL12">
@@ -32316,7 +31502,7 @@
         <v>33.390079418113501</v>
       </c>
       <c r="DH12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.18380176021020134</v>
       </c>
       <c r="DK12">
@@ -32530,7 +31716,7 @@
         <v>2.3106255979899202</v>
       </c>
     </row>
-    <row r="13" spans="1:184">
+    <row r="13" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20</v>
       </c>
@@ -32589,11 +31775,11 @@
         <v>16.420000000000002</v>
       </c>
       <c r="T13" s="3">
+        <f t="shared" si="12"/>
+        <v>31.62</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="13"/>
-        <v>31.62</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="14"/>
         <v>1.4199999999999982</v>
       </c>
       <c r="V13" s="4">
@@ -32613,15 +31799,15 @@
         <v>16.64</v>
       </c>
       <c r="AD13">
+        <f t="shared" si="14"/>
+        <v>13.18</v>
+      </c>
+      <c r="AE13" s="2">
         <f t="shared" si="15"/>
-        <v>13.18</v>
-      </c>
-      <c r="AE13" s="2">
+        <v>29.94</v>
+      </c>
+      <c r="AF13">
         <f t="shared" si="16"/>
-        <v>29.94</v>
-      </c>
-      <c r="AF13">
-        <f t="shared" si="17"/>
         <v>0.12000000000000099</v>
       </c>
       <c r="AG13" s="1">
@@ -32644,15 +31830,15 @@
         <v>8.8800000000000008</v>
       </c>
       <c r="AO13" s="2">
+        <f t="shared" si="4"/>
+        <v>29.04</v>
+      </c>
+      <c r="AP13">
         <f t="shared" si="5"/>
-        <v>29.04</v>
-      </c>
-      <c r="AP13">
+        <v>1.5199999999999996</v>
+      </c>
+      <c r="AQ13" s="1">
         <f t="shared" si="6"/>
-        <v>1.5199999999999996</v>
-      </c>
-      <c r="AQ13" s="1">
-        <f t="shared" si="7"/>
         <v>28.28</v>
       </c>
       <c r="AT13">
@@ -32668,11 +31854,11 @@
         <v>29.99</v>
       </c>
       <c r="AX13">
+        <f t="shared" si="7"/>
+        <v>0.33999999999999986</v>
+      </c>
+      <c r="AY13" s="1">
         <f t="shared" si="8"/>
-        <v>0.33999999999999986</v>
-      </c>
-      <c r="AY13" s="1">
-        <f t="shared" si="9"/>
         <v>29.82</v>
       </c>
       <c r="BB13">
@@ -32691,7 +31877,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="BG13" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>31.72</v>
       </c>
       <c r="BJ13">
@@ -32740,7 +31926,7 @@
         <v>28.723541666666701</v>
       </c>
       <c r="CA13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.2535416666667025</v>
       </c>
       <c r="CB13">
@@ -32765,7 +31951,7 @@
         <v>28.576472486504102</v>
       </c>
       <c r="CI13">
-        <f t="shared" si="4"/>
+        <f>ABS(CF13-CH13)</f>
         <v>0.16241433755399726</v>
       </c>
       <c r="CL13">
@@ -32835,7 +32021,7 @@
         <v>33.101647472408303</v>
       </c>
       <c r="DH13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.52050675255670598</v>
       </c>
       <c r="DK13" t="s">
@@ -33049,7 +32235,7 @@
         <v>2.33995112254091</v>
       </c>
     </row>
-    <row r="14" spans="1:184">
+    <row r="14" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21</v>
       </c>
@@ -33108,11 +32294,11 @@
         <v>15.3</v>
       </c>
       <c r="T14" s="3">
+        <f t="shared" si="12"/>
+        <v>31.9</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="13"/>
-        <v>31.9</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="14"/>
         <v>0.30000000000000426</v>
       </c>
       <c r="V14" s="4">
@@ -33132,15 +32318,15 @@
         <v>16.760000000000002</v>
       </c>
       <c r="AD14">
+        <f t="shared" si="14"/>
+        <v>12.2</v>
+      </c>
+      <c r="AE14" s="2">
         <f t="shared" si="15"/>
-        <v>12.2</v>
-      </c>
-      <c r="AE14" s="2">
+        <v>30.060000000000002</v>
+      </c>
+      <c r="AF14">
         <f t="shared" si="16"/>
-        <v>30.060000000000002</v>
-      </c>
-      <c r="AF14">
-        <f t="shared" si="17"/>
         <v>1.1000000000000014</v>
       </c>
       <c r="AG14" s="1">
@@ -33163,15 +32349,15 @@
         <v>8.84</v>
       </c>
       <c r="AO14" s="2">
+        <f t="shared" si="4"/>
+        <v>29.369999999999997</v>
+      </c>
+      <c r="AP14">
         <f t="shared" si="5"/>
-        <v>29.369999999999997</v>
-      </c>
-      <c r="AP14">
+        <v>1.5599999999999987</v>
+      </c>
+      <c r="AQ14" s="1">
         <f t="shared" si="6"/>
-        <v>1.5599999999999987</v>
-      </c>
-      <c r="AQ14" s="1">
-        <f t="shared" si="7"/>
         <v>28.589999999999996</v>
       </c>
       <c r="AT14">
@@ -33187,11 +32373,11 @@
         <v>29.8</v>
       </c>
       <c r="AX14">
+        <f t="shared" si="7"/>
+        <v>0.64000000000000057</v>
+      </c>
+      <c r="AY14" s="1">
         <f t="shared" si="8"/>
-        <v>0.64000000000000057</v>
-      </c>
-      <c r="AY14" s="1">
-        <f t="shared" si="9"/>
         <v>30.12</v>
       </c>
       <c r="BB14">
@@ -33210,7 +32396,7 @@
         <v>1.9999999999999601E-2</v>
       </c>
       <c r="BG14" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30.450000000000003</v>
       </c>
       <c r="BJ14">
@@ -33259,7 +32445,7 @@
         <v>29.5535416666667</v>
       </c>
       <c r="CA14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.54354166666669812</v>
       </c>
       <c r="CB14">
@@ -33284,7 +32470,7 @@
         <v>28.312243323254201</v>
       </c>
       <c r="CI14">
-        <f t="shared" si="4"/>
+        <f>ABS(CF14-CH14)</f>
         <v>0.18190039266649904</v>
       </c>
       <c r="CL14">
@@ -33354,7 +32540,7 @@
         <v>32.770216045316502</v>
       </c>
       <c r="DH14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.7814935754286019</v>
       </c>
       <c r="DK14">
@@ -33568,7 +32754,7 @@
         <v>2.5197692557067799</v>
       </c>
     </row>
-    <row r="15" spans="1:184">
+    <row r="15" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>22</v>
       </c>
@@ -33627,11 +32813,11 @@
         <v>15.6</v>
       </c>
       <c r="T15" s="3">
+        <f t="shared" si="12"/>
+        <v>32.620000000000005</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="13"/>
-        <v>32.620000000000005</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="14"/>
         <v>0.59999999999999432</v>
       </c>
       <c r="V15" s="4">
@@ -33651,15 +32837,15 @@
         <v>17.489999999999998</v>
       </c>
       <c r="AD15">
+        <f t="shared" si="14"/>
+        <v>11.680000000000003</v>
+      </c>
+      <c r="AE15" s="2">
         <f t="shared" si="15"/>
-        <v>11.680000000000003</v>
-      </c>
-      <c r="AE15" s="2">
+        <v>30.79</v>
+      </c>
+      <c r="AF15">
         <f t="shared" si="16"/>
-        <v>30.79</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" si="17"/>
         <v>1.6199999999999974</v>
       </c>
       <c r="AG15" s="1">
@@ -33682,15 +32868,15 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="AO15" s="2">
+        <f t="shared" si="4"/>
+        <v>29.65</v>
+      </c>
+      <c r="AP15">
         <f t="shared" si="5"/>
-        <v>29.65</v>
-      </c>
-      <c r="AP15">
+        <v>1.1899999999999977</v>
+      </c>
+      <c r="AQ15" s="1">
         <f t="shared" si="6"/>
-        <v>1.1899999999999977</v>
-      </c>
-      <c r="AQ15" s="1">
-        <f t="shared" si="7"/>
         <v>29.055</v>
       </c>
       <c r="AT15">
@@ -33706,11 +32892,11 @@
         <v>30.82</v>
       </c>
       <c r="AX15">
+        <f t="shared" si="7"/>
+        <v>1.2699999999999996</v>
+      </c>
+      <c r="AY15" s="1">
         <f t="shared" si="8"/>
-        <v>1.2699999999999996</v>
-      </c>
-      <c r="AY15" s="1">
-        <f t="shared" si="9"/>
         <v>30.185000000000002</v>
       </c>
       <c r="BB15">
@@ -33729,7 +32915,7 @@
         <v>0.62999999999999901</v>
       </c>
       <c r="BG15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>29.924999999999997</v>
       </c>
       <c r="BJ15">
@@ -33778,7 +32964,7 @@
         <v>30.263541666666701</v>
       </c>
       <c r="CA15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.6935416666667003</v>
       </c>
       <c r="CB15">
@@ -33803,7 +32989,7 @@
         <v>27.608146629774001</v>
       </c>
       <c r="CI15">
-        <f t="shared" si="4"/>
+        <f>ABS(CF15-CH15)</f>
         <v>0.24289894648980237</v>
       </c>
       <c r="CL15">
@@ -33873,7 +33059,7 @@
         <v>32.1524996911673</v>
       </c>
       <c r="DH15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.3031694563856</v>
       </c>
       <c r="DK15">
@@ -34087,7 +33273,7 @@
         <v>2.2680691284675101</v>
       </c>
     </row>
-    <row r="16" spans="1:184">
+    <row r="16" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23</v>
       </c>
@@ -34146,11 +33332,11 @@
         <v>16.96</v>
       </c>
       <c r="T16" s="3">
+        <f t="shared" si="12"/>
+        <v>31.31</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="13"/>
-        <v>31.31</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="14"/>
         <v>1.9600000000000044</v>
       </c>
       <c r="V16" s="4">
@@ -34170,15 +33356,15 @@
         <v>17</v>
       </c>
       <c r="AD16">
+        <f t="shared" si="14"/>
+        <v>13.73</v>
+      </c>
+      <c r="AE16" s="2">
         <f t="shared" si="15"/>
-        <v>13.73</v>
-      </c>
-      <c r="AE16" s="2">
+        <v>30.3</v>
+      </c>
+      <c r="AF16">
         <f t="shared" si="16"/>
-        <v>30.3</v>
-      </c>
-      <c r="AF16">
-        <f t="shared" si="17"/>
         <v>0.42999999999999972</v>
       </c>
       <c r="AG16" s="1">
@@ -34201,15 +33387,15 @@
         <v>9</v>
       </c>
       <c r="AO16" s="2">
+        <f t="shared" si="4"/>
+        <v>28.47</v>
+      </c>
+      <c r="AP16">
         <f t="shared" si="5"/>
-        <v>28.47</v>
-      </c>
-      <c r="AP16">
+        <v>1.3999999999999986</v>
+      </c>
+      <c r="AQ16" s="1">
         <f t="shared" si="6"/>
-        <v>1.3999999999999986</v>
-      </c>
-      <c r="AQ16" s="1">
-        <f t="shared" si="7"/>
         <v>27.77</v>
       </c>
       <c r="AT16">
@@ -34225,11 +33411,11 @@
         <v>29.95</v>
       </c>
       <c r="AX16">
+        <f t="shared" si="7"/>
+        <v>0.72000000000000242</v>
+      </c>
+      <c r="AY16" s="1">
         <f t="shared" si="8"/>
-        <v>0.72000000000000242</v>
-      </c>
-      <c r="AY16" s="1">
-        <f t="shared" si="9"/>
         <v>30.310000000000002</v>
       </c>
       <c r="BB16">
@@ -34248,7 +33434,7 @@
         <v>1.41</v>
       </c>
       <c r="BG16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30.365000000000002</v>
       </c>
       <c r="BJ16">
@@ -34297,7 +33483,7 @@
         <v>28.843541666666699</v>
       </c>
       <c r="CA16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.5935416666666988</v>
       </c>
       <c r="CB16">
@@ -34322,7 +33508,7 @@
         <v>27.067301885703401</v>
       </c>
       <c r="CI16">
-        <f t="shared" si="4"/>
+        <f>ABS(CF16-CH16)</f>
         <v>0.16687113061379932</v>
       </c>
       <c r="CL16">
@@ -34392,7 +33578,7 @@
         <v>30.358756354109701</v>
       </c>
       <c r="DH16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.7991554375221028</v>
       </c>
       <c r="DK16" t="s">
@@ -34606,7 +33792,7 @@
         <v>1.99954964728618</v>
       </c>
     </row>
-    <row r="17" spans="1:184">
+    <row r="17" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24</v>
       </c>
@@ -34665,11 +33851,11 @@
         <v>16.809999999999999</v>
       </c>
       <c r="T17" s="3">
+        <f t="shared" si="12"/>
+        <v>32.620000000000005</v>
+      </c>
+      <c r="U17">
         <f t="shared" si="13"/>
-        <v>32.620000000000005</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="14"/>
         <v>1.8099999999999952</v>
       </c>
       <c r="V17" s="4">
@@ -34689,15 +33875,15 @@
         <v>20.68</v>
       </c>
       <c r="AD17">
+        <f t="shared" si="14"/>
+        <v>11.649999999999999</v>
+      </c>
+      <c r="AE17" s="2">
         <f t="shared" si="15"/>
-        <v>11.649999999999999</v>
-      </c>
-      <c r="AE17" s="2">
+        <v>33.980000000000004</v>
+      </c>
+      <c r="AF17">
         <f t="shared" si="16"/>
-        <v>33.980000000000004</v>
-      </c>
-      <c r="AF17">
-        <f t="shared" si="17"/>
         <v>1.6500000000000057</v>
       </c>
       <c r="AG17" s="1">
@@ -34720,15 +33906,15 @@
         <v>10.56</v>
       </c>
       <c r="AO17" s="2">
+        <f t="shared" si="4"/>
+        <v>29.46</v>
+      </c>
+      <c r="AP17">
         <f t="shared" si="5"/>
-        <v>29.46</v>
-      </c>
-      <c r="AP17">
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="AQ17" s="1">
         <f t="shared" si="6"/>
-        <v>0.16000000000000014</v>
-      </c>
-      <c r="AQ17" s="1">
-        <f t="shared" si="7"/>
         <v>29.54</v>
       </c>
       <c r="AT17">
@@ -34744,11 +33930,11 @@
         <v>31.87</v>
       </c>
       <c r="AX17">
+        <f t="shared" si="7"/>
+        <v>1.3399999999999999</v>
+      </c>
+      <c r="AY17" s="1">
         <f t="shared" si="8"/>
-        <v>1.3399999999999999</v>
-      </c>
-      <c r="AY17" s="1">
-        <f t="shared" si="9"/>
         <v>31.200000000000003</v>
       </c>
       <c r="BB17">
@@ -34767,7 +33953,7 @@
         <v>0.82</v>
       </c>
       <c r="BG17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>31.63</v>
       </c>
       <c r="BJ17">
@@ -34816,7 +34002,7 @@
         <v>30.3735416666667</v>
       </c>
       <c r="CA17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.1735416666667007</v>
       </c>
       <c r="CB17">
@@ -34841,7 +34027,7 @@
         <v>29.433177193542601</v>
       </c>
       <c r="CI17">
-        <f t="shared" si="4"/>
+        <f>ABS(CF17-CH17)</f>
         <v>0.25212148774540211</v>
       </c>
       <c r="CL17">
@@ -34911,7 +34097,7 @@
         <v>33.273776580364903</v>
       </c>
       <c r="DH17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.74087470539949862</v>
       </c>
       <c r="DK17">
@@ -35125,7 +34311,7 @@
         <v>1.7976966702280599</v>
       </c>
     </row>
-    <row r="18" spans="1:184">
+    <row r="18" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>33</v>
       </c>
@@ -35184,11 +34370,11 @@
         <v>14.5</v>
       </c>
       <c r="T18" s="3">
+        <f t="shared" si="12"/>
+        <v>31.09</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="13"/>
-        <v>31.09</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="V18" s="4">
@@ -35208,15 +34394,15 @@
         <v>16.89</v>
       </c>
       <c r="AD18">
+        <f t="shared" si="14"/>
+        <v>13.649999999999999</v>
+      </c>
+      <c r="AE18" s="2">
         <f t="shared" si="15"/>
-        <v>13.649999999999999</v>
-      </c>
-      <c r="AE18" s="2">
+        <v>30.19</v>
+      </c>
+      <c r="AF18">
         <f t="shared" si="16"/>
-        <v>30.19</v>
-      </c>
-      <c r="AF18">
-        <f t="shared" si="17"/>
         <v>0.34999999999999787</v>
       </c>
       <c r="AG18" s="1">
@@ -35239,15 +34425,15 @@
         <v>11.16</v>
       </c>
       <c r="AO18" s="2">
+        <f t="shared" si="4"/>
+        <v>28.53</v>
+      </c>
+      <c r="AP18">
         <f t="shared" si="5"/>
-        <v>28.53</v>
-      </c>
-      <c r="AP18">
+        <v>0.75999999999999801</v>
+      </c>
+      <c r="AQ18" s="1">
         <f t="shared" si="6"/>
-        <v>0.75999999999999801</v>
-      </c>
-      <c r="AQ18" s="1">
-        <f t="shared" si="7"/>
         <v>28.91</v>
       </c>
       <c r="AT18">
@@ -35263,11 +34449,11 @@
         <v>29.28</v>
       </c>
       <c r="AX18">
+        <f t="shared" si="7"/>
+        <v>1.1400000000000006</v>
+      </c>
+      <c r="AY18" s="1">
         <f t="shared" si="8"/>
-        <v>1.1400000000000006</v>
-      </c>
-      <c r="AY18" s="1">
-        <f t="shared" si="9"/>
         <v>29.85</v>
       </c>
       <c r="BB18">
@@ -35286,7 +34472,7 @@
         <v>1.45</v>
       </c>
       <c r="BG18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30.515000000000001</v>
       </c>
       <c r="BJ18" t="s">
@@ -35332,7 +34518,7 @@
         <v>28.8035416666667</v>
       </c>
       <c r="CA18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.2335416666666994</v>
       </c>
       <c r="CB18">
@@ -35357,7 +34543,7 @@
         <v>26.667588050770199</v>
       </c>
       <c r="CI18">
-        <f t="shared" si="4"/>
+        <f>ABS(CF18-CH18)</f>
         <v>0.33297035870440084</v>
       </c>
       <c r="CL18">
@@ -35427,7 +34613,7 @@
         <v>31.560169322391999</v>
       </c>
       <c r="DH18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.28005795639889897</v>
       </c>
       <c r="DK18" t="s">
@@ -35641,7 +34827,7 @@
         <v>2.1950810779782999</v>
       </c>
     </row>
-    <row r="19" spans="1:184">
+    <row r="19" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>34</v>
       </c>
@@ -35700,11 +34886,11 @@
         <v>12.99</v>
       </c>
       <c r="T19" s="3">
+        <f t="shared" si="12"/>
+        <v>31.53</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="13"/>
-        <v>31.53</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="14"/>
         <v>2.0100000000000016</v>
       </c>
       <c r="V19" s="4">
@@ -35724,15 +34910,15 @@
         <v>16.29</v>
       </c>
       <c r="AD19">
+        <f t="shared" si="14"/>
+        <v>13.380000000000003</v>
+      </c>
+      <c r="AE19" s="2">
         <f t="shared" si="15"/>
-        <v>13.380000000000003</v>
-      </c>
-      <c r="AE19" s="2">
+        <v>29.59</v>
+      </c>
+      <c r="AF19">
         <f t="shared" si="16"/>
-        <v>29.59</v>
-      </c>
-      <c r="AF19">
-        <f t="shared" si="17"/>
         <v>8.0000000000001847E-2</v>
       </c>
       <c r="AG19" s="1">
@@ -35755,15 +34941,15 @@
         <v>11.12</v>
       </c>
       <c r="AO19" s="2">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="AP19">
         <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="AP19">
+        <v>0.71999999999999886</v>
+      </c>
+      <c r="AQ19" s="1">
         <f t="shared" si="6"/>
-        <v>0.71999999999999886</v>
-      </c>
-      <c r="AQ19" s="1">
-        <f t="shared" si="7"/>
         <v>27.36</v>
       </c>
       <c r="AT19">
@@ -35779,11 +34965,11 @@
         <v>27.7</v>
       </c>
       <c r="AX19">
+        <f t="shared" si="7"/>
+        <v>2.6799999999999997</v>
+      </c>
+      <c r="AY19" s="1">
         <f t="shared" si="8"/>
-        <v>2.6799999999999997</v>
-      </c>
-      <c r="AY19" s="1">
-        <f t="shared" si="9"/>
         <v>29.04</v>
       </c>
       <c r="BB19">
@@ -35802,7 +34988,7 @@
         <v>0.60999999999999899</v>
       </c>
       <c r="BG19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>29.265000000000001</v>
       </c>
       <c r="BJ19" t="s">
@@ -35848,7 +35034,7 @@
         <v>29.363541666666698</v>
       </c>
       <c r="CA19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.8135416666666977</v>
       </c>
       <c r="CB19">
@@ -35873,7 +35059,7 @@
         <v>30.539894533078801</v>
       </c>
       <c r="CI19">
-        <f t="shared" si="4"/>
+        <f>ABS(CF19-CH19)</f>
         <v>0.17103518563790132</v>
       </c>
       <c r="CL19">
@@ -35943,7 +35129,7 @@
         <v>34.585237649539202</v>
       </c>
       <c r="DH19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.0741087434756977</v>
       </c>
       <c r="DK19">
@@ -36157,7 +35343,7 @@
         <v>1.935032751704</v>
       </c>
     </row>
-    <row r="20" spans="1:184">
+    <row r="20" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>35</v>
       </c>
@@ -36216,11 +35402,11 @@
         <v>14.16</v>
       </c>
       <c r="T20" s="3">
+        <f t="shared" si="12"/>
+        <v>31.81</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="13"/>
-        <v>31.81</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="14"/>
         <v>0.83999999999999986</v>
       </c>
       <c r="V20" s="4">
@@ -36240,15 +35426,15 @@
         <v>17.93</v>
       </c>
       <c r="AD20">
+        <f t="shared" si="14"/>
+        <v>12.260000000000002</v>
+      </c>
+      <c r="AE20" s="2">
         <f t="shared" si="15"/>
-        <v>12.260000000000002</v>
-      </c>
-      <c r="AE20" s="2">
+        <v>31.23</v>
+      </c>
+      <c r="AF20">
         <f t="shared" si="16"/>
-        <v>31.23</v>
-      </c>
-      <c r="AF20">
-        <f t="shared" si="17"/>
         <v>1.0399999999999991</v>
       </c>
       <c r="AG20" s="1">
@@ -36271,15 +35457,15 @@
         <v>11.39</v>
       </c>
       <c r="AO20" s="2">
+        <f t="shared" si="4"/>
+        <v>28.160000000000004</v>
+      </c>
+      <c r="AP20">
         <f t="shared" si="5"/>
-        <v>28.160000000000004</v>
-      </c>
-      <c r="AP20">
+        <v>0.98999999999999488</v>
+      </c>
+      <c r="AQ20" s="1">
         <f t="shared" si="6"/>
-        <v>0.98999999999999488</v>
-      </c>
-      <c r="AQ20" s="1">
-        <f t="shared" si="7"/>
         <v>28.655000000000001</v>
       </c>
       <c r="AT20">
@@ -36295,11 +35481,11 @@
         <v>29.54</v>
       </c>
       <c r="AX20">
+        <f t="shared" si="7"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="AY20" s="1">
         <f t="shared" si="8"/>
-        <v>1.6000000000000014</v>
-      </c>
-      <c r="AY20" s="1">
-        <f t="shared" si="9"/>
         <v>30.34</v>
       </c>
       <c r="BB20">
@@ -36318,7 +35504,7 @@
         <v>1.24</v>
       </c>
       <c r="BG20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>31.2</v>
       </c>
       <c r="BJ20" t="s">
@@ -36364,7 +35550,7 @@
         <v>29.503541666666699</v>
       </c>
       <c r="CA20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.9635416666666998</v>
       </c>
       <c r="CB20">
@@ -36389,7 +35575,7 @@
         <v>28.813311519701902</v>
       </c>
       <c r="CI20">
-        <f t="shared" si="4"/>
+        <f>ABS(CF20-CH20)</f>
         <v>0.29454437514630172</v>
       </c>
       <c r="CL20">
@@ -36459,7 +35645,7 @@
         <v>33.021621615082999</v>
       </c>
       <c r="DH20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.9244924052538011</v>
       </c>
       <c r="DK20">
@@ -36673,7 +35859,7 @@
         <v>2.3001550595195002</v>
       </c>
     </row>
-    <row r="21" spans="1:184">
+    <row r="21" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>36</v>
       </c>
@@ -36732,11 +35918,11 @@
         <v>14.15</v>
       </c>
       <c r="T21" s="3">
+        <f t="shared" si="12"/>
+        <v>31.69</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="13"/>
-        <v>31.69</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="14"/>
         <v>0.85000000000000142</v>
       </c>
       <c r="V21" s="4">
@@ -36756,15 +35942,15 @@
         <v>16.12</v>
       </c>
       <c r="AD21">
+        <f t="shared" si="14"/>
+        <v>15.09</v>
+      </c>
+      <c r="AE21" s="2">
         <f t="shared" si="15"/>
-        <v>15.09</v>
-      </c>
-      <c r="AE21" s="2">
+        <v>29.42</v>
+      </c>
+      <c r="AF21">
         <f t="shared" si="16"/>
-        <v>29.42</v>
-      </c>
-      <c r="AF21">
-        <f t="shared" si="17"/>
         <v>1.7899999999999991</v>
       </c>
       <c r="AG21" s="1">
@@ -36787,15 +35973,15 @@
         <v>10.88</v>
       </c>
       <c r="AO21" s="2">
+        <f t="shared" si="4"/>
+        <v>28.39</v>
+      </c>
+      <c r="AP21">
         <f t="shared" si="5"/>
-        <v>28.39</v>
-      </c>
-      <c r="AP21">
+        <v>0.48000000000000043</v>
+      </c>
+      <c r="AQ21" s="1">
         <f t="shared" si="6"/>
-        <v>0.48000000000000043</v>
-      </c>
-      <c r="AQ21" s="1">
-        <f t="shared" si="7"/>
         <v>28.630000000000003</v>
       </c>
       <c r="AT21">
@@ -36811,11 +35997,11 @@
         <v>29.17</v>
       </c>
       <c r="AX21">
+        <f t="shared" si="7"/>
+        <v>1.6899999999999977</v>
+      </c>
+      <c r="AY21" s="1">
         <f t="shared" si="8"/>
-        <v>1.6899999999999977</v>
-      </c>
-      <c r="AY21" s="1">
-        <f t="shared" si="9"/>
         <v>30.015000000000001</v>
       </c>
       <c r="BB21">
@@ -36834,7 +36020,7 @@
         <v>0.44999999999999901</v>
       </c>
       <c r="BG21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>29.825000000000003</v>
       </c>
       <c r="BJ21" t="s">
@@ -36880,7 +36066,7 @@
         <v>30.6935416666667</v>
       </c>
       <c r="CA21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.3835416666667015</v>
       </c>
       <c r="CB21">
@@ -36905,7 +36091,7 @@
         <v>25.888334906808399</v>
       </c>
       <c r="CI21">
-        <f t="shared" si="4"/>
+        <f>ABS(CF21-CH21)</f>
         <v>0.30590091100049932</v>
       </c>
       <c r="CL21">
@@ -36975,7 +36161,7 @@
         <v>30.398997027265299</v>
       </c>
       <c r="DH21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.25119916571960133</v>
       </c>
       <c r="DK21">
@@ -37189,7 +36375,7 @@
         <v>2.4891251698624699</v>
       </c>
     </row>
-    <row r="22" spans="1:184">
+    <row r="22" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>37</v>
       </c>
@@ -37248,11 +36434,11 @@
         <v>14.68</v>
       </c>
       <c r="T22" s="3">
+        <f t="shared" si="12"/>
+        <v>31.61</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="13"/>
-        <v>31.61</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="14"/>
         <v>0.32000000000000028</v>
       </c>
       <c r="V22" s="4">
@@ -37272,15 +36458,15 @@
         <v>16.010000000000002</v>
       </c>
       <c r="AD22">
+        <f t="shared" si="14"/>
+        <v>13.779999999999998</v>
+      </c>
+      <c r="AE22" s="2">
         <f t="shared" si="15"/>
-        <v>13.779999999999998</v>
-      </c>
-      <c r="AE22" s="2">
+        <v>29.310000000000002</v>
+      </c>
+      <c r="AF22">
         <f t="shared" si="16"/>
-        <v>29.310000000000002</v>
-      </c>
-      <c r="AF22">
-        <f t="shared" si="17"/>
         <v>0.47999999999999687</v>
       </c>
       <c r="AG22" s="1">
@@ -37303,15 +36489,15 @@
         <v>11.1</v>
       </c>
       <c r="AO22" s="2">
+        <f t="shared" si="4"/>
+        <v>28.28</v>
+      </c>
+      <c r="AP22">
         <f t="shared" si="5"/>
-        <v>28.28</v>
-      </c>
-      <c r="AP22">
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="AQ22" s="1">
         <f t="shared" si="6"/>
-        <v>0.69999999999999929</v>
-      </c>
-      <c r="AQ22" s="1">
-        <f t="shared" si="7"/>
         <v>28.630000000000003</v>
       </c>
       <c r="AT22">
@@ -37327,11 +36513,11 @@
         <v>28.48</v>
       </c>
       <c r="AX22">
+        <f t="shared" si="7"/>
+        <v>2.0700000000000003</v>
+      </c>
+      <c r="AY22" s="1">
         <f t="shared" si="8"/>
-        <v>2.0700000000000003</v>
-      </c>
-      <c r="AY22" s="1">
-        <f t="shared" si="9"/>
         <v>29.515000000000001</v>
       </c>
       <c r="BB22">
@@ -37350,7 +36536,7 @@
         <v>0.68</v>
       </c>
       <c r="BG22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30.34</v>
       </c>
       <c r="BJ22" t="s">
@@ -37396,7 +36582,7 @@
         <v>29.8735416666667</v>
       </c>
       <c r="CA22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.80354166666669968</v>
       </c>
       <c r="CB22">
@@ -37421,7 +36607,7 @@
         <v>27.389138207084802</v>
       </c>
       <c r="CI22">
-        <f t="shared" si="4"/>
+        <f>ABS(CF22-CH22)</f>
         <v>2.1387179710899318E-2</v>
       </c>
       <c r="CL22">
@@ -37491,7 +36677,7 @@
         <v>30.965343237682902</v>
       </c>
       <c r="DH22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>8.8414863109999686E-2</v>
       </c>
       <c r="DK22">
@@ -37705,7 +36891,7 @@
         <v>2.1090888311065998</v>
       </c>
     </row>
-    <row r="23" spans="1:184">
+    <row r="23" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>38</v>
       </c>
@@ -37764,11 +36950,11 @@
         <v>12.75</v>
       </c>
       <c r="T23" s="3">
+        <f t="shared" si="12"/>
+        <v>33.31</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="13"/>
-        <v>33.31</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="14"/>
         <v>2.2500000000000036</v>
       </c>
       <c r="V23" s="4">
@@ -37788,15 +36974,15 @@
         <v>16.54</v>
       </c>
       <c r="AD23">
+        <f t="shared" si="14"/>
+        <v>16.160000000000004</v>
+      </c>
+      <c r="AE23" s="2">
         <f t="shared" si="15"/>
-        <v>16.160000000000004</v>
-      </c>
-      <c r="AE23" s="2">
+        <v>29.84</v>
+      </c>
+      <c r="AF23">
         <f t="shared" si="16"/>
-        <v>29.84</v>
-      </c>
-      <c r="AF23">
-        <f t="shared" si="17"/>
         <v>2.860000000000003</v>
       </c>
       <c r="AG23" s="1">
@@ -37819,15 +37005,15 @@
         <v>10.91</v>
       </c>
       <c r="AO23" s="2">
+        <f t="shared" si="4"/>
+        <v>28.54</v>
+      </c>
+      <c r="AP23">
         <f t="shared" si="5"/>
-        <v>28.54</v>
-      </c>
-      <c r="AP23">
+        <v>0.51000000000000156</v>
+      </c>
+      <c r="AQ23" s="1">
         <f t="shared" si="6"/>
-        <v>0.51000000000000156</v>
-      </c>
-      <c r="AQ23" s="1">
-        <f t="shared" si="7"/>
         <v>28.795000000000002</v>
       </c>
       <c r="AT23">
@@ -37843,11 +37029,11 @@
         <v>29.74</v>
       </c>
       <c r="AX23">
+        <f t="shared" si="7"/>
+        <v>1.620000000000001</v>
+      </c>
+      <c r="AY23" s="1">
         <f t="shared" si="8"/>
-        <v>1.620000000000001</v>
-      </c>
-      <c r="AY23" s="1">
-        <f t="shared" si="9"/>
         <v>30.549999999999997</v>
       </c>
       <c r="BB23">
@@ -37866,7 +37052,7 @@
         <v>1.05</v>
       </c>
       <c r="BG23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30.215</v>
       </c>
       <c r="BJ23" t="s">
@@ -37912,7 +37098,7 @@
         <v>30.3035416666667</v>
       </c>
       <c r="CA23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.4135416666666991</v>
       </c>
       <c r="CB23">
@@ -37937,7 +37123,7 @@
         <v>29.1173548169652</v>
       </c>
       <c r="CI23">
-        <f t="shared" si="4"/>
+        <f>ABS(CF23-CH23)</f>
         <v>0.28338750956439895</v>
       </c>
       <c r="CL23">
@@ -38007,7 +37193,7 @@
         <v>33.3118818441868</v>
       </c>
       <c r="DH23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.561804714260262E-2</v>
       </c>
       <c r="DK23">
@@ -38221,7 +37407,7 @@
         <v>1.9559636099039299</v>
       </c>
     </row>
-    <row r="24" spans="1:184">
+    <row r="24" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>39</v>
       </c>
@@ -38280,11 +37466,11 @@
         <v>15.75</v>
       </c>
       <c r="T24" s="3">
+        <f t="shared" si="12"/>
+        <v>32.159999999999997</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="13"/>
-        <v>32.159999999999997</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="14"/>
         <v>0.75</v>
       </c>
       <c r="V24" s="4">
@@ -38304,15 +37490,15 @@
         <v>21.61</v>
       </c>
       <c r="AD24">
+        <f t="shared" si="14"/>
+        <v>9.84</v>
+      </c>
+      <c r="AE24" s="2">
         <f t="shared" si="15"/>
-        <v>9.84</v>
-      </c>
-      <c r="AE24" s="2">
+        <v>34.909999999999997</v>
+      </c>
+      <c r="AF24">
         <f t="shared" si="16"/>
-        <v>34.909999999999997</v>
-      </c>
-      <c r="AF24">
-        <f t="shared" si="17"/>
         <v>3.4599999999999973</v>
       </c>
       <c r="AG24" s="1">
@@ -38335,15 +37521,15 @@
         <v>9.34</v>
       </c>
       <c r="AO24" s="2">
+        <f t="shared" si="4"/>
+        <v>29.259999999999998</v>
+      </c>
+      <c r="AP24">
         <f t="shared" si="5"/>
-        <v>29.259999999999998</v>
-      </c>
-      <c r="AP24">
+        <v>1.0599999999999987</v>
+      </c>
+      <c r="AQ24" s="1">
         <f t="shared" si="6"/>
-        <v>1.0599999999999987</v>
-      </c>
-      <c r="AQ24" s="1">
-        <f t="shared" si="7"/>
         <v>28.729999999999997</v>
       </c>
       <c r="AT24">
@@ -38359,11 +37545,11 @@
         <v>30.48</v>
       </c>
       <c r="AX24">
+        <f t="shared" si="7"/>
+        <v>1.8499999999999979</v>
+      </c>
+      <c r="AY24" s="1">
         <f t="shared" si="8"/>
-        <v>1.8499999999999979</v>
-      </c>
-      <c r="AY24" s="1">
-        <f t="shared" si="9"/>
         <v>31.405000000000001</v>
       </c>
       <c r="BB24">
@@ -38382,7 +37568,7 @@
         <v>0.619999999999997</v>
       </c>
       <c r="BG24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>29.66</v>
       </c>
       <c r="BJ24">
@@ -38431,7 +37617,7 @@
         <v>30.433541666666699</v>
       </c>
       <c r="CA24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.95354166666669826</v>
       </c>
       <c r="CB24">
@@ -38456,7 +37642,7 @@
         <v>29.901002342136799</v>
       </c>
       <c r="CI24">
-        <f t="shared" si="4"/>
+        <f>ABS(CF24-CH24)</f>
         <v>0.12078343652880008</v>
       </c>
       <c r="CL24">
@@ -38526,7 +37712,7 @@
         <v>33.808613849563201</v>
       </c>
       <c r="DH24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.43431443013140125</v>
       </c>
       <c r="DK24" t="s">
@@ -38740,7 +37926,7 @@
         <v>2.22794011770559</v>
       </c>
     </row>
-    <row r="25" spans="1:184">
+    <row r="25" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>40</v>
       </c>
@@ -38799,11 +37985,11 @@
         <v>14.95</v>
       </c>
       <c r="T25" s="3">
+        <f t="shared" si="12"/>
+        <v>31.81</v>
+      </c>
+      <c r="U25">
         <f t="shared" si="13"/>
-        <v>31.81</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="14"/>
         <v>4.9999999999997158E-2</v>
       </c>
       <c r="V25" s="4">
@@ -38836,15 +38022,15 @@
         <v>11.65</v>
       </c>
       <c r="AO25" s="2">
+        <f t="shared" si="4"/>
+        <v>28.35</v>
+      </c>
+      <c r="AP25">
         <f t="shared" si="5"/>
-        <v>28.35</v>
-      </c>
-      <c r="AP25">
+        <v>1.25</v>
+      </c>
+      <c r="AQ25" s="1">
         <f t="shared" si="6"/>
-        <v>1.25</v>
-      </c>
-      <c r="AQ25" s="1">
-        <f t="shared" si="7"/>
         <v>28.975000000000001</v>
       </c>
       <c r="AT25">
@@ -38860,11 +38046,11 @@
         <v>29.37</v>
       </c>
       <c r="AX25">
+        <f t="shared" si="7"/>
+        <v>2.2300000000000004</v>
+      </c>
+      <c r="AY25" s="1">
         <f t="shared" si="8"/>
-        <v>2.2300000000000004</v>
-      </c>
-      <c r="AY25" s="1">
-        <f t="shared" si="9"/>
         <v>30.484999999999999</v>
       </c>
       <c r="BB25">
@@ -38883,7 +38069,7 @@
         <v>0.87999999999999901</v>
       </c>
       <c r="BG25" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30.03</v>
       </c>
       <c r="BJ25">
@@ -38932,7 +38118,7 @@
         <v>30.913541666666699</v>
       </c>
       <c r="CA25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.0635416666666977</v>
       </c>
       <c r="CB25">
@@ -38957,7 +38143,7 @@
         <v>29.642939040483601</v>
       </c>
       <c r="CI25">
-        <f t="shared" si="4"/>
+        <f>ABS(CF25-CH25)</f>
         <v>0.22710933791790211</v>
       </c>
       <c r="CL25">
@@ -39027,7 +38213,7 @@
         <v>33.712447488457499</v>
       </c>
       <c r="DH25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.45979978886330031</v>
       </c>
       <c r="DK25">
@@ -39241,7 +38427,7 @@
         <v>2.1030029252409599</v>
       </c>
     </row>
-    <row r="26" spans="1:184">
+    <row r="26" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -39313,15 +38499,15 @@
         <v>17.829999999999998</v>
       </c>
       <c r="AD26">
-        <f t="shared" ref="AD26:AD33" si="18">AA26-AC26</f>
+        <f t="shared" ref="AD26:AD33" si="17">AA26-AC26</f>
         <v>14.550000000000004</v>
       </c>
       <c r="AE26" s="2">
-        <f t="shared" ref="AE26:AE33" si="19">AC26+13.3</f>
+        <f t="shared" ref="AE26:AE33" si="18">AC26+13.3</f>
         <v>31.13</v>
       </c>
       <c r="AF26">
-        <f t="shared" ref="AF26:AF33" si="20">ABS(AA26-AE26)</f>
+        <f t="shared" ref="AF26:AF33" si="19">ABS(AA26-AE26)</f>
         <v>1.2500000000000036</v>
       </c>
       <c r="AG26" s="1">
@@ -39344,15 +38530,15 @@
         <v>10.44</v>
       </c>
       <c r="AO26" s="2">
+        <f t="shared" si="4"/>
+        <v>30.33</v>
+      </c>
+      <c r="AP26">
         <f t="shared" si="5"/>
-        <v>30.33</v>
-      </c>
-      <c r="AP26">
+        <v>4.00000000000027E-2</v>
+      </c>
+      <c r="AQ26" s="1">
         <f t="shared" si="6"/>
-        <v>4.00000000000027E-2</v>
-      </c>
-      <c r="AQ26" s="1">
-        <f t="shared" si="7"/>
         <v>30.35</v>
       </c>
       <c r="AT26">
@@ -39368,11 +38554,11 @@
         <v>33.36</v>
       </c>
       <c r="AX26">
+        <f t="shared" si="7"/>
+        <v>1.8999999999999986</v>
+      </c>
+      <c r="AY26" s="1">
         <f t="shared" si="8"/>
-        <v>1.8999999999999986</v>
-      </c>
-      <c r="AY26" s="1">
-        <f t="shared" si="9"/>
         <v>34.31</v>
       </c>
       <c r="BB26">
@@ -39391,7 +38577,7 @@
         <v>0.85000000000000098</v>
       </c>
       <c r="BG26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>31.324999999999999</v>
       </c>
       <c r="BJ26">
@@ -39440,7 +38626,7 @@
         <v>30.933541666666699</v>
       </c>
       <c r="CA26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.2264583333332979</v>
       </c>
       <c r="CB26">
@@ -39465,7 +38651,7 @@
         <v>27.105082733555999</v>
       </c>
       <c r="CI26">
-        <f t="shared" si="4"/>
+        <f>ABS(CF26-CH26)</f>
         <v>9.2492210151899457E-2</v>
       </c>
       <c r="CL26">
@@ -39535,7 +38721,7 @@
         <v>30.968714251096198</v>
       </c>
       <c r="DH26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.15353955087310212</v>
       </c>
       <c r="DK26">
@@ -39749,7 +38935,7 @@
         <v>3.2889342395734</v>
       </c>
     </row>
-    <row r="27" spans="1:184">
+    <row r="27" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
@@ -39832,15 +39018,15 @@
         <v>16.93</v>
       </c>
       <c r="AD27">
+        <f t="shared" si="17"/>
+        <v>16.270000000000003</v>
+      </c>
+      <c r="AE27" s="2">
         <f t="shared" si="18"/>
-        <v>16.270000000000003</v>
-      </c>
-      <c r="AE27" s="2">
+        <v>30.23</v>
+      </c>
+      <c r="AF27">
         <f t="shared" si="19"/>
-        <v>30.23</v>
-      </c>
-      <c r="AF27">
-        <f t="shared" si="20"/>
         <v>2.9700000000000024</v>
       </c>
       <c r="AG27" s="1">
@@ -39863,15 +39049,15 @@
         <v>10.029999999999999</v>
       </c>
       <c r="AO27" s="2">
+        <f t="shared" si="4"/>
+        <v>29.11</v>
+      </c>
+      <c r="AP27">
         <f t="shared" si="5"/>
-        <v>29.11</v>
-      </c>
-      <c r="AP27">
+        <v>0.37000000000000099</v>
+      </c>
+      <c r="AQ27" s="1">
         <f t="shared" si="6"/>
-        <v>0.37000000000000099</v>
-      </c>
-      <c r="AQ27" s="1">
-        <f t="shared" si="7"/>
         <v>28.924999999999997</v>
       </c>
       <c r="AT27">
@@ -39887,11 +39073,11 @@
         <v>32.46</v>
       </c>
       <c r="AX27">
+        <f t="shared" si="7"/>
+        <v>0.69999999999999574</v>
+      </c>
+      <c r="AY27" s="1">
         <f t="shared" si="8"/>
-        <v>0.69999999999999574</v>
-      </c>
-      <c r="AY27" s="1">
-        <f t="shared" si="9"/>
         <v>32.81</v>
       </c>
       <c r="BB27">
@@ -39910,7 +39096,7 @@
         <v>0.52</v>
       </c>
       <c r="BG27" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30.11</v>
       </c>
       <c r="BJ27">
@@ -39959,7 +39145,7 @@
         <v>30.323541666666699</v>
       </c>
       <c r="CA27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.7064583333333019</v>
       </c>
       <c r="CB27">
@@ -39984,7 +39170,7 @@
         <v>26.297601949440001</v>
       </c>
       <c r="CI27">
-        <f t="shared" si="4"/>
+        <f>ABS(CF27-CH27)</f>
         <v>0.17074652895999876</v>
       </c>
       <c r="CL27">
@@ -40054,7 +39240,7 @@
         <v>30.229695332692199</v>
       </c>
       <c r="DH27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.37810595228500077</v>
       </c>
       <c r="DK27">
@@ -40268,7 +39454,7 @@
         <v>3.2666853496377901</v>
       </c>
     </row>
-    <row r="28" spans="1:184">
+    <row r="28" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>11</v>
       </c>
@@ -40351,15 +39537,15 @@
         <v>17.399999999999999</v>
       </c>
       <c r="AD28">
+        <f t="shared" si="17"/>
+        <v>15.590000000000003</v>
+      </c>
+      <c r="AE28" s="2">
         <f t="shared" si="18"/>
-        <v>15.590000000000003</v>
-      </c>
-      <c r="AE28" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="AF28">
         <f t="shared" si="19"/>
-        <v>30.7</v>
-      </c>
-      <c r="AF28">
-        <f t="shared" si="20"/>
         <v>2.2900000000000027</v>
       </c>
       <c r="AG28" s="1">
@@ -40382,15 +39568,15 @@
         <v>11.72</v>
       </c>
       <c r="AO28" s="2">
+        <f t="shared" si="4"/>
+        <v>29.189999999999998</v>
+      </c>
+      <c r="AP28">
         <f t="shared" si="5"/>
-        <v>29.189999999999998</v>
-      </c>
-      <c r="AP28">
+        <v>1.3200000000000038</v>
+      </c>
+      <c r="AQ28" s="1">
         <f t="shared" si="6"/>
-        <v>1.3200000000000038</v>
-      </c>
-      <c r="AQ28" s="1">
-        <f t="shared" si="7"/>
         <v>29.85</v>
       </c>
       <c r="AT28">
@@ -40406,11 +39592,11 @@
         <v>31.54</v>
       </c>
       <c r="AX28">
+        <f t="shared" si="7"/>
+        <v>2.2700000000000031</v>
+      </c>
+      <c r="AY28" s="1">
         <f t="shared" si="8"/>
-        <v>2.2700000000000031</v>
-      </c>
-      <c r="AY28" s="1">
-        <f t="shared" si="9"/>
         <v>32.674999999999997</v>
       </c>
       <c r="BB28">
@@ -40429,7 +39615,7 @@
         <v>0.92000000000000204</v>
       </c>
       <c r="BG28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30.86</v>
       </c>
       <c r="BJ28">
@@ -40478,7 +39664,7 @@
         <v>31.313541666666701</v>
       </c>
       <c r="CA28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.8864583333333016</v>
       </c>
       <c r="CB28">
@@ -40503,7 +39689,7 @@
         <v>27.020604200291</v>
       </c>
       <c r="CI28">
-        <f t="shared" si="4"/>
+        <f>ABS(CF28-CH28)</f>
         <v>5.1388399823800057E-2</v>
       </c>
       <c r="CL28">
@@ -40573,7 +39759,7 @@
         <v>30.044045316340799</v>
       </c>
       <c r="DH28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.8064367040059324E-4</v>
       </c>
       <c r="DK28">
@@ -40787,7 +39973,7 @@
         <v>2.2981481811086901</v>
       </c>
     </row>
-    <row r="29" spans="1:184">
+    <row r="29" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>12</v>
       </c>
@@ -40859,15 +40045,15 @@
         <v>15.24</v>
       </c>
       <c r="AD29">
+        <f t="shared" si="17"/>
+        <v>14.770000000000001</v>
+      </c>
+      <c r="AE29" s="2">
         <f t="shared" si="18"/>
-        <v>14.770000000000001</v>
-      </c>
-      <c r="AE29" s="2">
+        <v>28.54</v>
+      </c>
+      <c r="AF29">
         <f t="shared" si="19"/>
-        <v>28.54</v>
-      </c>
-      <c r="AF29">
-        <f t="shared" si="20"/>
         <v>1.4700000000000024</v>
       </c>
       <c r="AG29" s="1">
@@ -40890,15 +40076,15 @@
         <v>9.33</v>
       </c>
       <c r="AO29" s="2">
+        <f t="shared" si="4"/>
+        <v>31.119999999999997</v>
+      </c>
+      <c r="AP29">
         <f t="shared" si="5"/>
-        <v>31.119999999999997</v>
-      </c>
-      <c r="AP29">
+        <v>1.0699999999999967</v>
+      </c>
+      <c r="AQ29" s="1">
         <f t="shared" si="6"/>
-        <v>1.0699999999999967</v>
-      </c>
-      <c r="AQ29" s="1">
-        <f t="shared" si="7"/>
         <v>30.585000000000001</v>
       </c>
       <c r="AT29">
@@ -40914,11 +40100,11 @@
         <v>34.26</v>
       </c>
       <c r="AX29">
+        <f t="shared" si="7"/>
+        <v>0.64000000000000057</v>
+      </c>
+      <c r="AY29" s="1">
         <f t="shared" si="8"/>
-        <v>0.64000000000000057</v>
-      </c>
-      <c r="AY29" s="1">
-        <f t="shared" si="9"/>
         <v>33.94</v>
       </c>
       <c r="BB29">
@@ -40937,7 +40123,7 @@
         <v>0.34999999999999798</v>
       </c>
       <c r="BG29" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>29.884999999999998</v>
       </c>
       <c r="BJ29" t="s">
@@ -40983,7 +40169,7 @@
         <v>31.633541666666702</v>
       </c>
       <c r="CA29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.2764583333332951</v>
       </c>
       <c r="CB29">
@@ -41008,7 +40194,7 @@
         <v>29.2137733359103</v>
       </c>
       <c r="CI29">
-        <f t="shared" si="4"/>
+        <f>ABS(CF29-CH29)</f>
         <v>8.8787175568199928E-2</v>
       </c>
       <c r="CL29">
@@ -41078,7 +40264,7 @@
         <v>33.440021652653698</v>
       </c>
       <c r="DH29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>6.1217832427047369E-3</v>
       </c>
       <c r="DK29">
@@ -41292,7 +40478,7 @@
         <v>2.0548579726231702</v>
       </c>
     </row>
-    <row r="30" spans="1:184">
+    <row r="30" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>13</v>
       </c>
@@ -41375,15 +40561,15 @@
         <v>19.46</v>
       </c>
       <c r="AD30">
+        <f t="shared" si="17"/>
+        <v>13.240000000000002</v>
+      </c>
+      <c r="AE30" s="2">
         <f t="shared" si="18"/>
-        <v>13.240000000000002</v>
-      </c>
-      <c r="AE30" s="2">
+        <v>32.760000000000005</v>
+      </c>
+      <c r="AF30">
         <f t="shared" si="19"/>
-        <v>32.760000000000005</v>
-      </c>
-      <c r="AF30">
-        <f t="shared" si="20"/>
         <v>6.0000000000002274E-2</v>
       </c>
       <c r="AG30" s="1">
@@ -41406,15 +40592,15 @@
         <v>11.74</v>
       </c>
       <c r="AO30" s="2">
+        <f t="shared" si="4"/>
+        <v>29.86</v>
+      </c>
+      <c r="AP30">
         <f t="shared" si="5"/>
-        <v>29.86</v>
-      </c>
-      <c r="AP30">
+        <v>1.3399999999999999</v>
+      </c>
+      <c r="AQ30" s="1">
         <f t="shared" si="6"/>
-        <v>1.3399999999999999</v>
-      </c>
-      <c r="AQ30" s="1">
-        <f t="shared" si="7"/>
         <v>30.53</v>
       </c>
       <c r="AT30">
@@ -41430,11 +40616,11 @@
         <v>32.049999999999997</v>
       </c>
       <c r="AX30">
+        <f t="shared" si="7"/>
+        <v>0.67999999999999972</v>
+      </c>
+      <c r="AY30" s="1">
         <f t="shared" si="8"/>
-        <v>0.67999999999999972</v>
-      </c>
-      <c r="AY30" s="1">
-        <f t="shared" si="9"/>
         <v>32.39</v>
       </c>
       <c r="BB30">
@@ -41453,7 +40639,7 @@
         <v>0.56000000000000205</v>
       </c>
       <c r="BG30" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>28.66</v>
       </c>
       <c r="BJ30" t="s">
@@ -41499,7 +40685,7 @@
         <v>31.7135416666667</v>
       </c>
       <c r="CA30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.97354166666670139</v>
       </c>
       <c r="CB30">
@@ -41524,7 +40710,7 @@
         <v>27.423062389238599</v>
       </c>
       <c r="CI30">
-        <f t="shared" si="4"/>
+        <f>ABS(CF30-CH30)</f>
         <v>0.10957175037919953</v>
       </c>
       <c r="CL30">
@@ -41594,7 +40780,7 @@
         <v>31.529422947657501</v>
       </c>
       <c r="DH30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>9.1370478765199437E-2</v>
       </c>
       <c r="DK30">
@@ -41808,7 +40994,7 @@
         <v>2.0913366592516902</v>
       </c>
     </row>
-    <row r="31" spans="1:184">
+    <row r="31" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
@@ -41891,15 +41077,15 @@
         <v>16.84</v>
       </c>
       <c r="AD31">
+        <f t="shared" si="17"/>
+        <v>16.2</v>
+      </c>
+      <c r="AE31" s="2">
         <f t="shared" si="18"/>
-        <v>16.2</v>
-      </c>
-      <c r="AE31" s="2">
+        <v>30.14</v>
+      </c>
+      <c r="AF31">
         <f t="shared" si="19"/>
-        <v>30.14</v>
-      </c>
-      <c r="AF31">
-        <f t="shared" si="20"/>
         <v>2.8999999999999986</v>
       </c>
       <c r="AG31" s="1">
@@ -41922,15 +41108,15 @@
         <v>12.1</v>
       </c>
       <c r="AO31" s="2">
+        <f t="shared" si="4"/>
+        <v>29.43</v>
+      </c>
+      <c r="AP31">
         <f t="shared" si="5"/>
-        <v>29.43</v>
-      </c>
-      <c r="AP31">
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="AQ31" s="1">
         <f t="shared" si="6"/>
-        <v>1.6999999999999993</v>
-      </c>
-      <c r="AQ31" s="1">
-        <f t="shared" si="7"/>
         <v>30.28</v>
       </c>
       <c r="AT31">
@@ -41946,11 +41132,11 @@
         <v>32.18</v>
       </c>
       <c r="AX31">
+        <f t="shared" si="7"/>
+        <v>0.21000000000000085</v>
+      </c>
+      <c r="AY31" s="1">
         <f t="shared" si="8"/>
-        <v>0.21000000000000085</v>
-      </c>
-      <c r="AY31" s="1">
-        <f t="shared" si="9"/>
         <v>32.284999999999997</v>
       </c>
       <c r="BB31">
@@ -41969,7 +41155,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="BG31" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>31.18</v>
       </c>
       <c r="BJ31">
@@ -42042,7 +41228,7 @@
         <v>30.7189802825181</v>
       </c>
       <c r="CI31">
-        <f t="shared" si="4"/>
+        <f>ABS(CF31-CH31)</f>
         <v>0.47723625380839962</v>
       </c>
       <c r="CL31">
@@ -42112,7 +41298,7 @@
         <v>34.8437232003619</v>
       </c>
       <c r="DH31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.13746413028049886</v>
       </c>
       <c r="DK31">
@@ -42326,7 +41512,7 @@
         <v>2.12695360768363</v>
       </c>
     </row>
-    <row r="32" spans="1:184">
+    <row r="32" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>15</v>
       </c>
@@ -42398,15 +41584,15 @@
         <v>17.46</v>
       </c>
       <c r="AD32">
+        <f t="shared" si="17"/>
+        <v>12.689999999999998</v>
+      </c>
+      <c r="AE32" s="2">
         <f t="shared" si="18"/>
-        <v>12.689999999999998</v>
-      </c>
-      <c r="AE32" s="2">
+        <v>30.76</v>
+      </c>
+      <c r="AF32">
         <f t="shared" si="19"/>
-        <v>30.76</v>
-      </c>
-      <c r="AF32">
-        <f t="shared" si="20"/>
         <v>0.61000000000000298</v>
       </c>
       <c r="AG32" s="1">
@@ -42429,15 +41615,15 @@
         <v>11.91</v>
       </c>
       <c r="AO32" s="2">
+        <f t="shared" si="4"/>
+        <v>29.39</v>
+      </c>
+      <c r="AP32">
         <f t="shared" si="5"/>
-        <v>29.39</v>
-      </c>
-      <c r="AP32">
+        <v>1.509999999999998</v>
+      </c>
+      <c r="AQ32" s="1">
         <f t="shared" si="6"/>
-        <v>1.509999999999998</v>
-      </c>
-      <c r="AQ32" s="1">
-        <f t="shared" si="7"/>
         <v>30.145</v>
       </c>
       <c r="AT32">
@@ -42453,11 +41639,11 @@
         <v>32.26</v>
       </c>
       <c r="AX32">
+        <f t="shared" si="7"/>
+        <v>1.1300000000000026</v>
+      </c>
+      <c r="AY32" s="1">
         <f t="shared" si="8"/>
-        <v>1.1300000000000026</v>
-      </c>
-      <c r="AY32" s="1">
-        <f t="shared" si="9"/>
         <v>32.825000000000003</v>
       </c>
       <c r="BB32">
@@ -42476,7 +41662,7 @@
         <v>0.69000000000000095</v>
       </c>
       <c r="BG32" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>29.274999999999999</v>
       </c>
       <c r="BJ32" t="s">
@@ -42522,7 +41708,7 @@
         <v>31.413541666666699</v>
       </c>
       <c r="CA32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.3535416666667004</v>
       </c>
       <c r="CB32">
@@ -42547,7 +41733,7 @@
         <v>34.085507208231299</v>
       </c>
       <c r="CI32">
-        <f t="shared" si="4"/>
+        <f>ABS(CF32-CH32)</f>
         <v>0.12388671851650201</v>
       </c>
       <c r="CL32">
@@ -42617,7 +41803,7 @@
         <v>36.471923728485997</v>
       </c>
       <c r="DH32" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="DK32">
@@ -42831,7 +42017,7 @@
         <v>2.43936251364789</v>
       </c>
     </row>
-    <row r="33" spans="1:184">
+    <row r="33" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>16</v>
       </c>
@@ -42903,15 +42089,15 @@
         <v>16.71</v>
       </c>
       <c r="AD33">
+        <f t="shared" si="17"/>
+        <v>16.490000000000002</v>
+      </c>
+      <c r="AE33" s="2">
         <f t="shared" si="18"/>
-        <v>16.490000000000002</v>
-      </c>
-      <c r="AE33" s="2">
+        <v>30.01</v>
+      </c>
+      <c r="AF33">
         <f t="shared" si="19"/>
-        <v>30.01</v>
-      </c>
-      <c r="AF33">
-        <f t="shared" si="20"/>
         <v>3.1900000000000013</v>
       </c>
       <c r="AG33" s="1">
@@ -42934,15 +42120,15 @@
         <v>11.28</v>
       </c>
       <c r="AO33" s="2">
+        <f t="shared" si="4"/>
+        <v>29.340000000000003</v>
+      </c>
+      <c r="AP33">
         <f t="shared" si="5"/>
-        <v>29.340000000000003</v>
-      </c>
-      <c r="AP33">
+        <v>0.87999999999999545</v>
+      </c>
+      <c r="AQ33" s="1">
         <f t="shared" si="6"/>
-        <v>0.87999999999999545</v>
-      </c>
-      <c r="AQ33" s="1">
-        <f t="shared" si="7"/>
         <v>29.78</v>
       </c>
       <c r="AT33">
@@ -42958,11 +42144,11 @@
         <v>31.93</v>
       </c>
       <c r="AX33">
+        <f t="shared" si="7"/>
+        <v>1.990000000000002</v>
+      </c>
+      <c r="AY33" s="1">
         <f t="shared" si="8"/>
-        <v>1.990000000000002</v>
-      </c>
-      <c r="AY33" s="1">
-        <f t="shared" si="9"/>
         <v>32.924999999999997</v>
       </c>
       <c r="BB33">
@@ -42981,7 +42167,7 @@
         <v>0.85999999999999899</v>
       </c>
       <c r="BG33" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30.13</v>
       </c>
       <c r="BJ33">
@@ -43030,7 +42216,7 @@
         <v>31.3035416666667</v>
       </c>
       <c r="CA33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.70354166666669826</v>
       </c>
       <c r="CB33">
@@ -43055,7 +42241,7 @@
         <v>27.771639115698399</v>
       </c>
       <c r="CI33">
-        <f t="shared" si="4"/>
+        <f>ABS(CF33-CH33)</f>
         <v>0.26390966776670055</v>
       </c>
       <c r="CL33">
@@ -43125,7 +42311,7 @@
         <v>31.752926040618501</v>
       </c>
       <c r="DH33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.35866857032140231</v>
       </c>
       <c r="DK33">
@@ -43339,7 +42525,7 @@
         <v>2.4349921558800398</v>
       </c>
     </row>
-    <row r="34" spans="1:184">
+    <row r="34" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>25</v>
       </c>
@@ -43398,11 +42584,11 @@
         <v>15.7</v>
       </c>
       <c r="T34" s="3">
-        <f t="shared" ref="T34:T49" si="21">R34+15</f>
+        <f t="shared" ref="T34:T49" si="20">R34+15</f>
         <v>31.33</v>
       </c>
       <c r="U34">
-        <f t="shared" ref="U34:U49" si="22">ABS(P34-T34)</f>
+        <f t="shared" ref="U34:U49" si="21">ABS(P34-T34)</f>
         <v>0.70000000000000284</v>
       </c>
       <c r="V34" s="4">
@@ -43438,15 +42624,15 @@
         <v>11.76</v>
       </c>
       <c r="AO34" s="2">
+        <f t="shared" si="4"/>
+        <v>29.130000000000003</v>
+      </c>
+      <c r="AP34">
         <f t="shared" si="5"/>
-        <v>29.130000000000003</v>
-      </c>
-      <c r="AP34">
+        <v>1.3599999999999959</v>
+      </c>
+      <c r="AQ34" s="1">
         <f t="shared" si="6"/>
-        <v>1.3599999999999959</v>
-      </c>
-      <c r="AQ34" s="1">
-        <f t="shared" si="7"/>
         <v>29.810000000000002</v>
       </c>
       <c r="AT34">
@@ -43462,11 +42648,11 @@
         <v>31.76</v>
       </c>
       <c r="AX34">
+        <f t="shared" si="7"/>
+        <v>2.379999999999999</v>
+      </c>
+      <c r="AY34" s="1">
         <f t="shared" si="8"/>
-        <v>2.379999999999999</v>
-      </c>
-      <c r="AY34" s="1">
-        <f t="shared" si="9"/>
         <v>32.950000000000003</v>
       </c>
       <c r="BB34">
@@ -43485,7 +42671,7 @@
         <v>2.12</v>
       </c>
       <c r="BG34" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>31.91</v>
       </c>
       <c r="BJ34">
@@ -43534,7 +42720,7 @@
         <v>30.4635416666667</v>
       </c>
       <c r="CA34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.8635416666666984</v>
       </c>
       <c r="CB34">
@@ -43559,7 +42745,7 @@
         <v>26.552657122418999</v>
       </c>
       <c r="CI34">
-        <f t="shared" si="4"/>
+        <f>ABS(CF34-CH34)</f>
         <v>0.11559983529409834</v>
       </c>
       <c r="CL34">
@@ -43629,7 +42815,7 @@
         <v>30.436183483506301</v>
       </c>
       <c r="DH34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.8069395743798964E-2</v>
       </c>
       <c r="DK34">
@@ -43843,7 +43029,7 @@
         <v>2.0452031876029402</v>
       </c>
     </row>
-    <row r="35" spans="1:184">
+    <row r="35" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>26</v>
       </c>
@@ -43902,11 +43088,11 @@
         <v>18.059999999999999</v>
       </c>
       <c r="T35" s="3">
+        <f t="shared" si="20"/>
+        <v>31.06</v>
+      </c>
+      <c r="U35">
         <f t="shared" si="21"/>
-        <v>31.06</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="22"/>
         <v>3.0599999999999987</v>
       </c>
       <c r="V35" s="4">
@@ -43930,7 +43116,7 @@
         <v>15.929999999999996</v>
       </c>
       <c r="AE35" s="2">
-        <f t="shared" ref="AE35:AE40" si="23">AC35+13.3</f>
+        <f t="shared" ref="AE35:AE40" si="22">AC35+13.3</f>
         <v>30.92</v>
       </c>
       <c r="AF35">
@@ -43957,15 +43143,15 @@
         <v>9.48</v>
       </c>
       <c r="AO35" s="2">
+        <f t="shared" si="4"/>
+        <v>30.22</v>
+      </c>
+      <c r="AP35">
         <f t="shared" si="5"/>
-        <v>30.22</v>
-      </c>
-      <c r="AP35">
+        <v>0.91999999999999815</v>
+      </c>
+      <c r="AQ35" s="1">
         <f t="shared" si="6"/>
-        <v>0.91999999999999815</v>
-      </c>
-      <c r="AQ35" s="1">
-        <f t="shared" si="7"/>
         <v>29.759999999999998</v>
       </c>
       <c r="AT35">
@@ -43981,11 +43167,11 @@
         <v>32.28</v>
       </c>
       <c r="AX35">
+        <f t="shared" si="7"/>
+        <v>2.1899999999999977</v>
+      </c>
+      <c r="AY35" s="1">
         <f t="shared" si="8"/>
-        <v>2.1899999999999977</v>
-      </c>
-      <c r="AY35" s="1">
-        <f t="shared" si="9"/>
         <v>33.375</v>
       </c>
       <c r="BB35">
@@ -44004,7 +43190,7 @@
         <v>1.29</v>
       </c>
       <c r="BG35" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>31.835000000000001</v>
       </c>
       <c r="BJ35">
@@ -44053,7 +43239,7 @@
         <v>31.013541666666701</v>
       </c>
       <c r="CA35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.90645833333330117</v>
       </c>
       <c r="CB35">
@@ -44078,7 +43264,7 @@
         <v>28.822804073840199</v>
       </c>
       <c r="CI35">
-        <f t="shared" si="4"/>
+        <f>ABS(CF35-CH35)</f>
         <v>0.24346343408920035</v>
       </c>
       <c r="CL35">
@@ -44148,7 +43334,7 @@
         <v>33.5656731221153</v>
       </c>
       <c r="DH35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.20982087090430213</v>
       </c>
       <c r="DK35">
@@ -44362,7 +43548,7 @@
         <v>2.0183277051653201</v>
       </c>
     </row>
-    <row r="36" spans="1:184">
+    <row r="36" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>27</v>
       </c>
@@ -44421,11 +43607,11 @@
         <v>16.63</v>
       </c>
       <c r="T36" s="3">
+        <f t="shared" si="20"/>
+        <v>31.11</v>
+      </c>
+      <c r="U36">
         <f t="shared" si="21"/>
-        <v>31.11</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="22"/>
         <v>1.6300000000000026</v>
       </c>
       <c r="V36" s="4">
@@ -44442,7 +43628,7 @@
         <v>18.309999999999999</v>
       </c>
       <c r="AE36" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>31.61</v>
       </c>
       <c r="AG36" s="1">
@@ -44465,15 +43651,15 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AO36" s="2">
+        <f t="shared" si="4"/>
+        <v>28.9</v>
+      </c>
+      <c r="AP36">
         <f t="shared" si="5"/>
-        <v>28.9</v>
-      </c>
-      <c r="AP36">
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="AQ36" s="1">
         <f t="shared" si="6"/>
-        <v>2.1999999999999993</v>
-      </c>
-      <c r="AQ36" s="1">
-        <f t="shared" si="7"/>
         <v>27.799999999999997</v>
       </c>
       <c r="AT36">
@@ -44489,11 +43675,11 @@
         <v>31.76</v>
       </c>
       <c r="AX36">
+        <f t="shared" si="7"/>
+        <v>1.1900000000000013</v>
+      </c>
+      <c r="AY36" s="1">
         <f t="shared" si="8"/>
-        <v>1.1900000000000013</v>
-      </c>
-      <c r="AY36" s="1">
-        <f t="shared" si="9"/>
         <v>32.355000000000004</v>
       </c>
       <c r="BB36">
@@ -44512,7 +43698,7 @@
         <v>2.08</v>
       </c>
       <c r="BG36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>29.54</v>
       </c>
       <c r="BJ36" t="s">
@@ -44558,7 +43744,7 @@
         <v>28.413541666666699</v>
       </c>
       <c r="CA36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.19645833333330032</v>
       </c>
       <c r="CB36">
@@ -44583,7 +43769,7 @@
         <v>29.181961955035199</v>
       </c>
       <c r="CI36">
-        <f t="shared" si="4"/>
+        <f>ABS(CF36-CH36)</f>
         <v>0.40966529431960197</v>
       </c>
       <c r="CL36">
@@ -44653,7 +43839,7 @@
         <v>33.546167946091799</v>
       </c>
       <c r="DH36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.1868267083434958</v>
       </c>
       <c r="DK36">
@@ -44867,7 +44053,7 @@
         <v>2.1366165931128598</v>
       </c>
     </row>
-    <row r="37" spans="1:184">
+    <row r="37" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>28</v>
       </c>
@@ -44926,11 +44112,11 @@
         <v>18.29</v>
       </c>
       <c r="T37" s="3">
+        <f t="shared" si="20"/>
+        <v>30.53</v>
+      </c>
+      <c r="U37">
         <f t="shared" si="21"/>
-        <v>30.53</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="22"/>
         <v>3.2899999999999991</v>
       </c>
       <c r="V37" s="4">
@@ -44954,7 +44140,7 @@
         <v>13.73</v>
       </c>
       <c r="AE37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>29.7</v>
       </c>
       <c r="AF37">
@@ -44981,15 +44167,15 @@
         <v>9.91</v>
       </c>
       <c r="AO37" s="2">
+        <f t="shared" si="4"/>
+        <v>31.270000000000003</v>
+      </c>
+      <c r="AP37">
         <f t="shared" si="5"/>
-        <v>31.270000000000003</v>
-      </c>
-      <c r="AP37">
+        <v>0.49000000000000199</v>
+      </c>
+      <c r="AQ37" s="1">
         <f t="shared" si="6"/>
-        <v>0.49000000000000199</v>
-      </c>
-      <c r="AQ37" s="1">
-        <f t="shared" si="7"/>
         <v>31.025000000000002</v>
       </c>
       <c r="AT37">
@@ -45005,11 +44191,11 @@
         <v>32.72</v>
       </c>
       <c r="AX37">
+        <f t="shared" si="7"/>
+        <v>0.64999999999999858</v>
+      </c>
+      <c r="AY37" s="1">
         <f t="shared" si="8"/>
-        <v>0.64999999999999858</v>
-      </c>
-      <c r="AY37" s="1">
-        <f t="shared" si="9"/>
         <v>33.045000000000002</v>
       </c>
       <c r="BB37">
@@ -45028,7 +44214,7 @@
         <v>2.6500000000000101</v>
       </c>
       <c r="BG37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>34.195</v>
       </c>
       <c r="BJ37">
@@ -45077,7 +44263,7 @@
         <v>31.653541666666701</v>
       </c>
       <c r="CA37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.6664583333332992</v>
       </c>
       <c r="CB37">
@@ -45102,7 +44288,7 @@
         <v>29.129826227519501</v>
       </c>
       <c r="CI37">
-        <f t="shared" si="4"/>
+        <f>ABS(CF37-CH37)</f>
         <v>8.8354026674696939E-2</v>
       </c>
       <c r="CL37">
@@ -45172,7 +44358,7 @@
         <v>33.486522216539598</v>
       </c>
       <c r="DH37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5.6069664837998801E-2</v>
       </c>
       <c r="DK37" t="s">
@@ -45386,7 +44572,7 @@
         <v>2.4273897158050302</v>
       </c>
     </row>
-    <row r="38" spans="1:184">
+    <row r="38" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>29</v>
       </c>
@@ -45445,11 +44631,11 @@
         <v>15.29</v>
       </c>
       <c r="T38" s="3">
+        <f t="shared" si="20"/>
+        <v>30.65</v>
+      </c>
+      <c r="U38">
         <f t="shared" si="21"/>
-        <v>30.65</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="22"/>
         <v>0.2900000000000027</v>
       </c>
       <c r="V38" s="4">
@@ -45473,7 +44659,7 @@
         <v>13.2</v>
       </c>
       <c r="AE38" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>31</v>
       </c>
       <c r="AF38">
@@ -45500,15 +44686,15 @@
         <v>8.31</v>
       </c>
       <c r="AO38" s="2">
+        <f t="shared" si="4"/>
+        <v>29.82</v>
+      </c>
+      <c r="AP38">
         <f t="shared" si="5"/>
-        <v>29.82</v>
-      </c>
-      <c r="AP38">
+        <v>2.09</v>
+      </c>
+      <c r="AQ38" s="1">
         <f t="shared" si="6"/>
-        <v>2.09</v>
-      </c>
-      <c r="AQ38" s="1">
-        <f t="shared" si="7"/>
         <v>28.774999999999999</v>
       </c>
       <c r="AT38">
@@ -45524,11 +44710,11 @@
         <v>30.47</v>
       </c>
       <c r="AX38">
+        <f t="shared" si="7"/>
+        <v>1.2900000000000027</v>
+      </c>
+      <c r="AY38" s="1">
         <f t="shared" si="8"/>
-        <v>1.2900000000000027</v>
-      </c>
-      <c r="AY38" s="1">
-        <f t="shared" si="9"/>
         <v>31.115000000000002</v>
       </c>
       <c r="BB38">
@@ -45547,7 +44733,7 @@
         <v>1.18</v>
       </c>
       <c r="BG38" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>31.99</v>
       </c>
       <c r="BJ38">
@@ -45596,7 +44782,7 @@
         <v>30.043541666666702</v>
       </c>
       <c r="CA38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.0635416666667012</v>
       </c>
       <c r="CB38">
@@ -45621,7 +44807,7 @@
         <v>26.676750270942399</v>
       </c>
       <c r="CI38">
-        <f t="shared" si="4"/>
+        <f>ABS(CF38-CH38)</f>
         <v>6.2650921177802132E-2</v>
       </c>
       <c r="CL38">
@@ -45691,7 +44877,7 @@
         <v>30.700026937014901</v>
       </c>
       <c r="DH38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.24646159940949985</v>
       </c>
       <c r="DK38">
@@ -45905,7 +45091,7 @@
         <v>2.39614184249817</v>
       </c>
     </row>
-    <row r="39" spans="1:184">
+    <row r="39" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>30</v>
       </c>
@@ -45964,11 +45150,11 @@
         <v>15.05</v>
       </c>
       <c r="T39" s="3">
+        <f t="shared" si="20"/>
+        <v>30.71</v>
+      </c>
+      <c r="U39">
         <f t="shared" si="21"/>
-        <v>30.71</v>
-      </c>
-      <c r="U39">
-        <f t="shared" si="22"/>
         <v>5.0000000000000711E-2</v>
       </c>
       <c r="V39" s="4">
@@ -45992,7 +45178,7 @@
         <v>11.079999999999998</v>
       </c>
       <c r="AE39" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>27.62</v>
       </c>
       <c r="AF39">
@@ -46019,15 +45205,15 @@
         <v>9.82</v>
       </c>
       <c r="AO39" s="2">
+        <f t="shared" si="4"/>
+        <v>29.36</v>
+      </c>
+      <c r="AP39">
         <f t="shared" si="5"/>
-        <v>29.36</v>
-      </c>
-      <c r="AP39">
+        <v>0.57999999999999829</v>
+      </c>
+      <c r="AQ39" s="1">
         <f t="shared" si="6"/>
-        <v>0.57999999999999829</v>
-      </c>
-      <c r="AQ39" s="1">
-        <f t="shared" si="7"/>
         <v>29.07</v>
       </c>
       <c r="AT39">
@@ -46043,11 +45229,11 @@
         <v>30.99</v>
       </c>
       <c r="AX39">
+        <f t="shared" si="7"/>
+        <v>3.0400000000000027</v>
+      </c>
+      <c r="AY39" s="1">
         <f t="shared" si="8"/>
-        <v>3.0400000000000027</v>
-      </c>
-      <c r="AY39" s="1">
-        <f t="shared" si="9"/>
         <v>32.51</v>
       </c>
       <c r="BB39">
@@ -46066,7 +45252,7 @@
         <v>1.86</v>
       </c>
       <c r="BG39" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30.57</v>
       </c>
       <c r="BJ39">
@@ -46115,7 +45301,7 @@
         <v>31.433541666666699</v>
       </c>
       <c r="CA39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.2335416666666994</v>
       </c>
       <c r="CB39">
@@ -46140,7 +45326,7 @@
         <v>26.517553932032602</v>
       </c>
       <c r="CI39">
-        <f t="shared" si="4"/>
+        <f>ABS(CF39-CH39)</f>
         <v>5.3304853255003337E-2</v>
       </c>
       <c r="CL39">
@@ -46210,7 +45396,7 @@
         <v>30.643316291953301</v>
       </c>
       <c r="DH39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5.454759381379759E-2</v>
       </c>
       <c r="DK39">
@@ -46424,7 +45610,7 @@
         <v>2.6101234065008398</v>
       </c>
     </row>
-    <row r="40" spans="1:184">
+    <row r="40" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>31</v>
       </c>
@@ -46483,11 +45669,11 @@
         <v>13.99</v>
       </c>
       <c r="T40" s="3">
+        <f t="shared" si="20"/>
+        <v>31.73</v>
+      </c>
+      <c r="U40">
         <f t="shared" si="21"/>
-        <v>31.73</v>
-      </c>
-      <c r="U40">
-        <f t="shared" si="22"/>
         <v>1.0100000000000016</v>
       </c>
       <c r="V40" s="4">
@@ -46511,7 +45697,7 @@
         <v>15.650000000000002</v>
       </c>
       <c r="AE40" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>30.04</v>
       </c>
       <c r="AF40">
@@ -46538,15 +45724,15 @@
         <v>8.89</v>
       </c>
       <c r="AO40" s="2">
+        <f t="shared" si="4"/>
+        <v>31.240000000000002</v>
+      </c>
+      <c r="AP40">
         <f t="shared" si="5"/>
-        <v>31.240000000000002</v>
-      </c>
-      <c r="AP40">
+        <v>1.5100000000000016</v>
+      </c>
+      <c r="AQ40" s="1">
         <f t="shared" si="6"/>
-        <v>1.5100000000000016</v>
-      </c>
-      <c r="AQ40" s="1">
-        <f t="shared" si="7"/>
         <v>30.484999999999999</v>
       </c>
       <c r="AT40" t="s">
@@ -46559,7 +45745,7 @@
         <v>32.159999999999997</v>
       </c>
       <c r="AY40" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>32.159999999999997</v>
       </c>
       <c r="BB40">
@@ -46578,7 +45764,7 @@
         <v>1.31</v>
       </c>
       <c r="BG40" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30.085000000000001</v>
       </c>
       <c r="BJ40">
@@ -46627,7 +45813,7 @@
         <v>31.063541666666701</v>
       </c>
       <c r="CA40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.96354166666669983</v>
       </c>
       <c r="CB40">
@@ -46652,7 +45838,7 @@
         <v>27.0275393645951</v>
       </c>
       <c r="CI40">
-        <f t="shared" si="4"/>
+        <f>ABS(CF40-CH40)</f>
         <v>0.22273863788710102</v>
       </c>
       <c r="CL40">
@@ -46722,7 +45908,7 @@
         <v>30.8249461565138</v>
       </c>
       <c r="DH40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.29605153156310138</v>
       </c>
       <c r="DK40" t="s">
@@ -46936,7 +46122,7 @@
         <v>2.2434430955051199</v>
       </c>
     </row>
-    <row r="41" spans="1:184">
+    <row r="41" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>32</v>
       </c>
@@ -46995,11 +46181,11 @@
         <v>16.16</v>
       </c>
       <c r="T41" s="3">
+        <f t="shared" si="20"/>
+        <v>31.67</v>
+      </c>
+      <c r="U41">
         <f t="shared" si="21"/>
-        <v>31.67</v>
-      </c>
-      <c r="U41">
-        <f t="shared" si="22"/>
         <v>1.1599999999999966</v>
       </c>
       <c r="V41" s="4">
@@ -47032,15 +46218,15 @@
         <v>10.45</v>
       </c>
       <c r="AO41" s="2">
+        <f t="shared" si="4"/>
+        <v>30.560000000000002</v>
+      </c>
+      <c r="AP41">
         <f t="shared" si="5"/>
-        <v>30.560000000000002</v>
-      </c>
-      <c r="AP41">
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="AQ41" s="1">
         <f t="shared" si="6"/>
-        <v>4.9999999999997158E-2</v>
-      </c>
-      <c r="AQ41" s="1">
-        <f t="shared" si="7"/>
         <v>30.585000000000001</v>
       </c>
       <c r="AT41">
@@ -47056,11 +46242,11 @@
         <v>33.700000000000003</v>
       </c>
       <c r="AX41">
+        <f t="shared" si="7"/>
+        <v>2.019999999999996</v>
+      </c>
+      <c r="AY41" s="1">
         <f t="shared" si="8"/>
-        <v>2.019999999999996</v>
-      </c>
-      <c r="AY41" s="1">
-        <f t="shared" si="9"/>
         <v>34.71</v>
       </c>
       <c r="BB41">
@@ -47079,7 +46265,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="BG41" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>31.909999999999997</v>
       </c>
       <c r="BJ41">
@@ -47128,7 +46314,7 @@
         <v>32.793541666666698</v>
       </c>
       <c r="CA41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.45645833333330188</v>
       </c>
       <c r="CB41">
@@ -47153,7 +46339,7 @@
         <v>28.190078633631298</v>
       </c>
       <c r="CI41">
-        <f t="shared" si="4"/>
+        <f>ABS(CF41-CH41)</f>
         <v>0.13908695264049697</v>
       </c>
       <c r="CL41">
@@ -47223,7 +46409,7 @@
         <v>32.932000075985997</v>
       </c>
       <c r="DH41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.0070284876941855E-3</v>
       </c>
       <c r="DK41">
@@ -47437,7 +46623,7 @@
         <v>2.0857626670385199</v>
       </c>
     </row>
-    <row r="42" spans="1:184">
+    <row r="42" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -47496,11 +46682,11 @@
         <v>16.95</v>
       </c>
       <c r="T42" s="3">
+        <f t="shared" si="20"/>
+        <v>30.79</v>
+      </c>
+      <c r="U42">
         <f t="shared" si="21"/>
-        <v>30.79</v>
-      </c>
-      <c r="U42">
-        <f t="shared" si="22"/>
         <v>1.9500000000000028</v>
       </c>
       <c r="V42" s="4">
@@ -47551,15 +46737,15 @@
         <v>10.119999999999999</v>
       </c>
       <c r="AO42" s="2">
+        <f t="shared" si="4"/>
+        <v>29.75</v>
+      </c>
+      <c r="AP42">
         <f t="shared" si="5"/>
-        <v>29.75</v>
-      </c>
-      <c r="AP42">
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="AQ42" s="1">
         <f t="shared" si="6"/>
-        <v>0.28000000000000114</v>
-      </c>
-      <c r="AQ42" s="1">
-        <f t="shared" si="7"/>
         <v>29.61</v>
       </c>
       <c r="AT42">
@@ -47575,11 +46761,11 @@
         <v>34.159999999999997</v>
       </c>
       <c r="AX42">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="AY42" s="1">
         <f t="shared" si="8"/>
-        <v>1.5</v>
-      </c>
-      <c r="AY42" s="1">
-        <f t="shared" si="9"/>
         <v>33.409999999999997</v>
       </c>
       <c r="BB42">
@@ -47598,7 +46784,7 @@
         <v>0.110000000000003</v>
       </c>
       <c r="BG42" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>29.045000000000002</v>
       </c>
       <c r="BJ42">
@@ -47644,7 +46830,7 @@
         <v>30.833541666666701</v>
       </c>
       <c r="CA42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.18354166666670224</v>
       </c>
       <c r="CB42">
@@ -47669,7 +46855,7 @@
         <v>29.095279968529201</v>
       </c>
       <c r="CI42" t="e">
-        <f t="shared" si="4"/>
+        <f>ABS(CF42-CH42)</f>
         <v>#VALUE!</v>
       </c>
       <c r="CL42">
@@ -47739,7 +46925,7 @@
         <v>36.595448340791997</v>
       </c>
       <c r="DH42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.6705824699939953</v>
       </c>
       <c r="DK42">
@@ -47953,7 +47139,7 @@
         <v>2.0801574312031099</v>
       </c>
     </row>
-    <row r="43" spans="1:184">
+    <row r="43" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -48012,11 +47198,11 @@
         <v>19.71</v>
       </c>
       <c r="T43" s="3">
+        <f t="shared" si="20"/>
+        <v>30.45</v>
+      </c>
+      <c r="U43">
         <f t="shared" si="21"/>
-        <v>30.45</v>
-      </c>
-      <c r="U43">
-        <f t="shared" si="22"/>
         <v>4.7099999999999973</v>
       </c>
       <c r="V43" s="4">
@@ -48067,15 +47253,15 @@
         <v>10.210000000000001</v>
       </c>
       <c r="AO43" s="2">
+        <f t="shared" si="4"/>
+        <v>29.6</v>
+      </c>
+      <c r="AP43">
         <f t="shared" si="5"/>
-        <v>29.6</v>
-      </c>
-      <c r="AP43">
+        <v>0.19000000000000128</v>
+      </c>
+      <c r="AQ43" s="1">
         <f t="shared" si="6"/>
-        <v>0.19000000000000128</v>
-      </c>
-      <c r="AQ43" s="1">
-        <f t="shared" si="7"/>
         <v>29.505000000000003</v>
       </c>
       <c r="AT43">
@@ -48091,11 +47277,11 @@
         <v>33.24</v>
       </c>
       <c r="AX43">
+        <f t="shared" si="7"/>
+        <v>2.1900000000000013</v>
+      </c>
+      <c r="AY43" s="1">
         <f t="shared" si="8"/>
-        <v>2.1900000000000013</v>
-      </c>
-      <c r="AY43" s="1">
-        <f t="shared" si="9"/>
         <v>32.145000000000003</v>
       </c>
       <c r="BB43">
@@ -48114,7 +47300,7 @@
         <v>1.84</v>
       </c>
       <c r="BG43" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>29.009999999999998</v>
       </c>
       <c r="BJ43">
@@ -48163,7 +47349,7 @@
         <v>30.263541666666701</v>
       </c>
       <c r="CA43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.116458333333302</v>
       </c>
       <c r="CB43">
@@ -48188,7 +47374,7 @@
         <v>27.406993013260699</v>
       </c>
       <c r="CI43">
-        <f t="shared" si="4"/>
+        <f>ABS(CF43-CH43)</f>
         <v>0.25468905497920247</v>
       </c>
       <c r="CL43">
@@ -48258,7 +47444,7 @@
         <v>32.500795493682098</v>
       </c>
       <c r="DH43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.72678958277349892</v>
       </c>
       <c r="DK43">
@@ -48472,7 +47658,7 @@
         <v>1.7918809896219301</v>
       </c>
     </row>
-    <row r="44" spans="1:184">
+    <row r="44" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -48531,11 +47717,11 @@
         <v>15.04</v>
       </c>
       <c r="T44" s="3">
+        <f t="shared" si="20"/>
+        <v>31.56</v>
+      </c>
+      <c r="U44">
         <f t="shared" si="21"/>
-        <v>31.56</v>
-      </c>
-      <c r="U44">
-        <f t="shared" si="22"/>
         <v>4.00000000000027E-2</v>
       </c>
       <c r="V44" s="4">
@@ -48568,15 +47754,15 @@
         <v>12.71</v>
       </c>
       <c r="AO44" s="2">
+        <f t="shared" si="4"/>
+        <v>29.33</v>
+      </c>
+      <c r="AP44">
         <f t="shared" si="5"/>
-        <v>29.33</v>
-      </c>
-      <c r="AP44">
+        <v>2.3100000000000023</v>
+      </c>
+      <c r="AQ44" s="1">
         <f t="shared" si="6"/>
-        <v>2.3100000000000023</v>
-      </c>
-      <c r="AQ44" s="1">
-        <f t="shared" si="7"/>
         <v>30.484999999999999</v>
       </c>
       <c r="AT44" t="s">
@@ -48589,7 +47775,7 @@
         <v>33.31</v>
       </c>
       <c r="AY44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>33.31</v>
       </c>
       <c r="BB44">
@@ -48608,7 +47794,7 @@
         <v>1.39</v>
       </c>
       <c r="BG44" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>31.314999999999998</v>
       </c>
       <c r="BJ44">
@@ -48657,7 +47843,7 @@
         <v>31.903541666666701</v>
       </c>
       <c r="CA44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.93354166666670224</v>
       </c>
       <c r="CB44">
@@ -48682,7 +47868,7 @@
         <v>26.556847138384001</v>
       </c>
       <c r="CI44">
-        <f t="shared" si="4"/>
+        <f>ABS(CF44-CH44)</f>
         <v>0.25626507593879921</v>
       </c>
       <c r="CL44">
@@ -48752,7 +47938,7 @@
         <v>31.176454518501998</v>
       </c>
       <c r="DH44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.2366620290043997</v>
       </c>
       <c r="DK44">
@@ -48966,7 +48152,7 @@
         <v>2.24397341779882</v>
       </c>
     </row>
-    <row r="45" spans="1:184">
+    <row r="45" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -49025,11 +48211,11 @@
         <v>15.78</v>
       </c>
       <c r="T45" s="3">
+        <f t="shared" si="20"/>
+        <v>32.06</v>
+      </c>
+      <c r="U45">
         <f t="shared" si="21"/>
-        <v>32.06</v>
-      </c>
-      <c r="U45">
-        <f t="shared" si="22"/>
         <v>0.78000000000000114</v>
       </c>
       <c r="V45" s="4">
@@ -49080,15 +48266,15 @@
         <v>12.56</v>
       </c>
       <c r="AO45" s="2">
+        <f t="shared" si="4"/>
+        <v>29.65</v>
+      </c>
+      <c r="AP45">
         <f t="shared" si="5"/>
-        <v>29.65</v>
-      </c>
-      <c r="AP45">
+        <v>2.16</v>
+      </c>
+      <c r="AQ45" s="1">
         <f t="shared" si="6"/>
-        <v>2.16</v>
-      </c>
-      <c r="AQ45" s="1">
-        <f t="shared" si="7"/>
         <v>30.729999999999997</v>
       </c>
       <c r="AT45">
@@ -49104,11 +48290,11 @@
         <v>32.93</v>
       </c>
       <c r="AX45">
+        <f t="shared" si="7"/>
+        <v>0.78999999999999915</v>
+      </c>
+      <c r="AY45" s="1">
         <f t="shared" si="8"/>
-        <v>0.78999999999999915</v>
-      </c>
-      <c r="AY45" s="1">
-        <f t="shared" si="9"/>
         <v>32.534999999999997</v>
       </c>
       <c r="BB45">
@@ -49127,7 +48313,7 @@
         <v>0.73</v>
       </c>
       <c r="BG45" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>31.045000000000002</v>
       </c>
       <c r="BJ45">
@@ -49176,7 +48362,7 @@
         <v>32.173541666666701</v>
       </c>
       <c r="CA45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.6535416666667011</v>
       </c>
       <c r="CB45">
@@ -49201,7 +48387,7 @@
         <v>28.127021365057601</v>
       </c>
       <c r="CI45">
-        <f t="shared" si="4"/>
+        <f>ABS(CF45-CH45)</f>
         <v>1.0215182625398E-2</v>
       </c>
       <c r="CL45">
@@ -49271,7 +48457,7 @@
         <v>32.416273675247702</v>
       </c>
       <c r="DH45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.22355625918120126</v>
       </c>
       <c r="DK45">
@@ -49485,7 +48671,7 @@
         <v>1.97279258059183</v>
       </c>
     </row>
-    <row r="46" spans="1:184">
+    <row r="46" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -49544,11 +48730,11 @@
         <v>14.74</v>
       </c>
       <c r="T46" s="3">
+        <f t="shared" si="20"/>
+        <v>31.61</v>
+      </c>
+      <c r="U46">
         <f t="shared" si="21"/>
-        <v>31.61</v>
-      </c>
-      <c r="U46">
-        <f t="shared" si="22"/>
         <v>0.25999999999999801</v>
       </c>
       <c r="V46" s="4">
@@ -49599,15 +48785,15 @@
         <v>13.28</v>
       </c>
       <c r="AO46" s="2">
+        <f t="shared" si="4"/>
+        <v>29.910000000000004</v>
+      </c>
+      <c r="AP46">
         <f t="shared" si="5"/>
-        <v>29.910000000000004</v>
-      </c>
-      <c r="AP46">
+        <v>2.8799999999999955</v>
+      </c>
+      <c r="AQ46" s="1">
         <f t="shared" si="6"/>
-        <v>2.8799999999999955</v>
-      </c>
-      <c r="AQ46" s="1">
-        <f t="shared" si="7"/>
         <v>31.35</v>
       </c>
       <c r="AT46" t="s">
@@ -49620,7 +48806,7 @@
         <v>35.18</v>
       </c>
       <c r="AY46" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>35.18</v>
       </c>
       <c r="BB46">
@@ -49639,7 +48825,7 @@
         <v>1.32</v>
       </c>
       <c r="BG46" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>33.28</v>
       </c>
       <c r="BJ46">
@@ -49688,7 +48874,7 @@
         <v>32.413541666666703</v>
       </c>
       <c r="CA46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.6458333333298185E-2</v>
       </c>
       <c r="CB46">
@@ -49713,7 +48899,7 @@
         <v>27.1436486298457</v>
       </c>
       <c r="CI46">
-        <f t="shared" si="4"/>
+        <f>ABS(CF46-CH46)</f>
         <v>0.20391167598799953</v>
       </c>
       <c r="CL46">
@@ -49783,7 +48969,7 @@
         <v>31.031395779896201</v>
       </c>
       <c r="DH46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>6.6837235272998896E-2</v>
       </c>
       <c r="DK46">
@@ -49997,7 +49183,7 @@
         <v>3.4221193441425402</v>
       </c>
     </row>
-    <row r="47" spans="1:184">
+    <row r="47" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -50056,11 +49242,11 @@
         <v>16.149999999999999</v>
       </c>
       <c r="T47" s="3">
+        <f t="shared" si="20"/>
+        <v>30.93</v>
+      </c>
+      <c r="U47">
         <f t="shared" si="21"/>
-        <v>30.93</v>
-      </c>
-      <c r="U47">
-        <f t="shared" si="22"/>
         <v>1.1499999999999986</v>
       </c>
       <c r="V47" s="4">
@@ -50111,15 +49297,15 @@
         <v>10.19</v>
       </c>
       <c r="AO47" s="2">
+        <f t="shared" si="4"/>
+        <v>30.740000000000002</v>
+      </c>
+      <c r="AP47">
         <f t="shared" si="5"/>
-        <v>30.740000000000002</v>
-      </c>
-      <c r="AP47">
+        <v>0.21000000000000085</v>
+      </c>
+      <c r="AQ47" s="1">
         <f t="shared" si="6"/>
-        <v>0.21000000000000085</v>
-      </c>
-      <c r="AQ47" s="1">
-        <f t="shared" si="7"/>
         <v>30.635000000000002</v>
       </c>
       <c r="AT47">
@@ -50135,11 +49321,11 @@
         <v>33.42</v>
       </c>
       <c r="AX47">
+        <f t="shared" si="7"/>
+        <v>0.45000000000000284</v>
+      </c>
+      <c r="AY47" s="1">
         <f t="shared" si="8"/>
-        <v>0.45000000000000284</v>
-      </c>
-      <c r="AY47" s="1">
-        <f t="shared" si="9"/>
         <v>33.195</v>
       </c>
       <c r="BB47">
@@ -50158,7 +49344,7 @@
         <v>0.93999999999999795</v>
       </c>
       <c r="BG47" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>31.86</v>
       </c>
       <c r="BJ47">
@@ -50207,7 +49393,7 @@
         <v>31.413541666666699</v>
       </c>
       <c r="CA47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.1864583333333023</v>
       </c>
       <c r="CB47">
@@ -50232,7 +49418,7 @@
         <v>28.589171567189599</v>
       </c>
       <c r="CI47">
-        <f t="shared" si="4"/>
+        <f>ABS(CF47-CH47)</f>
         <v>4.7292163449981217E-3</v>
       </c>
       <c r="CL47">
@@ -50302,7 +49488,7 @@
         <v>33.424677808130298</v>
       </c>
       <c r="DH47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.60069518599370042</v>
       </c>
       <c r="DK47">
@@ -50516,7 +49702,7 @@
         <v>2.31754554198795</v>
       </c>
     </row>
-    <row r="48" spans="1:184">
+    <row r="48" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -50575,11 +49761,11 @@
         <v>14.25</v>
       </c>
       <c r="T48" s="3">
+        <f t="shared" si="20"/>
+        <v>32.32</v>
+      </c>
+      <c r="U48">
         <f t="shared" si="21"/>
-        <v>32.32</v>
-      </c>
-      <c r="U48">
-        <f t="shared" si="22"/>
         <v>0.75</v>
       </c>
       <c r="V48" s="4">
@@ -50630,15 +49816,15 @@
         <v>11.62</v>
       </c>
       <c r="AO48" s="2">
+        <f t="shared" si="4"/>
+        <v>29.310000000000002</v>
+      </c>
+      <c r="AP48">
         <f t="shared" si="5"/>
-        <v>29.310000000000002</v>
-      </c>
-      <c r="AP48">
+        <v>1.2199999999999989</v>
+      </c>
+      <c r="AQ48" s="1">
         <f t="shared" si="6"/>
-        <v>1.2199999999999989</v>
-      </c>
-      <c r="AQ48" s="1">
-        <f t="shared" si="7"/>
         <v>29.92</v>
       </c>
       <c r="AT48" t="s">
@@ -50651,7 +49837,7 @@
         <v>32.32</v>
       </c>
       <c r="AY48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>32.32</v>
       </c>
       <c r="BB48">
@@ -50670,7 +49856,7 @@
         <v>2.52</v>
       </c>
       <c r="BG48" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30.65</v>
       </c>
       <c r="BJ48">
@@ -50719,7 +49905,7 @@
         <v>31.403541666666701</v>
       </c>
       <c r="CA48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.66354166666670267</v>
       </c>
       <c r="CB48">
@@ -50744,7 +49930,7 @@
         <v>31.308808972651502</v>
       </c>
       <c r="CI48">
-        <f t="shared" si="4"/>
+        <f>ABS(CF48-CH48)</f>
         <v>0.56288063716599979</v>
       </c>
       <c r="CL48">
@@ -50814,7 +50000,7 @@
         <v>35.609306575728901</v>
       </c>
       <c r="DH48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.42315112082759754</v>
       </c>
       <c r="DK48">
@@ -51028,7 +50214,7 @@
         <v>2.2850043704383101</v>
       </c>
     </row>
-    <row r="49" spans="1:184">
+    <row r="49" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -51087,11 +50273,11 @@
         <v>16.510000000000002</v>
       </c>
       <c r="T49" s="3">
+        <f t="shared" si="20"/>
+        <v>33.71</v>
+      </c>
+      <c r="U49">
         <f t="shared" si="21"/>
-        <v>33.71</v>
-      </c>
-      <c r="U49">
-        <f t="shared" si="22"/>
         <v>1.509999999999998</v>
       </c>
       <c r="V49" s="4">
@@ -51142,15 +50328,15 @@
         <v>9.8699999999999992</v>
       </c>
       <c r="AO49" s="2">
+        <f t="shared" si="4"/>
+        <v>31.479999999999997</v>
+      </c>
+      <c r="AP49">
         <f t="shared" si="5"/>
-        <v>31.479999999999997</v>
-      </c>
-      <c r="AP49">
+        <v>0.52999999999999758</v>
+      </c>
+      <c r="AQ49" s="1">
         <f t="shared" si="6"/>
-        <v>0.52999999999999758</v>
-      </c>
-      <c r="AQ49" s="1">
-        <f t="shared" si="7"/>
         <v>31.214999999999996</v>
       </c>
       <c r="AT49">
@@ -51166,11 +50352,11 @@
         <v>33.340000000000003</v>
       </c>
       <c r="AX49">
+        <f t="shared" si="7"/>
+        <v>2.0900000000000034</v>
+      </c>
+      <c r="AY49" s="1">
         <f t="shared" si="8"/>
-        <v>2.0900000000000034</v>
-      </c>
-      <c r="AY49" s="1">
-        <f t="shared" si="9"/>
         <v>32.295000000000002</v>
       </c>
       <c r="BB49">
@@ -51189,7 +50375,7 @@
         <v>2.63</v>
       </c>
       <c r="BG49" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>31.085000000000001</v>
       </c>
       <c r="BJ49">
@@ -51238,7 +50424,7 @@
         <v>32.263541666666697</v>
       </c>
       <c r="CA49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.0264583333333022</v>
       </c>
       <c r="CB49">
@@ -51263,7 +50449,7 @@
         <v>29.825330710196301</v>
       </c>
       <c r="CI49">
-        <f t="shared" si="4"/>
+        <f>ABS(CF49-CH49)</f>
         <v>0.33397842802460076</v>
       </c>
       <c r="CL49">
@@ -51333,7 +50519,7 @@
         <v>33.521779122397398</v>
       </c>
       <c r="DH49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.22550934385780153</v>
       </c>
       <c r="DK49">
@@ -51547,7 +50733,7 @@
         <v>1.9838565845443401</v>
       </c>
     </row>
-    <row r="50" spans="1:184">
+    <row r="50" spans="1:184" x14ac:dyDescent="0.25">
       <c r="S50">
         <f>AVERAGE(S2:S49)</f>
         <v>14.969583333333331</v>
@@ -51697,715 +50883,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="11"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>28.76</v>
-      </c>
-      <c r="B2">
-        <v>27.883541666666702</v>
-      </c>
-      <c r="C2">
-        <v>26.8945589268167</v>
-      </c>
-      <c r="D2">
-        <v>27.600510736098901</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>28.42</v>
-      </c>
-      <c r="B3">
-        <v>28.383541666666702</v>
-      </c>
-      <c r="C3">
-        <v>28.220905445048501</v>
-      </c>
-      <c r="D3">
-        <v>28.004720287879699</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>29.4</v>
-      </c>
-      <c r="B4">
-        <v>29.5535416666667</v>
-      </c>
-      <c r="C4">
-        <v>27.177808758888499</v>
-      </c>
-      <c r="D4">
-        <v>27.219714404761401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>29.27</v>
-      </c>
-      <c r="B5">
-        <v>29.4435416666667</v>
-      </c>
-      <c r="C5">
-        <v>29.6156952958187</v>
-      </c>
-      <c r="D5">
-        <v>29.827643099711899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>27.57</v>
-      </c>
-      <c r="B6">
-        <v>27.503541666666699</v>
-      </c>
-      <c r="C6">
-        <v>29.174907416314301</v>
-      </c>
-      <c r="D6">
-        <v>29.259102464330901</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>33.93</v>
-      </c>
-      <c r="B7">
-        <v>33.203541666666702</v>
-      </c>
-      <c r="C7">
-        <v>29.5768209004802</v>
-      </c>
-      <c r="D7">
-        <v>29.9845511490268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>27.39</v>
-      </c>
-      <c r="B8">
-        <v>27.903541666666701</v>
-      </c>
-      <c r="C8">
-        <v>27.2254881665399</v>
-      </c>
-      <c r="D8">
-        <v>27.8246656955586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>27.09</v>
-      </c>
-      <c r="B9">
-        <v>28.593541666666699</v>
-      </c>
-      <c r="C9">
-        <v>26.7701832318082</v>
-      </c>
-      <c r="D9">
-        <v>25.161923699802902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>28.88</v>
-      </c>
-      <c r="B10">
-        <v>30.1435416666667</v>
-      </c>
-      <c r="C10">
-        <v>26.8633034243956</v>
-      </c>
-      <c r="D10">
-        <v>26.9191216379648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>28.7</v>
-      </c>
-      <c r="B11">
-        <v>28.273541666666699</v>
-      </c>
-      <c r="C11">
-        <v>28.519489904843599</v>
-      </c>
-      <c r="D11">
-        <v>28.663717493034301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>28.39</v>
-      </c>
-      <c r="B12">
-        <v>29.833541666666701</v>
-      </c>
-      <c r="C12">
-        <v>29.570759117374799</v>
-      </c>
-      <c r="D12">
-        <v>29.631032906961199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>27.47</v>
-      </c>
-      <c r="B13">
-        <v>28.723541666666701</v>
-      </c>
-      <c r="C13">
-        <v>28.738886824058099</v>
-      </c>
-      <c r="D13">
-        <v>28.576472486504102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>29.01</v>
-      </c>
-      <c r="B14">
-        <v>29.5535416666667</v>
-      </c>
-      <c r="C14">
-        <v>28.130342930587702</v>
-      </c>
-      <c r="D14">
-        <v>28.312243323254201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>28.57</v>
-      </c>
-      <c r="B15">
-        <v>30.263541666666701</v>
-      </c>
-      <c r="C15">
-        <v>27.365247683284199</v>
-      </c>
-      <c r="D15">
-        <v>27.608146629774001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>27.25</v>
-      </c>
-      <c r="B16">
-        <v>28.843541666666699</v>
-      </c>
-      <c r="C16">
-        <v>26.900430755089602</v>
-      </c>
-      <c r="D16">
-        <v>27.067301885703401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>29.2</v>
-      </c>
-      <c r="B17">
-        <v>30.3735416666667</v>
-      </c>
-      <c r="C17">
-        <v>29.181055705797199</v>
-      </c>
-      <c r="D17">
-        <v>29.433177193542601</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>28.57</v>
-      </c>
-      <c r="B18">
-        <v>28.8035416666667</v>
-      </c>
-      <c r="C18">
-        <v>27.0005584094746</v>
-      </c>
-      <c r="D18">
-        <v>26.667588050770199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>27.55</v>
-      </c>
-      <c r="B19">
-        <v>29.363541666666698</v>
-      </c>
-      <c r="C19">
-        <v>30.3688593474409</v>
-      </c>
-      <c r="D19">
-        <v>30.539894533078801</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>27.54</v>
-      </c>
-      <c r="B20">
-        <v>29.503541666666699</v>
-      </c>
-      <c r="C20">
-        <v>28.5187671445556</v>
-      </c>
-      <c r="D20">
-        <v>28.813311519701902</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>29.31</v>
-      </c>
-      <c r="B21">
-        <v>30.6935416666667</v>
-      </c>
-      <c r="C21">
-        <v>26.194235817808899</v>
-      </c>
-      <c r="D21">
-        <v>25.888334906808399</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>29.07</v>
-      </c>
-      <c r="B22">
-        <v>29.8735416666667</v>
-      </c>
-      <c r="C22">
-        <v>27.410525386795701</v>
-      </c>
-      <c r="D22">
-        <v>27.389138207084802</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>28.89</v>
-      </c>
-      <c r="B23">
-        <v>30.3035416666667</v>
-      </c>
-      <c r="C23">
-        <v>29.400742326529599</v>
-      </c>
-      <c r="D23">
-        <v>29.1173548169652</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>29.48</v>
-      </c>
-      <c r="B24">
-        <v>30.433541666666699</v>
-      </c>
-      <c r="C24">
-        <v>29.780218905607999</v>
-      </c>
-      <c r="D24">
-        <v>29.901002342136799</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>28.85</v>
-      </c>
-      <c r="B25">
-        <v>30.913541666666699</v>
-      </c>
-      <c r="C25">
-        <v>29.415829702565699</v>
-      </c>
-      <c r="D25">
-        <v>29.642939040483601</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>32.159999999999997</v>
-      </c>
-      <c r="B26">
-        <v>30.933541666666699</v>
-      </c>
-      <c r="C26">
-        <v>27.197574943707899</v>
-      </c>
-      <c r="D26">
-        <v>27.105082733555999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>32.03</v>
-      </c>
-      <c r="B27">
-        <v>30.323541666666699</v>
-      </c>
-      <c r="C27">
-        <v>26.468348478399999</v>
-      </c>
-      <c r="D27">
-        <v>26.297601949440001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="B28">
-        <v>31.313541666666701</v>
-      </c>
-      <c r="C28">
-        <v>26.9692158004672</v>
-      </c>
-      <c r="D28">
-        <v>27.020604200291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>32.909999999999997</v>
-      </c>
-      <c r="B29">
-        <v>31.633541666666702</v>
-      </c>
-      <c r="C29">
-        <v>29.1249861603421</v>
-      </c>
-      <c r="D29">
-        <v>29.2137733359103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>30.74</v>
-      </c>
-      <c r="B30">
-        <v>31.7135416666667</v>
-      </c>
-      <c r="C30">
-        <v>27.313490638859399</v>
-      </c>
-      <c r="D30">
-        <v>27.423062389238599</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>31.25</v>
-      </c>
-      <c r="B31">
-        <v>15.5535416666667</v>
-      </c>
-      <c r="C31">
-        <v>30.2417440287097</v>
-      </c>
-      <c r="D31">
-        <v>30.7189802825181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>30.06</v>
-      </c>
-      <c r="B32">
-        <v>31.413541666666699</v>
-      </c>
-      <c r="C32">
-        <v>33.961620489714797</v>
-      </c>
-      <c r="D32">
-        <v>34.085507208231299</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>30.6</v>
-      </c>
-      <c r="B33">
-        <v>31.3035416666667</v>
-      </c>
-      <c r="C33">
-        <v>27.507729447931698</v>
-      </c>
-      <c r="D33">
-        <v>27.771639115698399</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>29.6</v>
-      </c>
-      <c r="B34">
-        <v>30.4635416666667</v>
-      </c>
-      <c r="C34">
-        <v>26.437057287124901</v>
-      </c>
-      <c r="D34">
-        <v>26.552657122418999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>31.92</v>
-      </c>
-      <c r="B35">
-        <v>31.013541666666701</v>
-      </c>
-      <c r="C35">
-        <v>29.0662675079294</v>
-      </c>
-      <c r="D35">
-        <v>28.822804073840199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>28.61</v>
-      </c>
-      <c r="B36">
-        <v>28.413541666666699</v>
-      </c>
-      <c r="C36">
-        <v>29.591627249354801</v>
-      </c>
-      <c r="D36">
-        <v>29.181961955035199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>33.32</v>
-      </c>
-      <c r="B37">
-        <v>31.653541666666701</v>
-      </c>
-      <c r="C37">
-        <v>29.218180254194198</v>
-      </c>
-      <c r="D37">
-        <v>29.129826227519501</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>28.98</v>
-      </c>
-      <c r="B38">
-        <v>30.043541666666702</v>
-      </c>
-      <c r="C38">
-        <v>26.739401192120202</v>
-      </c>
-      <c r="D38">
-        <v>26.676750270942399</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>30.2</v>
-      </c>
-      <c r="B39">
-        <v>31.433541666666699</v>
-      </c>
-      <c r="C39">
-        <v>26.464249078777598</v>
-      </c>
-      <c r="D39">
-        <v>26.517553932032602</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>30.1</v>
-      </c>
-      <c r="B40">
-        <v>31.063541666666701</v>
-      </c>
-      <c r="C40">
-        <v>27.250278002482201</v>
-      </c>
-      <c r="D40">
-        <v>27.0275393645951</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>33.25</v>
-      </c>
-      <c r="B41">
-        <v>32.793541666666698</v>
-      </c>
-      <c r="C41">
-        <v>28.050991680990801</v>
-      </c>
-      <c r="D41">
-        <v>28.190078633631298</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>30.65</v>
-      </c>
-      <c r="B42">
-        <v>30.833541666666701</v>
-      </c>
-      <c r="C42" t="s">
-        <v>307</v>
-      </c>
-      <c r="D42">
-        <v>29.095279968529201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>32.380000000000003</v>
-      </c>
-      <c r="B43">
-        <v>30.263541666666701</v>
-      </c>
-      <c r="C43">
-        <v>27.661682068239902</v>
-      </c>
-      <c r="D43">
-        <v>27.406993013260699</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
-        <v>30.97</v>
-      </c>
-      <c r="B44">
-        <v>31.903541666666701</v>
-      </c>
-      <c r="C44">
-        <v>26.8131122143228</v>
-      </c>
-      <c r="D44">
-        <v>26.556847138384001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
-        <v>31.52</v>
-      </c>
-      <c r="B45">
-        <v>32.173541666666701</v>
-      </c>
-      <c r="C45">
-        <v>28.137236547682999</v>
-      </c>
-      <c r="D45">
-        <v>28.127021365057601</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <v>32.46</v>
-      </c>
-      <c r="B46">
-        <v>32.413541666666703</v>
-      </c>
-      <c r="C46">
-        <v>27.347560305833699</v>
-      </c>
-      <c r="D46">
-        <v>27.1436486298457</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
-        <v>33.6</v>
-      </c>
-      <c r="B47">
-        <v>31.413541666666699</v>
-      </c>
-      <c r="C47">
-        <v>28.584442350844601</v>
-      </c>
-      <c r="D47">
-        <v>28.589171567189599</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
-        <v>30.74</v>
-      </c>
-      <c r="B48">
-        <v>31.403541666666701</v>
-      </c>
-      <c r="C48">
-        <v>31.871689609817501</v>
-      </c>
-      <c r="D48">
-        <v>31.308808972651502</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <v>33.29</v>
-      </c>
-      <c r="B49">
-        <v>32.263541666666697</v>
-      </c>
-      <c r="C49">
-        <v>29.4913522821717</v>
-      </c>
-      <c r="D49">
-        <v>29.825330710196301</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/qPCR data/Compiled_Ctvalues_080415.xlsx
+++ b/qPCR data/Compiled_Ctvalues_080415.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake H\Documents\GitHub\Resilience-Project\qPCR data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-705" yWindow="-465" windowWidth="27315" windowHeight="15360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26660" windowHeight="14900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="All-data" sheetId="2" r:id="rId2"/>
+    <sheet name="GBcheck" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="326">
   <si>
     <t>Name</t>
   </si>
@@ -1001,6 +997,9 @@
   <si>
     <t>#value</t>
   </si>
+  <si>
+    <t>Cq2</t>
+  </si>
 </sst>
 </file>
 
@@ -1080,10 +1079,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1103,13 +1112,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="17">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1123,6 +1142,801 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GBcheck!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rep1.ct.GRB2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>GBcheck!$A$2:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>28.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.57</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.55</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.07</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.89</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.85</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32.16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32.03</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.91</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.06</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31.92</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28.61</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33.32</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28.98</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33.25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30.65</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32.38</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30.97</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>31.52</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32.46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>30.74</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GBcheck!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>opticorr.GRB2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>GBcheck!$B$2:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>27.8835416666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.3835416666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.5535416666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.4435416666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.5035416666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.2035416666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.9035416666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.5935416666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.1435416666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.2735416666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.8335416666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.7235416666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.5535416666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.2635416666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.8435416666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.3735416666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.8035416666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.3635416666667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.5035416666667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.6935416666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.8735416666667</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.3035416666667</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.4335416666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.9135416666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30.9335416666667</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30.3235416666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31.3135416666667</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31.6335416666667</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31.7135416666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.5535416666667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.4135416666667</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.3035416666667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30.4635416666667</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31.0135416666667</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28.4135416666667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31.6535416666667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30.0435416666667</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.4335416666667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>31.0635416666667</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.7935416666667</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30.8335416666667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30.2635416666667</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>31.9035416666667</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32.1735416666667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32.4135416666667</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>31.4135416666667</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31.4035416666667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32.2635416666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GBcheck!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cq2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>GBcheck!$C$2:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>26.8945589268167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.2209054450485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.1778087588885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.6156952958187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.1749074163143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.5768209004802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.2254881665399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.7701832318082</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.8633034243956</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.5194899048436</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.5707591173748</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.7388868240581</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.1303429305877</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.3652476832842</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.9004307550896</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.1810557057972</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.0005584094746</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.3688593474409</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.5187671445556</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.1942358178089</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.4105253867957</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29.4007423265296</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.780218905608</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.4158297025657</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.1975749437079</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.4683484784</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.9692158004672</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.1249861603421</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27.3134906388594</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.2417440287097</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33.9616204897148</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.5077294479317</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.4370572871249</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29.0662675079294</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>29.5916272493548</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29.2181802541942</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26.7394011921202</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26.4642490787776</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27.2502780024822</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28.0509916809908</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.6616820682399</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26.8131122143228</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.137236547683</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.3475603058337</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28.5844423508446</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31.8716896098175</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>29.4913522821717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GBcheck!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>GBcheck!$D$2:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>27.6005107360989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.0047202878797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.2197144047614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.8276430997119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.2591024643309</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.9845511490268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.8246656955586</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.1619236998029</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.9191216379648</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.6637174930343</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.6310329069612</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.5764724865041</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.3122433232542</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.608146629774</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.0673018857034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.4331771935426</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.6675880507702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.5398945330788</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.8133115197019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.8883349068084</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.3891382070848</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29.1173548169652</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.9010023421368</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.6429390404836</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.105082733556</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.29760194944</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.020604200291</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.2137733359103</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27.4230623892386</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.7189802825181</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34.0855072082313</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.7716391156984</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.552657122419</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28.8228040738402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>29.1819619550352</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29.1298262275195</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26.6767502709424</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26.5175539320326</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27.0275393645951</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28.1900786336313</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29.0952799685292</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.4069930132607</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26.556847138384</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.1270213650576</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.1436486298457</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28.5891715671896</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31.3088089726515</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>29.8253307101963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2103993688"/>
+        <c:axId val="-2122579208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2103993688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2122579208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2122579208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2103993688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1449,13 +2263,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FG49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="BV1" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:163">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1943,7 +2757,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:163">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2434,7 +3248,7 @@
         <v>2.20544302797878</v>
       </c>
     </row>
-    <row r="3" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:163">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2925,7 +3739,7 @@
         <v>3.35896017903121</v>
       </c>
     </row>
-    <row r="4" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:163">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3416,7 +4230,7 @@
         <v>2.3896129629032199</v>
       </c>
     </row>
-    <row r="5" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:163">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3907,7 +4721,7 @@
         <v>1.8446253112364399</v>
       </c>
     </row>
-    <row r="6" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:163">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4398,7 +5212,7 @@
         <v>2.1277231440139301</v>
       </c>
     </row>
-    <row r="7" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:163">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4889,7 +5703,7 @@
         <v>1.2825240156561999</v>
       </c>
     </row>
-    <row r="8" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:163">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5380,7 +6194,7 @@
         <v>2.0705610810197301</v>
       </c>
     </row>
-    <row r="9" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:163">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5871,7 +6685,7 @@
         <v>2.1235456441862302</v>
       </c>
     </row>
-    <row r="10" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:163">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6362,7 +7176,7 @@
         <v>3.2889342395734</v>
       </c>
     </row>
-    <row r="11" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:163">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6853,7 +7667,7 @@
         <v>3.2666853496377901</v>
       </c>
     </row>
-    <row r="12" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:163">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7344,7 +8158,7 @@
         <v>2.2981481811086901</v>
       </c>
     </row>
-    <row r="13" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:163">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7835,7 +8649,7 @@
         <v>2.0548579726231702</v>
       </c>
     </row>
-    <row r="14" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:163">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8326,7 +9140,7 @@
         <v>2.0913366592516902</v>
       </c>
     </row>
-    <row r="15" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:163">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8817,7 +9631,7 @@
         <v>2.12695360768363</v>
       </c>
     </row>
-    <row r="16" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:163">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9308,7 +10122,7 @@
         <v>2.43936251364789</v>
       </c>
     </row>
-    <row r="17" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:163">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9799,7 +10613,7 @@
         <v>2.4349921558800398</v>
       </c>
     </row>
-    <row r="18" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:163">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10290,7 +11104,7 @@
         <v>1.7335527119504499</v>
       </c>
     </row>
-    <row r="19" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:163">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10781,7 +11595,7 @@
         <v>2.18049984733958</v>
       </c>
     </row>
-    <row r="20" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:163">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11272,7 +12086,7 @@
         <v>2.3106255979899202</v>
       </c>
     </row>
-    <row r="21" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:163">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11763,7 +12577,7 @@
         <v>2.33995112254091</v>
       </c>
     </row>
-    <row r="22" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:163">
       <c r="A22">
         <v>21</v>
       </c>
@@ -12254,7 +13068,7 @@
         <v>2.5197692557067799</v>
       </c>
     </row>
-    <row r="23" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:163">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12745,7 +13559,7 @@
         <v>2.2680691284675101</v>
       </c>
     </row>
-    <row r="24" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:163">
       <c r="A24">
         <v>23</v>
       </c>
@@ -13236,7 +14050,7 @@
         <v>1.99954964728618</v>
       </c>
     </row>
-    <row r="25" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:163">
       <c r="A25">
         <v>24</v>
       </c>
@@ -13727,7 +14541,7 @@
         <v>1.7976966702280599</v>
       </c>
     </row>
-    <row r="26" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:163">
       <c r="A26">
         <v>25</v>
       </c>
@@ -14218,7 +15032,7 @@
         <v>2.0452031876029402</v>
       </c>
     </row>
-    <row r="27" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:163">
       <c r="A27">
         <v>26</v>
       </c>
@@ -14709,7 +15523,7 @@
         <v>2.0183277051653201</v>
       </c>
     </row>
-    <row r="28" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:163">
       <c r="A28">
         <v>27</v>
       </c>
@@ -15200,7 +16014,7 @@
         <v>2.1366165931128598</v>
       </c>
     </row>
-    <row r="29" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:163">
       <c r="A29">
         <v>28</v>
       </c>
@@ -15691,7 +16505,7 @@
         <v>2.4273897158050302</v>
       </c>
     </row>
-    <row r="30" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:163">
       <c r="A30">
         <v>29</v>
       </c>
@@ -16182,7 +16996,7 @@
         <v>2.39614184249817</v>
       </c>
     </row>
-    <row r="31" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:163">
       <c r="A31">
         <v>30</v>
       </c>
@@ -16673,7 +17487,7 @@
         <v>2.6101234065008398</v>
       </c>
     </row>
-    <row r="32" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:163">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17164,7 +17978,7 @@
         <v>2.2434430955051199</v>
       </c>
     </row>
-    <row r="33" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:163">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17655,7 +18469,7 @@
         <v>2.0857626670385199</v>
       </c>
     </row>
-    <row r="34" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:163">
       <c r="A34">
         <v>33</v>
       </c>
@@ -18146,7 +18960,7 @@
         <v>2.1950810779782999</v>
       </c>
     </row>
-    <row r="35" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:163">
       <c r="A35">
         <v>34</v>
       </c>
@@ -18637,7 +19451,7 @@
         <v>1.935032751704</v>
       </c>
     </row>
-    <row r="36" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:163">
       <c r="A36">
         <v>35</v>
       </c>
@@ -19128,7 +19942,7 @@
         <v>2.3001550595195002</v>
       </c>
     </row>
-    <row r="37" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:163">
       <c r="A37">
         <v>36</v>
       </c>
@@ -19619,7 +20433,7 @@
         <v>2.4891251698624699</v>
       </c>
     </row>
-    <row r="38" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:163">
       <c r="A38">
         <v>37</v>
       </c>
@@ -20110,7 +20924,7 @@
         <v>2.1090888311065998</v>
       </c>
     </row>
-    <row r="39" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:163">
       <c r="A39">
         <v>38</v>
       </c>
@@ -20601,7 +21415,7 @@
         <v>1.9559636099039299</v>
       </c>
     </row>
-    <row r="40" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:163">
       <c r="A40">
         <v>39</v>
       </c>
@@ -21092,7 +21906,7 @@
         <v>2.22794011770559</v>
       </c>
     </row>
-    <row r="41" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:163">
       <c r="A41">
         <v>40</v>
       </c>
@@ -21583,7 +22397,7 @@
         <v>2.1030029252409599</v>
       </c>
     </row>
-    <row r="42" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:163">
       <c r="A42">
         <v>41</v>
       </c>
@@ -22074,7 +22888,7 @@
         <v>2.0801574312031099</v>
       </c>
     </row>
-    <row r="43" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:163">
       <c r="A43">
         <v>42</v>
       </c>
@@ -22565,7 +23379,7 @@
         <v>1.7918809896219301</v>
       </c>
     </row>
-    <row r="44" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:163">
       <c r="A44">
         <v>43</v>
       </c>
@@ -23056,7 +23870,7 @@
         <v>2.24397341779882</v>
       </c>
     </row>
-    <row r="45" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:163">
       <c r="A45">
         <v>44</v>
       </c>
@@ -23547,7 +24361,7 @@
         <v>1.97279258059183</v>
       </c>
     </row>
-    <row r="46" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:163">
       <c r="A46">
         <v>45</v>
       </c>
@@ -24038,7 +24852,7 @@
         <v>3.4221193441425402</v>
       </c>
     </row>
-    <row r="47" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:163">
       <c r="A47">
         <v>46</v>
       </c>
@@ -24529,7 +25343,7 @@
         <v>2.31754554198795</v>
       </c>
     </row>
-    <row r="48" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:163">
       <c r="A48">
         <v>47</v>
       </c>
@@ -25020,7 +25834,7 @@
         <v>2.2850043704383101</v>
       </c>
     </row>
-    <row r="49" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:163">
       <c r="A49">
         <v>48</v>
       </c>
@@ -25527,49 +26341,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CU1" workbookViewId="0">
-      <selection activeCell="CZ8" sqref="CZ8"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B28" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="1"/>
-    <col min="3" max="5" width="10.875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="2"/>
+    <col min="2" max="2" width="11" style="1"/>
+    <col min="3" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
-    <col min="13" max="13" width="14.875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="14.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.875" style="2"/>
-    <col min="18" max="18" width="13.875" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="14.125" customWidth="1"/>
-    <col min="22" max="22" width="12.875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="10.875" style="2"/>
-    <col min="30" max="30" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="2"/>
+    <col min="18" max="18" width="13.83203125" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="14.1640625" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11" style="2"/>
+    <col min="30" max="30" width="13.6640625" customWidth="1"/>
     <col min="31" max="31" width="13.5" style="2" customWidth="1"/>
     <col min="32" max="32" width="13.5" customWidth="1"/>
-    <col min="33" max="33" width="10.875" style="1"/>
+    <col min="33" max="33" width="11" style="1"/>
     <col min="36" max="36" width="13.5" customWidth="1"/>
-    <col min="37" max="37" width="10.875" style="2"/>
-    <col min="41" max="41" width="10.875" style="2"/>
-    <col min="43" max="43" width="10.875" style="1"/>
-    <col min="47" max="47" width="10.875" style="2"/>
-    <col min="49" max="49" width="10.875" style="2"/>
-    <col min="51" max="51" width="10.875" style="1"/>
-    <col min="55" max="55" width="10.875" style="2"/>
-    <col min="57" max="57" width="10.875" style="2"/>
-    <col min="59" max="59" width="10.875" style="1"/>
-    <col min="63" max="63" width="10.875" style="2"/>
-    <col min="67" max="67" width="10.875" style="2"/>
-    <col min="77" max="77" width="12.375" customWidth="1"/>
-    <col min="78" max="79" width="17.75" customWidth="1"/>
+    <col min="37" max="37" width="11" style="2"/>
+    <col min="41" max="41" width="11" style="2"/>
+    <col min="43" max="43" width="11" style="1"/>
+    <col min="47" max="47" width="11" style="2"/>
+    <col min="49" max="49" width="11" style="2"/>
+    <col min="51" max="51" width="11" style="1"/>
+    <col min="55" max="55" width="11" style="2"/>
+    <col min="57" max="57" width="11" style="2"/>
+    <col min="59" max="59" width="11" style="1"/>
+    <col min="63" max="63" width="11" style="2"/>
+    <col min="67" max="67" width="11" style="2"/>
+    <col min="77" max="77" width="12.33203125" customWidth="1"/>
+    <col min="78" max="79" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:184">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26066,7 +26880,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:184">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26301,7 +27115,7 @@
         <v>27.600510736098901</v>
       </c>
       <c r="CI2">
-        <f>ABS(CF2-CH2)</f>
+        <f t="shared" ref="CI2:CI49" si="4">ABS(CF2-CH2)</f>
         <v>0.70595180928220103</v>
       </c>
       <c r="CL2">
@@ -26585,7 +27399,7 @@
         <v>2.20544302797878</v>
       </c>
     </row>
-    <row r="3" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:184">
       <c r="A3">
         <v>2</v>
       </c>
@@ -26688,15 +27502,15 @@
         <v>11.38</v>
       </c>
       <c r="AO3" s="2">
-        <f t="shared" ref="AO3:AO49" si="4">AM3+10.4</f>
+        <f t="shared" ref="AO3:AO49" si="5">AM3+10.4</f>
         <v>28.18</v>
       </c>
       <c r="AP3">
-        <f t="shared" ref="AP3:AP49" si="5">ABS(AK3-AO3)</f>
+        <f t="shared" ref="AP3:AP49" si="6">ABS(AK3-AO3)</f>
         <v>0.98000000000000043</v>
       </c>
       <c r="AQ3" s="1">
-        <f t="shared" ref="AQ3:AQ49" si="6">AVERAGE(AK3,AO3)</f>
+        <f t="shared" ref="AQ3:AQ49" si="7">AVERAGE(AK3,AO3)</f>
         <v>28.67</v>
       </c>
       <c r="AT3">
@@ -26712,11 +27526,11 @@
         <v>31.26</v>
       </c>
       <c r="AX3">
-        <f t="shared" ref="AX3:AX49" si="7">ABS(AU3-AW3)</f>
+        <f t="shared" ref="AX3:AX49" si="8">ABS(AU3-AW3)</f>
         <v>0.11999999999999744</v>
       </c>
       <c r="AY3" s="1">
-        <f t="shared" ref="AY3:AY49" si="8">AVERAGE(AU3,AW3)</f>
+        <f t="shared" ref="AY3:AY49" si="9">AVERAGE(AU3,AW3)</f>
         <v>31.32</v>
       </c>
       <c r="BB3">
@@ -26735,7 +27549,7 @@
         <v>0.91</v>
       </c>
       <c r="BG3" s="1">
-        <f t="shared" ref="BG3:BG49" si="9">AVERAGE(BC3,BE3)</f>
+        <f t="shared" ref="BG3:BG49" si="10">AVERAGE(BC3,BE3)</f>
         <v>31.325000000000003</v>
       </c>
       <c r="BJ3">
@@ -26784,7 +27598,7 @@
         <v>28.383541666666702</v>
       </c>
       <c r="CA3">
-        <f t="shared" ref="CA3:CA49" si="10">ABS(BV3-BZ3)</f>
+        <f t="shared" ref="CA3:CA49" si="11">ABS(BV3-BZ3)</f>
         <v>3.6458333333300175E-2</v>
       </c>
       <c r="CB3">
@@ -26809,7 +27623,7 @@
         <v>28.004720287879699</v>
       </c>
       <c r="CI3">
-        <f>ABS(CF3-CH3)</f>
+        <f t="shared" si="4"/>
         <v>0.21618515716880182</v>
       </c>
       <c r="CL3">
@@ -26879,7 +27693,7 @@
         <v>31.603717565695501</v>
       </c>
       <c r="DH3">
-        <f t="shared" ref="DH3:DH49" si="11">ABS(DE3-DG3)</f>
+        <f t="shared" ref="DH3:DH49" si="12">ABS(DE3-DG3)</f>
         <v>0.27246094130680021</v>
       </c>
       <c r="DK3">
@@ -27093,7 +27907,7 @@
         <v>3.35896017903121</v>
       </c>
     </row>
-    <row r="4" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:184">
       <c r="A4">
         <v>3</v>
       </c>
@@ -27152,11 +27966,11 @@
         <v>12.42</v>
       </c>
       <c r="T4" s="3">
-        <f t="shared" ref="T4:T25" si="12">R4+15</f>
+        <f t="shared" ref="T4:T25" si="13">R4+15</f>
         <v>34.549999999999997</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:U25" si="13">ABS(P4-T4)</f>
+        <f t="shared" ref="U4:U25" si="14">ABS(P4-T4)</f>
         <v>2.5799999999999983</v>
       </c>
       <c r="V4" s="4">
@@ -27207,15 +28021,15 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="AO4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.35</v>
       </c>
       <c r="AP4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.42999999999999972</v>
       </c>
       <c r="AQ4" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.135000000000002</v>
       </c>
       <c r="AT4">
@@ -27231,11 +28045,11 @@
         <v>31.72</v>
       </c>
       <c r="AX4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1699999999999982</v>
       </c>
       <c r="AY4" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31.134999999999998</v>
       </c>
       <c r="BB4">
@@ -27254,7 +28068,7 @@
         <v>0.25999999999999801</v>
       </c>
       <c r="BG4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32.22</v>
       </c>
       <c r="BJ4">
@@ -27303,7 +28117,7 @@
         <v>29.5535416666667</v>
       </c>
       <c r="CA4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1535416666667011</v>
       </c>
       <c r="CB4">
@@ -27328,7 +28142,7 @@
         <v>27.219714404761401</v>
       </c>
       <c r="CI4">
-        <f>ABS(CF4-CH4)</f>
+        <f t="shared" si="4"/>
         <v>4.1905645872901687E-2</v>
       </c>
       <c r="CL4">
@@ -27398,7 +28212,7 @@
         <v>31.188661817211798</v>
       </c>
       <c r="DH4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.2456933658817988</v>
       </c>
       <c r="DK4">
@@ -27612,7 +28426,7 @@
         <v>2.3896129629032199</v>
       </c>
     </row>
-    <row r="5" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:184">
       <c r="A5">
         <v>4</v>
       </c>
@@ -27671,11 +28485,11 @@
         <v>13.49</v>
       </c>
       <c r="T5" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>33.230000000000004</v>
       </c>
       <c r="U5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5100000000000051</v>
       </c>
       <c r="V5" s="4">
@@ -27711,15 +28525,15 @@
         <v>9.49</v>
       </c>
       <c r="AO5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.17</v>
       </c>
       <c r="AP5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91000000000000014</v>
       </c>
       <c r="AQ5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.715000000000003</v>
       </c>
       <c r="AT5">
@@ -27735,11 +28549,11 @@
         <v>31.69</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2699999999999996</v>
       </c>
       <c r="AY5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31.055</v>
       </c>
       <c r="BB5">
@@ -27758,7 +28572,7 @@
         <v>1.02</v>
       </c>
       <c r="BG5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.65</v>
       </c>
       <c r="BJ5">
@@ -27807,7 +28621,7 @@
         <v>29.4435416666667</v>
       </c>
       <c r="CA5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17354166666670068</v>
       </c>
       <c r="CB5">
@@ -27832,7 +28646,7 @@
         <v>29.827643099711899</v>
       </c>
       <c r="CI5">
-        <f>ABS(CF5-CH5)</f>
+        <f t="shared" si="4"/>
         <v>0.21194780389319945</v>
       </c>
       <c r="CL5">
@@ -27902,7 +28716,7 @@
         <v>33.904169469586598</v>
       </c>
       <c r="DH5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.067438501869816E-2</v>
       </c>
       <c r="DK5">
@@ -28116,7 +28930,7 @@
         <v>1.8446253112364399</v>
       </c>
     </row>
-    <row r="6" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:184">
       <c r="A6">
         <v>5</v>
       </c>
@@ -28175,11 +28989,11 @@
         <v>14.07</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.59</v>
       </c>
       <c r="U6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.92999999999999972</v>
       </c>
       <c r="V6" s="4">
@@ -28230,15 +29044,15 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="AO6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.840000000000003</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.77000000000000313</v>
       </c>
       <c r="AQ6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.455000000000002</v>
       </c>
       <c r="AT6">
@@ -28254,11 +29068,11 @@
         <v>30.59</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2899999999999991</v>
       </c>
       <c r="AY6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29.945</v>
       </c>
       <c r="BB6">
@@ -28277,7 +29091,7 @@
         <v>1.9</v>
       </c>
       <c r="BG6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.689999999999998</v>
       </c>
       <c r="BJ6">
@@ -28326,7 +29140,7 @@
         <v>27.503541666666699</v>
       </c>
       <c r="CA6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.6458333333301312E-2</v>
       </c>
       <c r="CB6">
@@ -28351,7 +29165,7 @@
         <v>29.259102464330901</v>
       </c>
       <c r="CI6">
-        <f>ABS(CF6-CH6)</f>
+        <f t="shared" si="4"/>
         <v>8.4195048016599827E-2</v>
       </c>
       <c r="CL6">
@@ -28421,7 +29235,7 @@
         <v>33.505695374213502</v>
       </c>
       <c r="DH6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.50385295435579991</v>
       </c>
       <c r="DK6">
@@ -28635,7 +29449,7 @@
         <v>2.1277231440139301</v>
       </c>
     </row>
-    <row r="7" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:184">
       <c r="A7">
         <v>6</v>
       </c>
@@ -28694,11 +29508,11 @@
         <v>16.71</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>35.28</v>
       </c>
       <c r="U7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.7100000000000009</v>
       </c>
       <c r="V7" s="4">
@@ -28734,15 +29548,15 @@
         <v>10.52</v>
       </c>
       <c r="AO7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.450000000000003</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.11999999999999744</v>
       </c>
       <c r="AQ7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>32.510000000000005</v>
       </c>
       <c r="AT7">
@@ -28758,11 +29572,11 @@
         <v>36.81</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.70000000000000284</v>
       </c>
       <c r="AY7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>36.46</v>
       </c>
       <c r="BB7">
@@ -28781,7 +29595,7 @@
         <v>1.45</v>
       </c>
       <c r="BG7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>36.704999999999998</v>
       </c>
       <c r="BJ7">
@@ -28830,7 +29644,7 @@
         <v>33.203541666666702</v>
       </c>
       <c r="CA7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.7264583333332979</v>
       </c>
       <c r="CB7">
@@ -28855,7 +29669,7 @@
         <v>29.9845511490268</v>
       </c>
       <c r="CI7">
-        <f>ABS(CF7-CH7)</f>
+        <f t="shared" si="4"/>
         <v>0.40773024854659923</v>
       </c>
       <c r="CL7">
@@ -28925,7 +29739,7 @@
         <v>34.221839257521999</v>
       </c>
       <c r="DH7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.5644953389596878E-2</v>
       </c>
       <c r="DK7">
@@ -29139,7 +29953,7 @@
         <v>1.2825240156561999</v>
       </c>
     </row>
-    <row r="8" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:184">
       <c r="A8">
         <v>7</v>
       </c>
@@ -29198,11 +30012,11 @@
         <v>12.99</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.950000000000003</v>
       </c>
       <c r="U8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.0100000000000016</v>
       </c>
       <c r="V8" s="4">
@@ -29238,15 +30052,15 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="AO8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.03</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1799999999999997</v>
       </c>
       <c r="AQ8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.44</v>
       </c>
       <c r="AT8">
@@ -29262,11 +30076,11 @@
         <v>31.12</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.82000000000000028</v>
       </c>
       <c r="AY8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31.53</v>
       </c>
       <c r="BB8">
@@ -29285,7 +30099,7 @@
         <v>2.27</v>
       </c>
       <c r="BG8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.734999999999999</v>
       </c>
       <c r="BJ8">
@@ -29334,7 +30148,7 @@
         <v>27.903541666666701</v>
       </c>
       <c r="CA8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.51354166666670054</v>
       </c>
       <c r="CB8">
@@ -29359,7 +30173,7 @@
         <v>27.8246656955586</v>
       </c>
       <c r="CI8">
-        <f>ABS(CF8-CH8)</f>
+        <f t="shared" si="4"/>
         <v>0.59917752901870003</v>
       </c>
       <c r="CL8">
@@ -29429,7 +30243,7 @@
         <v>31.7855309696081</v>
       </c>
       <c r="DH8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5264267608926012</v>
       </c>
       <c r="DK8">
@@ -29643,7 +30457,7 @@
         <v>2.0705610810197301</v>
       </c>
     </row>
-    <row r="9" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:184">
       <c r="A9">
         <v>8</v>
       </c>
@@ -29702,11 +30516,11 @@
         <v>12.85</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.239999999999995</v>
       </c>
       <c r="U9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.149999999999995</v>
       </c>
       <c r="V9" s="4">
@@ -29726,15 +30540,15 @@
         <v>17.29</v>
       </c>
       <c r="AD9">
-        <f t="shared" ref="AD9:AD24" si="14">AA9-AC9</f>
+        <f t="shared" ref="AD9:AD24" si="15">AA9-AC9</f>
         <v>11.82</v>
       </c>
       <c r="AE9" s="2">
-        <f t="shared" ref="AE9:AE24" si="15">AC9+13.3</f>
+        <f t="shared" ref="AE9:AE24" si="16">AC9+13.3</f>
         <v>30.59</v>
       </c>
       <c r="AF9">
-        <f t="shared" ref="AF9:AF24" si="16">ABS(AA9-AE9)</f>
+        <f t="shared" ref="AF9:AF24" si="17">ABS(AA9-AE9)</f>
         <v>1.4800000000000004</v>
       </c>
       <c r="AG9" s="1">
@@ -29757,15 +30571,15 @@
         <v>9.69</v>
       </c>
       <c r="AO9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.299999999999997</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.7099999999999973</v>
       </c>
       <c r="AQ9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.945</v>
       </c>
       <c r="AT9">
@@ -29781,11 +30595,11 @@
         <v>30.39</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0899999999999999</v>
       </c>
       <c r="AY9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.935000000000002</v>
       </c>
       <c r="BB9">
@@ -29804,7 +30618,7 @@
         <v>1.7</v>
       </c>
       <c r="BG9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.79</v>
       </c>
       <c r="BJ9">
@@ -29853,7 +30667,7 @@
         <v>28.593541666666699</v>
       </c>
       <c r="CA9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.503541666666699</v>
       </c>
       <c r="CB9">
@@ -29878,7 +30692,7 @@
         <v>25.161923699802902</v>
       </c>
       <c r="CI9">
-        <f>ABS(CF9-CH9)</f>
+        <f t="shared" si="4"/>
         <v>1.6082595320052988</v>
       </c>
       <c r="CL9">
@@ -29948,7 +30762,7 @@
         <v>30.660012446578101</v>
       </c>
       <c r="DH9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.57512683226799766</v>
       </c>
       <c r="DK9">
@@ -30162,7 +30976,7 @@
         <v>2.1235456441862302</v>
       </c>
     </row>
-    <row r="10" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:184">
       <c r="A10">
         <v>17</v>
       </c>
@@ -30221,11 +31035,11 @@
         <v>16.59</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.63</v>
       </c>
       <c r="U10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5899999999999999</v>
       </c>
       <c r="V10" s="4">
@@ -30245,15 +31059,15 @@
         <v>18.690000000000001</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12.739999999999998</v>
       </c>
       <c r="AE10" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>31.990000000000002</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.56000000000000227</v>
       </c>
       <c r="AG10" s="1">
@@ -30276,15 +31090,15 @@
         <v>9.23</v>
       </c>
       <c r="AO10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.82</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1700000000000017</v>
       </c>
       <c r="AQ10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.234999999999999</v>
       </c>
       <c r="AT10">
@@ -30300,11 +31114,11 @@
         <v>30.97</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.19999999999999929</v>
       </c>
       <c r="AY10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.869999999999997</v>
       </c>
       <c r="BB10">
@@ -30323,7 +31137,7 @@
         <v>1.44</v>
       </c>
       <c r="BG10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.23</v>
       </c>
       <c r="BJ10">
@@ -30372,7 +31186,7 @@
         <v>30.1435416666667</v>
       </c>
       <c r="CA10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2635416666667005</v>
       </c>
       <c r="CB10">
@@ -30397,7 +31211,7 @@
         <v>26.9191216379648</v>
       </c>
       <c r="CI10">
-        <f>ABS(CF10-CH10)</f>
+        <f t="shared" si="4"/>
         <v>5.5818213569200026E-2</v>
       </c>
       <c r="CL10">
@@ -30467,7 +31281,7 @@
         <v>30.365989257934</v>
       </c>
       <c r="DH10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16915517973430028</v>
       </c>
       <c r="DK10" t="s">
@@ -30681,7 +31495,7 @@
         <v>1.7335527119504499</v>
       </c>
     </row>
-    <row r="11" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:184">
       <c r="A11">
         <v>18</v>
       </c>
@@ -30740,11 +31554,11 @@
         <v>16</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.78</v>
       </c>
       <c r="U11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="V11" s="4">
@@ -30764,15 +31578,15 @@
         <v>15.98</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13.059999999999999</v>
       </c>
       <c r="AE11" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29.28</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.24000000000000199</v>
       </c>
       <c r="AG11" s="1">
@@ -30795,15 +31609,15 @@
         <v>9.56</v>
       </c>
       <c r="AO11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.17</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.84000000000000341</v>
       </c>
       <c r="AQ11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27.75</v>
       </c>
       <c r="AT11">
@@ -30819,11 +31633,11 @@
         <v>28.88</v>
       </c>
       <c r="AX11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.96000000000000085</v>
       </c>
       <c r="AY11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29.36</v>
       </c>
       <c r="BB11">
@@ -30842,7 +31656,7 @@
         <v>0.98</v>
       </c>
       <c r="BG11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.939999999999998</v>
       </c>
       <c r="BJ11">
@@ -30891,7 +31705,7 @@
         <v>28.273541666666699</v>
       </c>
       <c r="CA11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.42645833333330074</v>
       </c>
       <c r="CB11">
@@ -30916,7 +31730,7 @@
         <v>28.663717493034301</v>
       </c>
       <c r="CI11">
-        <f>ABS(CF11-CH11)</f>
+        <f t="shared" si="4"/>
         <v>0.14422758819070225</v>
       </c>
       <c r="CL11">
@@ -30986,7 +31800,7 @@
         <v>32.877962410610102</v>
       </c>
       <c r="DH11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.9307287072301733E-2</v>
       </c>
       <c r="DK11">
@@ -31200,7 +32014,7 @@
         <v>2.18049984733958</v>
       </c>
     </row>
-    <row r="12" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:184">
       <c r="A12">
         <v>19</v>
       </c>
@@ -31259,11 +32073,11 @@
         <v>15.17</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.299999999999997</v>
       </c>
       <c r="U12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.17000000000000171</v>
       </c>
       <c r="V12" s="4">
@@ -31283,15 +32097,15 @@
         <v>19</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12.920000000000002</v>
       </c>
       <c r="AE12" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>32.299999999999997</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.37999999999999545</v>
       </c>
       <c r="AG12" s="1">
@@ -31314,15 +32128,15 @@
         <v>11.58</v>
       </c>
       <c r="AO12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.79</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1799999999999997</v>
       </c>
       <c r="AQ12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.38</v>
       </c>
       <c r="AT12">
@@ -31338,11 +32152,11 @@
         <v>30.43</v>
       </c>
       <c r="AX12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.71999999999999886</v>
       </c>
       <c r="AY12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.79</v>
       </c>
       <c r="BB12">
@@ -31361,7 +32175,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="BG12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.86</v>
       </c>
       <c r="BJ12" t="s">
@@ -31407,7 +32221,7 @@
         <v>29.833541666666701</v>
       </c>
       <c r="CA12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4435416666667003</v>
       </c>
       <c r="CB12">
@@ -31432,7 +32246,7 @@
         <v>29.631032906961199</v>
       </c>
       <c r="CI12">
-        <f>ABS(CF12-CH12)</f>
+        <f t="shared" si="4"/>
         <v>6.0273789586400284E-2</v>
       </c>
       <c r="CL12">
@@ -31502,7 +32316,7 @@
         <v>33.390079418113501</v>
       </c>
       <c r="DH12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18380176021020134</v>
       </c>
       <c r="DK12">
@@ -31716,7 +32530,7 @@
         <v>2.3106255979899202</v>
       </c>
     </row>
-    <row r="13" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:184">
       <c r="A13">
         <v>20</v>
       </c>
@@ -31775,11 +32589,11 @@
         <v>16.420000000000002</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.62</v>
       </c>
       <c r="U13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.4199999999999982</v>
       </c>
       <c r="V13" s="4">
@@ -31799,15 +32613,15 @@
         <v>16.64</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13.18</v>
       </c>
       <c r="AE13" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29.94</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.12000000000000099</v>
       </c>
       <c r="AG13" s="1">
@@ -31830,15 +32644,15 @@
         <v>8.8800000000000008</v>
       </c>
       <c r="AO13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.04</v>
       </c>
       <c r="AP13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5199999999999996</v>
       </c>
       <c r="AQ13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.28</v>
       </c>
       <c r="AT13">
@@ -31854,11 +32668,11 @@
         <v>29.99</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.33999999999999986</v>
       </c>
       <c r="AY13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29.82</v>
       </c>
       <c r="BB13">
@@ -31877,7 +32691,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="BG13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.72</v>
       </c>
       <c r="BJ13">
@@ -31926,7 +32740,7 @@
         <v>28.723541666666701</v>
       </c>
       <c r="CA13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2535416666667025</v>
       </c>
       <c r="CB13">
@@ -31951,7 +32765,7 @@
         <v>28.576472486504102</v>
       </c>
       <c r="CI13">
-        <f>ABS(CF13-CH13)</f>
+        <f t="shared" si="4"/>
         <v>0.16241433755399726</v>
       </c>
       <c r="CL13">
@@ -32021,7 +32835,7 @@
         <v>33.101647472408303</v>
       </c>
       <c r="DH13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.52050675255670598</v>
       </c>
       <c r="DK13" t="s">
@@ -32235,7 +33049,7 @@
         <v>2.33995112254091</v>
       </c>
     </row>
-    <row r="14" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:184">
       <c r="A14">
         <v>21</v>
       </c>
@@ -32294,11 +33108,11 @@
         <v>15.3</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.9</v>
       </c>
       <c r="U14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000426</v>
       </c>
       <c r="V14" s="4">
@@ -32318,15 +33132,15 @@
         <v>16.760000000000002</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12.2</v>
       </c>
       <c r="AE14" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30.060000000000002</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.1000000000000014</v>
       </c>
       <c r="AG14" s="1">
@@ -32349,15 +33163,15 @@
         <v>8.84</v>
       </c>
       <c r="AO14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.369999999999997</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5599999999999987</v>
       </c>
       <c r="AQ14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.589999999999996</v>
       </c>
       <c r="AT14">
@@ -32373,11 +33187,11 @@
         <v>29.8</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.64000000000000057</v>
       </c>
       <c r="AY14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.12</v>
       </c>
       <c r="BB14">
@@ -32396,7 +33210,7 @@
         <v>1.9999999999999601E-2</v>
       </c>
       <c r="BG14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.450000000000003</v>
       </c>
       <c r="BJ14">
@@ -32445,7 +33259,7 @@
         <v>29.5535416666667</v>
       </c>
       <c r="CA14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.54354166666669812</v>
       </c>
       <c r="CB14">
@@ -32470,7 +33284,7 @@
         <v>28.312243323254201</v>
       </c>
       <c r="CI14">
-        <f>ABS(CF14-CH14)</f>
+        <f t="shared" si="4"/>
         <v>0.18190039266649904</v>
       </c>
       <c r="CL14">
@@ -32540,7 +33354,7 @@
         <v>32.770216045316502</v>
       </c>
       <c r="DH14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.7814935754286019</v>
       </c>
       <c r="DK14">
@@ -32754,7 +33568,7 @@
         <v>2.5197692557067799</v>
       </c>
     </row>
-    <row r="15" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:184">
       <c r="A15">
         <v>22</v>
       </c>
@@ -32813,11 +33627,11 @@
         <v>15.6</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.620000000000005</v>
       </c>
       <c r="U15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.59999999999999432</v>
       </c>
       <c r="V15" s="4">
@@ -32837,15 +33651,15 @@
         <v>17.489999999999998</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.680000000000003</v>
       </c>
       <c r="AE15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30.79</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6199999999999974</v>
       </c>
       <c r="AG15" s="1">
@@ -32868,15 +33682,15 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="AO15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.65</v>
       </c>
       <c r="AP15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1899999999999977</v>
       </c>
       <c r="AQ15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.055</v>
       </c>
       <c r="AT15">
@@ -32892,11 +33706,11 @@
         <v>30.82</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2699999999999996</v>
       </c>
       <c r="AY15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.185000000000002</v>
       </c>
       <c r="BB15">
@@ -32915,7 +33729,7 @@
         <v>0.62999999999999901</v>
       </c>
       <c r="BG15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.924999999999997</v>
       </c>
       <c r="BJ15">
@@ -32964,7 +33778,7 @@
         <v>30.263541666666701</v>
       </c>
       <c r="CA15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6935416666667003</v>
       </c>
       <c r="CB15">
@@ -32989,7 +33803,7 @@
         <v>27.608146629774001</v>
       </c>
       <c r="CI15">
-        <f>ABS(CF15-CH15)</f>
+        <f t="shared" si="4"/>
         <v>0.24289894648980237</v>
       </c>
       <c r="CL15">
@@ -33059,7 +33873,7 @@
         <v>32.1524996911673</v>
       </c>
       <c r="DH15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.3031694563856</v>
       </c>
       <c r="DK15">
@@ -33273,7 +34087,7 @@
         <v>2.2680691284675101</v>
       </c>
     </row>
-    <row r="16" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:184">
       <c r="A16">
         <v>23</v>
       </c>
@@ -33332,11 +34146,11 @@
         <v>16.96</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.31</v>
       </c>
       <c r="U16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.9600000000000044</v>
       </c>
       <c r="V16" s="4">
@@ -33356,15 +34170,15 @@
         <v>17</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13.73</v>
       </c>
       <c r="AE16" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30.3</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.42999999999999972</v>
       </c>
       <c r="AG16" s="1">
@@ -33387,15 +34201,15 @@
         <v>9</v>
       </c>
       <c r="AO16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.47</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3999999999999986</v>
       </c>
       <c r="AQ16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27.77</v>
       </c>
       <c r="AT16">
@@ -33411,11 +34225,11 @@
         <v>29.95</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.72000000000000242</v>
       </c>
       <c r="AY16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.310000000000002</v>
       </c>
       <c r="BB16">
@@ -33434,7 +34248,7 @@
         <v>1.41</v>
       </c>
       <c r="BG16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.365000000000002</v>
       </c>
       <c r="BJ16">
@@ -33483,7 +34297,7 @@
         <v>28.843541666666699</v>
       </c>
       <c r="CA16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5935416666666988</v>
       </c>
       <c r="CB16">
@@ -33508,7 +34322,7 @@
         <v>27.067301885703401</v>
       </c>
       <c r="CI16">
-        <f>ABS(CF16-CH16)</f>
+        <f t="shared" si="4"/>
         <v>0.16687113061379932</v>
       </c>
       <c r="CL16">
@@ -33578,7 +34392,7 @@
         <v>30.358756354109701</v>
       </c>
       <c r="DH16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.7991554375221028</v>
       </c>
       <c r="DK16" t="s">
@@ -33792,7 +34606,7 @@
         <v>1.99954964728618</v>
       </c>
     </row>
-    <row r="17" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:184">
       <c r="A17">
         <v>24</v>
       </c>
@@ -33851,11 +34665,11 @@
         <v>16.809999999999999</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.620000000000005</v>
       </c>
       <c r="U17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.8099999999999952</v>
       </c>
       <c r="V17" s="4">
@@ -33875,15 +34689,15 @@
         <v>20.68</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.649999999999999</v>
       </c>
       <c r="AE17" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>33.980000000000004</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6500000000000057</v>
       </c>
       <c r="AG17" s="1">
@@ -33906,15 +34720,15 @@
         <v>10.56</v>
       </c>
       <c r="AO17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.46</v>
       </c>
       <c r="AP17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16000000000000014</v>
       </c>
       <c r="AQ17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.54</v>
       </c>
       <c r="AT17">
@@ -33930,11 +34744,11 @@
         <v>31.87</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3399999999999999</v>
       </c>
       <c r="AY17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31.200000000000003</v>
       </c>
       <c r="BB17">
@@ -33953,7 +34767,7 @@
         <v>0.82</v>
       </c>
       <c r="BG17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.63</v>
       </c>
       <c r="BJ17">
@@ -34002,7 +34816,7 @@
         <v>30.3735416666667</v>
       </c>
       <c r="CA17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1735416666667007</v>
       </c>
       <c r="CB17">
@@ -34027,7 +34841,7 @@
         <v>29.433177193542601</v>
       </c>
       <c r="CI17">
-        <f>ABS(CF17-CH17)</f>
+        <f t="shared" si="4"/>
         <v>0.25212148774540211</v>
       </c>
       <c r="CL17">
@@ -34097,7 +34911,7 @@
         <v>33.273776580364903</v>
       </c>
       <c r="DH17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.74087470539949862</v>
       </c>
       <c r="DK17">
@@ -34311,7 +35125,7 @@
         <v>1.7976966702280599</v>
       </c>
     </row>
-    <row r="18" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:184">
       <c r="A18">
         <v>33</v>
       </c>
@@ -34370,11 +35184,11 @@
         <v>14.5</v>
       </c>
       <c r="T18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.09</v>
       </c>
       <c r="U18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="V18" s="4">
@@ -34394,15 +35208,15 @@
         <v>16.89</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13.649999999999999</v>
       </c>
       <c r="AE18" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30.19</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.34999999999999787</v>
       </c>
       <c r="AG18" s="1">
@@ -34425,15 +35239,15 @@
         <v>11.16</v>
       </c>
       <c r="AO18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.53</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.75999999999999801</v>
       </c>
       <c r="AQ18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.91</v>
       </c>
       <c r="AT18">
@@ -34449,11 +35263,11 @@
         <v>29.28</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1400000000000006</v>
       </c>
       <c r="AY18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29.85</v>
       </c>
       <c r="BB18">
@@ -34472,7 +35286,7 @@
         <v>1.45</v>
       </c>
       <c r="BG18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.515000000000001</v>
       </c>
       <c r="BJ18" t="s">
@@ -34518,7 +35332,7 @@
         <v>28.8035416666667</v>
       </c>
       <c r="CA18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.2335416666666994</v>
       </c>
       <c r="CB18">
@@ -34543,7 +35357,7 @@
         <v>26.667588050770199</v>
       </c>
       <c r="CI18">
-        <f>ABS(CF18-CH18)</f>
+        <f t="shared" si="4"/>
         <v>0.33297035870440084</v>
       </c>
       <c r="CL18">
@@ -34613,7 +35427,7 @@
         <v>31.560169322391999</v>
       </c>
       <c r="DH18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.28005795639889897</v>
       </c>
       <c r="DK18" t="s">
@@ -34827,7 +35641,7 @@
         <v>2.1950810779782999</v>
       </c>
     </row>
-    <row r="19" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:184">
       <c r="A19">
         <v>34</v>
       </c>
@@ -34886,11 +35700,11 @@
         <v>12.99</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.53</v>
       </c>
       <c r="U19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.0100000000000016</v>
       </c>
       <c r="V19" s="4">
@@ -34910,15 +35724,15 @@
         <v>16.29</v>
       </c>
       <c r="AD19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13.380000000000003</v>
       </c>
       <c r="AE19" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29.59</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.0000000000001847E-2</v>
       </c>
       <c r="AG19" s="1">
@@ -34941,15 +35755,15 @@
         <v>11.12</v>
       </c>
       <c r="AO19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="AP19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.71999999999999886</v>
       </c>
       <c r="AQ19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27.36</v>
       </c>
       <c r="AT19">
@@ -34965,11 +35779,11 @@
         <v>27.7</v>
       </c>
       <c r="AX19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6799999999999997</v>
       </c>
       <c r="AY19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29.04</v>
       </c>
       <c r="BB19">
@@ -34988,7 +35802,7 @@
         <v>0.60999999999999899</v>
       </c>
       <c r="BG19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.265000000000001</v>
       </c>
       <c r="BJ19" t="s">
@@ -35034,7 +35848,7 @@
         <v>29.363541666666698</v>
       </c>
       <c r="CA19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8135416666666977</v>
       </c>
       <c r="CB19">
@@ -35059,7 +35873,7 @@
         <v>30.539894533078801</v>
       </c>
       <c r="CI19">
-        <f>ABS(CF19-CH19)</f>
+        <f t="shared" si="4"/>
         <v>0.17103518563790132</v>
       </c>
       <c r="CL19">
@@ -35129,7 +35943,7 @@
         <v>34.585237649539202</v>
       </c>
       <c r="DH19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0741087434756977</v>
       </c>
       <c r="DK19">
@@ -35343,7 +36157,7 @@
         <v>1.935032751704</v>
       </c>
     </row>
-    <row r="20" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:184">
       <c r="A20">
         <v>35</v>
       </c>
@@ -35402,11 +36216,11 @@
         <v>14.16</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.81</v>
       </c>
       <c r="U20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.83999999999999986</v>
       </c>
       <c r="V20" s="4">
@@ -35426,15 +36240,15 @@
         <v>17.93</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12.260000000000002</v>
       </c>
       <c r="AE20" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>31.23</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.0399999999999991</v>
       </c>
       <c r="AG20" s="1">
@@ -35457,15 +36271,15 @@
         <v>11.39</v>
       </c>
       <c r="AO20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.160000000000004</v>
       </c>
       <c r="AP20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.98999999999999488</v>
       </c>
       <c r="AQ20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.655000000000001</v>
       </c>
       <c r="AT20">
@@ -35481,11 +36295,11 @@
         <v>29.54</v>
       </c>
       <c r="AX20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6000000000000014</v>
       </c>
       <c r="AY20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.34</v>
       </c>
       <c r="BB20">
@@ -35504,7 +36318,7 @@
         <v>1.24</v>
       </c>
       <c r="BG20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.2</v>
       </c>
       <c r="BJ20" t="s">
@@ -35550,7 +36364,7 @@
         <v>29.503541666666699</v>
       </c>
       <c r="CA20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.9635416666666998</v>
       </c>
       <c r="CB20">
@@ -35575,7 +36389,7 @@
         <v>28.813311519701902</v>
       </c>
       <c r="CI20">
-        <f>ABS(CF20-CH20)</f>
+        <f t="shared" si="4"/>
         <v>0.29454437514630172</v>
       </c>
       <c r="CL20">
@@ -35645,7 +36459,7 @@
         <v>33.021621615082999</v>
       </c>
       <c r="DH20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.9244924052538011</v>
       </c>
       <c r="DK20">
@@ -35859,7 +36673,7 @@
         <v>2.3001550595195002</v>
       </c>
     </row>
-    <row r="21" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:184">
       <c r="A21">
         <v>36</v>
       </c>
@@ -35918,11 +36732,11 @@
         <v>14.15</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.69</v>
       </c>
       <c r="U21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.85000000000000142</v>
       </c>
       <c r="V21" s="4">
@@ -35942,15 +36756,15 @@
         <v>16.12</v>
       </c>
       <c r="AD21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15.09</v>
       </c>
       <c r="AE21" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29.42</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.7899999999999991</v>
       </c>
       <c r="AG21" s="1">
@@ -35973,15 +36787,15 @@
         <v>10.88</v>
       </c>
       <c r="AO21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.39</v>
       </c>
       <c r="AP21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.48000000000000043</v>
       </c>
       <c r="AQ21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.630000000000003</v>
       </c>
       <c r="AT21">
@@ -35997,11 +36811,11 @@
         <v>29.17</v>
       </c>
       <c r="AX21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6899999999999977</v>
       </c>
       <c r="AY21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.015000000000001</v>
       </c>
       <c r="BB21">
@@ -36020,7 +36834,7 @@
         <v>0.44999999999999901</v>
       </c>
       <c r="BG21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.825000000000003</v>
       </c>
       <c r="BJ21" t="s">
@@ -36066,7 +36880,7 @@
         <v>30.6935416666667</v>
       </c>
       <c r="CA21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3835416666667015</v>
       </c>
       <c r="CB21">
@@ -36091,7 +36905,7 @@
         <v>25.888334906808399</v>
       </c>
       <c r="CI21">
-        <f>ABS(CF21-CH21)</f>
+        <f t="shared" si="4"/>
         <v>0.30590091100049932</v>
       </c>
       <c r="CL21">
@@ -36161,7 +36975,7 @@
         <v>30.398997027265299</v>
       </c>
       <c r="DH21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.25119916571960133</v>
       </c>
       <c r="DK21">
@@ -36375,7 +37189,7 @@
         <v>2.4891251698624699</v>
       </c>
     </row>
-    <row r="22" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:184">
       <c r="A22">
         <v>37</v>
       </c>
@@ -36434,11 +37248,11 @@
         <v>14.68</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.61</v>
       </c>
       <c r="U22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.32000000000000028</v>
       </c>
       <c r="V22" s="4">
@@ -36458,15 +37272,15 @@
         <v>16.010000000000002</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13.779999999999998</v>
       </c>
       <c r="AE22" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29.310000000000002</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.47999999999999687</v>
       </c>
       <c r="AG22" s="1">
@@ -36489,15 +37303,15 @@
         <v>11.1</v>
       </c>
       <c r="AO22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.28</v>
       </c>
       <c r="AP22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.69999999999999929</v>
       </c>
       <c r="AQ22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.630000000000003</v>
       </c>
       <c r="AT22">
@@ -36513,11 +37327,11 @@
         <v>28.48</v>
       </c>
       <c r="AX22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0700000000000003</v>
       </c>
       <c r="AY22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29.515000000000001</v>
       </c>
       <c r="BB22">
@@ -36536,7 +37350,7 @@
         <v>0.68</v>
       </c>
       <c r="BG22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.34</v>
       </c>
       <c r="BJ22" t="s">
@@ -36582,7 +37396,7 @@
         <v>29.8735416666667</v>
       </c>
       <c r="CA22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.80354166666669968</v>
       </c>
       <c r="CB22">
@@ -36607,7 +37421,7 @@
         <v>27.389138207084802</v>
       </c>
       <c r="CI22">
-        <f>ABS(CF22-CH22)</f>
+        <f t="shared" si="4"/>
         <v>2.1387179710899318E-2</v>
       </c>
       <c r="CL22">
@@ -36677,7 +37491,7 @@
         <v>30.965343237682902</v>
       </c>
       <c r="DH22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.8414863109999686E-2</v>
       </c>
       <c r="DK22">
@@ -36891,7 +37705,7 @@
         <v>2.1090888311065998</v>
       </c>
     </row>
-    <row r="23" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:184">
       <c r="A23">
         <v>38</v>
       </c>
@@ -36950,11 +37764,11 @@
         <v>12.75</v>
       </c>
       <c r="T23" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>33.31</v>
       </c>
       <c r="U23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.2500000000000036</v>
       </c>
       <c r="V23" s="4">
@@ -36974,15 +37788,15 @@
         <v>16.54</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16.160000000000004</v>
       </c>
       <c r="AE23" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29.84</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.860000000000003</v>
       </c>
       <c r="AG23" s="1">
@@ -37005,15 +37819,15 @@
         <v>10.91</v>
       </c>
       <c r="AO23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.54</v>
       </c>
       <c r="AP23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51000000000000156</v>
       </c>
       <c r="AQ23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.795000000000002</v>
       </c>
       <c r="AT23">
@@ -37029,11 +37843,11 @@
         <v>29.74</v>
       </c>
       <c r="AX23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.620000000000001</v>
       </c>
       <c r="AY23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.549999999999997</v>
       </c>
       <c r="BB23">
@@ -37052,7 +37866,7 @@
         <v>1.05</v>
       </c>
       <c r="BG23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.215</v>
       </c>
       <c r="BJ23" t="s">
@@ -37098,7 +37912,7 @@
         <v>30.3035416666667</v>
       </c>
       <c r="CA23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4135416666666991</v>
       </c>
       <c r="CB23">
@@ -37123,7 +37937,7 @@
         <v>29.1173548169652</v>
       </c>
       <c r="CI23">
-        <f>ABS(CF23-CH23)</f>
+        <f t="shared" si="4"/>
         <v>0.28338750956439895</v>
       </c>
       <c r="CL23">
@@ -37193,7 +38007,7 @@
         <v>33.3118818441868</v>
       </c>
       <c r="DH23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.561804714260262E-2</v>
       </c>
       <c r="DK23">
@@ -37407,7 +38221,7 @@
         <v>1.9559636099039299</v>
       </c>
     </row>
-    <row r="24" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:184">
       <c r="A24">
         <v>39</v>
       </c>
@@ -37466,11 +38280,11 @@
         <v>15.75</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.159999999999997</v>
       </c>
       <c r="U24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.75</v>
       </c>
       <c r="V24" s="4">
@@ -37490,15 +38304,15 @@
         <v>21.61</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.84</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34.909999999999997</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.4599999999999973</v>
       </c>
       <c r="AG24" s="1">
@@ -37521,15 +38335,15 @@
         <v>9.34</v>
       </c>
       <c r="AO24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.259999999999998</v>
       </c>
       <c r="AP24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0599999999999987</v>
       </c>
       <c r="AQ24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.729999999999997</v>
       </c>
       <c r="AT24">
@@ -37545,11 +38359,11 @@
         <v>30.48</v>
       </c>
       <c r="AX24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8499999999999979</v>
       </c>
       <c r="AY24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31.405000000000001</v>
       </c>
       <c r="BB24">
@@ -37568,7 +38382,7 @@
         <v>0.619999999999997</v>
       </c>
       <c r="BG24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.66</v>
       </c>
       <c r="BJ24">
@@ -37617,7 +38431,7 @@
         <v>30.433541666666699</v>
       </c>
       <c r="CA24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.95354166666669826</v>
       </c>
       <c r="CB24">
@@ -37642,7 +38456,7 @@
         <v>29.901002342136799</v>
       </c>
       <c r="CI24">
-        <f>ABS(CF24-CH24)</f>
+        <f t="shared" si="4"/>
         <v>0.12078343652880008</v>
       </c>
       <c r="CL24">
@@ -37712,7 +38526,7 @@
         <v>33.808613849563201</v>
       </c>
       <c r="DH24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.43431443013140125</v>
       </c>
       <c r="DK24" t="s">
@@ -37926,7 +38740,7 @@
         <v>2.22794011770559</v>
       </c>
     </row>
-    <row r="25" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:184">
       <c r="A25">
         <v>40</v>
       </c>
@@ -37985,11 +38799,11 @@
         <v>14.95</v>
       </c>
       <c r="T25" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.81</v>
       </c>
       <c r="U25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.9999999999997158E-2</v>
       </c>
       <c r="V25" s="4">
@@ -38022,15 +38836,15 @@
         <v>11.65</v>
       </c>
       <c r="AO25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.35</v>
       </c>
       <c r="AP25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
       <c r="AQ25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.975000000000001</v>
       </c>
       <c r="AT25">
@@ -38046,11 +38860,11 @@
         <v>29.37</v>
       </c>
       <c r="AX25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2300000000000004</v>
       </c>
       <c r="AY25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.484999999999999</v>
       </c>
       <c r="BB25">
@@ -38069,7 +38883,7 @@
         <v>0.87999999999999901</v>
       </c>
       <c r="BG25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.03</v>
       </c>
       <c r="BJ25">
@@ -38118,7 +38932,7 @@
         <v>30.913541666666699</v>
       </c>
       <c r="CA25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0635416666666977</v>
       </c>
       <c r="CB25">
@@ -38143,7 +38957,7 @@
         <v>29.642939040483601</v>
       </c>
       <c r="CI25">
-        <f>ABS(CF25-CH25)</f>
+        <f t="shared" si="4"/>
         <v>0.22710933791790211</v>
       </c>
       <c r="CL25">
@@ -38213,7 +39027,7 @@
         <v>33.712447488457499</v>
       </c>
       <c r="DH25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.45979978886330031</v>
       </c>
       <c r="DK25">
@@ -38427,7 +39241,7 @@
         <v>2.1030029252409599</v>
       </c>
     </row>
-    <row r="26" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:184">
       <c r="A26">
         <v>9</v>
       </c>
@@ -38499,15 +39313,15 @@
         <v>17.829999999999998</v>
       </c>
       <c r="AD26">
-        <f t="shared" ref="AD26:AD33" si="17">AA26-AC26</f>
+        <f t="shared" ref="AD26:AD33" si="18">AA26-AC26</f>
         <v>14.550000000000004</v>
       </c>
       <c r="AE26" s="2">
-        <f t="shared" ref="AE26:AE33" si="18">AC26+13.3</f>
+        <f t="shared" ref="AE26:AE33" si="19">AC26+13.3</f>
         <v>31.13</v>
       </c>
       <c r="AF26">
-        <f t="shared" ref="AF26:AF33" si="19">ABS(AA26-AE26)</f>
+        <f t="shared" ref="AF26:AF33" si="20">ABS(AA26-AE26)</f>
         <v>1.2500000000000036</v>
       </c>
       <c r="AG26" s="1">
@@ -38530,15 +39344,15 @@
         <v>10.44</v>
       </c>
       <c r="AO26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.33</v>
       </c>
       <c r="AP26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.00000000000027E-2</v>
       </c>
       <c r="AQ26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.35</v>
       </c>
       <c r="AT26">
@@ -38554,11 +39368,11 @@
         <v>33.36</v>
       </c>
       <c r="AX26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8999999999999986</v>
       </c>
       <c r="AY26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>34.31</v>
       </c>
       <c r="BB26">
@@ -38577,7 +39391,7 @@
         <v>0.85000000000000098</v>
       </c>
       <c r="BG26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.324999999999999</v>
       </c>
       <c r="BJ26">
@@ -38626,7 +39440,7 @@
         <v>30.933541666666699</v>
       </c>
       <c r="CA26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2264583333332979</v>
       </c>
       <c r="CB26">
@@ -38651,7 +39465,7 @@
         <v>27.105082733555999</v>
       </c>
       <c r="CI26">
-        <f>ABS(CF26-CH26)</f>
+        <f t="shared" si="4"/>
         <v>9.2492210151899457E-2</v>
       </c>
       <c r="CL26">
@@ -38721,7 +39535,7 @@
         <v>30.968714251096198</v>
       </c>
       <c r="DH26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.15353955087310212</v>
       </c>
       <c r="DK26">
@@ -38935,7 +39749,7 @@
         <v>3.2889342395734</v>
       </c>
     </row>
-    <row r="27" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:184">
       <c r="A27">
         <v>10</v>
       </c>
@@ -39018,15 +39832,15 @@
         <v>16.93</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16.270000000000003</v>
       </c>
       <c r="AE27" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.23</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.9700000000000024</v>
       </c>
       <c r="AG27" s="1">
@@ -39049,15 +39863,15 @@
         <v>10.029999999999999</v>
       </c>
       <c r="AO27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.11</v>
       </c>
       <c r="AP27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.37000000000000099</v>
       </c>
       <c r="AQ27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.924999999999997</v>
       </c>
       <c r="AT27">
@@ -39073,11 +39887,11 @@
         <v>32.46</v>
       </c>
       <c r="AX27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.69999999999999574</v>
       </c>
       <c r="AY27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.81</v>
       </c>
       <c r="BB27">
@@ -39096,7 +39910,7 @@
         <v>0.52</v>
       </c>
       <c r="BG27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.11</v>
       </c>
       <c r="BJ27">
@@ -39145,7 +39959,7 @@
         <v>30.323541666666699</v>
       </c>
       <c r="CA27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7064583333333019</v>
       </c>
       <c r="CB27">
@@ -39170,7 +39984,7 @@
         <v>26.297601949440001</v>
       </c>
       <c r="CI27">
-        <f>ABS(CF27-CH27)</f>
+        <f t="shared" si="4"/>
         <v>0.17074652895999876</v>
       </c>
       <c r="CL27">
@@ -39240,7 +40054,7 @@
         <v>30.229695332692199</v>
       </c>
       <c r="DH27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.37810595228500077</v>
       </c>
       <c r="DK27">
@@ -39454,7 +40268,7 @@
         <v>3.2666853496377901</v>
       </c>
     </row>
-    <row r="28" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:184">
       <c r="A28">
         <v>11</v>
       </c>
@@ -39537,15 +40351,15 @@
         <v>17.399999999999999</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>15.590000000000003</v>
       </c>
       <c r="AE28" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.7</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.2900000000000027</v>
       </c>
       <c r="AG28" s="1">
@@ -39568,15 +40382,15 @@
         <v>11.72</v>
       </c>
       <c r="AO28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.189999999999998</v>
       </c>
       <c r="AP28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3200000000000038</v>
       </c>
       <c r="AQ28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.85</v>
       </c>
       <c r="AT28">
@@ -39592,11 +40406,11 @@
         <v>31.54</v>
       </c>
       <c r="AX28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2700000000000031</v>
       </c>
       <c r="AY28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.674999999999997</v>
       </c>
       <c r="BB28">
@@ -39615,7 +40429,7 @@
         <v>0.92000000000000204</v>
       </c>
       <c r="BG28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.86</v>
       </c>
       <c r="BJ28">
@@ -39664,7 +40478,7 @@
         <v>31.313541666666701</v>
       </c>
       <c r="CA28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.8864583333333016</v>
       </c>
       <c r="CB28">
@@ -39689,7 +40503,7 @@
         <v>27.020604200291</v>
       </c>
       <c r="CI28">
-        <f>ABS(CF28-CH28)</f>
+        <f t="shared" si="4"/>
         <v>5.1388399823800057E-2</v>
       </c>
       <c r="CL28">
@@ -39759,7 +40573,7 @@
         <v>30.044045316340799</v>
       </c>
       <c r="DH28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.8064367040059324E-4</v>
       </c>
       <c r="DK28">
@@ -39973,7 +40787,7 @@
         <v>2.2981481811086901</v>
       </c>
     </row>
-    <row r="29" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:184">
       <c r="A29">
         <v>12</v>
       </c>
@@ -40045,15 +40859,15 @@
         <v>15.24</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>14.770000000000001</v>
       </c>
       <c r="AE29" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28.54</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.4700000000000024</v>
       </c>
       <c r="AG29" s="1">
@@ -40076,15 +40890,15 @@
         <v>9.33</v>
       </c>
       <c r="AO29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.119999999999997</v>
       </c>
       <c r="AP29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0699999999999967</v>
       </c>
       <c r="AQ29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.585000000000001</v>
       </c>
       <c r="AT29">
@@ -40100,11 +40914,11 @@
         <v>34.26</v>
       </c>
       <c r="AX29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.64000000000000057</v>
       </c>
       <c r="AY29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33.94</v>
       </c>
       <c r="BB29">
@@ -40123,7 +40937,7 @@
         <v>0.34999999999999798</v>
       </c>
       <c r="BG29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.884999999999998</v>
       </c>
       <c r="BJ29" t="s">
@@ -40169,7 +40983,7 @@
         <v>31.633541666666702</v>
       </c>
       <c r="CA29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2764583333332951</v>
       </c>
       <c r="CB29">
@@ -40194,7 +41008,7 @@
         <v>29.2137733359103</v>
       </c>
       <c r="CI29">
-        <f>ABS(CF29-CH29)</f>
+        <f t="shared" si="4"/>
         <v>8.8787175568199928E-2</v>
       </c>
       <c r="CL29">
@@ -40264,7 +41078,7 @@
         <v>33.440021652653698</v>
       </c>
       <c r="DH29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.1217832427047369E-3</v>
       </c>
       <c r="DK29">
@@ -40478,7 +41292,7 @@
         <v>2.0548579726231702</v>
       </c>
     </row>
-    <row r="30" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:184">
       <c r="A30">
         <v>13</v>
       </c>
@@ -40561,15 +41375,15 @@
         <v>19.46</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>13.240000000000002</v>
       </c>
       <c r="AE30" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32.760000000000005</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.0000000000002274E-2</v>
       </c>
       <c r="AG30" s="1">
@@ -40592,15 +41406,15 @@
         <v>11.74</v>
       </c>
       <c r="AO30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.86</v>
       </c>
       <c r="AP30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3399999999999999</v>
       </c>
       <c r="AQ30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.53</v>
       </c>
       <c r="AT30">
@@ -40616,11 +41430,11 @@
         <v>32.049999999999997</v>
       </c>
       <c r="AX30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.67999999999999972</v>
       </c>
       <c r="AY30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.39</v>
       </c>
       <c r="BB30">
@@ -40639,7 +41453,7 @@
         <v>0.56000000000000205</v>
       </c>
       <c r="BG30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28.66</v>
       </c>
       <c r="BJ30" t="s">
@@ -40685,7 +41499,7 @@
         <v>31.7135416666667</v>
       </c>
       <c r="CA30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.97354166666670139</v>
       </c>
       <c r="CB30">
@@ -40710,7 +41524,7 @@
         <v>27.423062389238599</v>
       </c>
       <c r="CI30">
-        <f>ABS(CF30-CH30)</f>
+        <f t="shared" si="4"/>
         <v>0.10957175037919953</v>
       </c>
       <c r="CL30">
@@ -40780,7 +41594,7 @@
         <v>31.529422947657501</v>
       </c>
       <c r="DH30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.1370478765199437E-2</v>
       </c>
       <c r="DK30">
@@ -40994,7 +41808,7 @@
         <v>2.0913366592516902</v>
       </c>
     </row>
-    <row r="31" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:184">
       <c r="A31">
         <v>14</v>
       </c>
@@ -41077,15 +41891,15 @@
         <v>16.84</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16.2</v>
       </c>
       <c r="AE31" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.14</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.8999999999999986</v>
       </c>
       <c r="AG31" s="1">
@@ -41108,15 +41922,15 @@
         <v>12.1</v>
       </c>
       <c r="AO31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.43</v>
       </c>
       <c r="AP31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6999999999999993</v>
       </c>
       <c r="AQ31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.28</v>
       </c>
       <c r="AT31">
@@ -41132,11 +41946,11 @@
         <v>32.18</v>
       </c>
       <c r="AX31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.21000000000000085</v>
       </c>
       <c r="AY31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.284999999999997</v>
       </c>
       <c r="BB31">
@@ -41155,7 +41969,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="BG31" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.18</v>
       </c>
       <c r="BJ31">
@@ -41228,7 +42042,7 @@
         <v>30.7189802825181</v>
       </c>
       <c r="CI31">
-        <f>ABS(CF31-CH31)</f>
+        <f t="shared" si="4"/>
         <v>0.47723625380839962</v>
       </c>
       <c r="CL31">
@@ -41298,7 +42112,7 @@
         <v>34.8437232003619</v>
       </c>
       <c r="DH31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13746413028049886</v>
       </c>
       <c r="DK31">
@@ -41512,7 +42326,7 @@
         <v>2.12695360768363</v>
       </c>
     </row>
-    <row r="32" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:184">
       <c r="A32">
         <v>15</v>
       </c>
@@ -41584,15 +42398,15 @@
         <v>17.46</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.689999999999998</v>
       </c>
       <c r="AE32" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.76</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.61000000000000298</v>
       </c>
       <c r="AG32" s="1">
@@ -41615,15 +42429,15 @@
         <v>11.91</v>
       </c>
       <c r="AO32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.39</v>
       </c>
       <c r="AP32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.509999999999998</v>
       </c>
       <c r="AQ32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.145</v>
       </c>
       <c r="AT32">
@@ -41639,11 +42453,11 @@
         <v>32.26</v>
       </c>
       <c r="AX32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1300000000000026</v>
       </c>
       <c r="AY32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.825000000000003</v>
       </c>
       <c r="BB32">
@@ -41662,7 +42476,7 @@
         <v>0.69000000000000095</v>
       </c>
       <c r="BG32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.274999999999999</v>
       </c>
       <c r="BJ32" t="s">
@@ -41708,7 +42522,7 @@
         <v>31.413541666666699</v>
       </c>
       <c r="CA32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3535416666667004</v>
       </c>
       <c r="CB32">
@@ -41733,7 +42547,7 @@
         <v>34.085507208231299</v>
       </c>
       <c r="CI32">
-        <f>ABS(CF32-CH32)</f>
+        <f t="shared" si="4"/>
         <v>0.12388671851650201</v>
       </c>
       <c r="CL32">
@@ -41803,7 +42617,7 @@
         <v>36.471923728485997</v>
       </c>
       <c r="DH32" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="DK32">
@@ -42017,7 +42831,7 @@
         <v>2.43936251364789</v>
       </c>
     </row>
-    <row r="33" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:184">
       <c r="A33">
         <v>16</v>
       </c>
@@ -42089,15 +42903,15 @@
         <v>16.71</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16.490000000000002</v>
       </c>
       <c r="AE33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.01</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.1900000000000013</v>
       </c>
       <c r="AG33" s="1">
@@ -42120,15 +42934,15 @@
         <v>11.28</v>
       </c>
       <c r="AO33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.340000000000003</v>
       </c>
       <c r="AP33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.87999999999999545</v>
       </c>
       <c r="AQ33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.78</v>
       </c>
       <c r="AT33">
@@ -42144,11 +42958,11 @@
         <v>31.93</v>
       </c>
       <c r="AX33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.990000000000002</v>
       </c>
       <c r="AY33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.924999999999997</v>
       </c>
       <c r="BB33">
@@ -42167,7 +42981,7 @@
         <v>0.85999999999999899</v>
       </c>
       <c r="BG33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.13</v>
       </c>
       <c r="BJ33">
@@ -42216,7 +43030,7 @@
         <v>31.3035416666667</v>
       </c>
       <c r="CA33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.70354166666669826</v>
       </c>
       <c r="CB33">
@@ -42241,7 +43055,7 @@
         <v>27.771639115698399</v>
       </c>
       <c r="CI33">
-        <f>ABS(CF33-CH33)</f>
+        <f t="shared" si="4"/>
         <v>0.26390966776670055</v>
       </c>
       <c r="CL33">
@@ -42311,7 +43125,7 @@
         <v>31.752926040618501</v>
       </c>
       <c r="DH33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.35866857032140231</v>
       </c>
       <c r="DK33">
@@ -42525,7 +43339,7 @@
         <v>2.4349921558800398</v>
       </c>
     </row>
-    <row r="34" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:184">
       <c r="A34">
         <v>25</v>
       </c>
@@ -42584,11 +43398,11 @@
         <v>15.7</v>
       </c>
       <c r="T34" s="3">
-        <f t="shared" ref="T34:T49" si="20">R34+15</f>
+        <f t="shared" ref="T34:T49" si="21">R34+15</f>
         <v>31.33</v>
       </c>
       <c r="U34">
-        <f t="shared" ref="U34:U49" si="21">ABS(P34-T34)</f>
+        <f t="shared" ref="U34:U49" si="22">ABS(P34-T34)</f>
         <v>0.70000000000000284</v>
       </c>
       <c r="V34" s="4">
@@ -42624,15 +43438,15 @@
         <v>11.76</v>
       </c>
       <c r="AO34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.130000000000003</v>
       </c>
       <c r="AP34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3599999999999959</v>
       </c>
       <c r="AQ34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.810000000000002</v>
       </c>
       <c r="AT34">
@@ -42648,11 +43462,11 @@
         <v>31.76</v>
       </c>
       <c r="AX34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.379999999999999</v>
       </c>
       <c r="AY34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.950000000000003</v>
       </c>
       <c r="BB34">
@@ -42671,7 +43485,7 @@
         <v>2.12</v>
       </c>
       <c r="BG34" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.91</v>
       </c>
       <c r="BJ34">
@@ -42720,7 +43534,7 @@
         <v>30.4635416666667</v>
       </c>
       <c r="CA34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.8635416666666984</v>
       </c>
       <c r="CB34">
@@ -42745,7 +43559,7 @@
         <v>26.552657122418999</v>
       </c>
       <c r="CI34">
-        <f>ABS(CF34-CH34)</f>
+        <f t="shared" si="4"/>
         <v>0.11559983529409834</v>
       </c>
       <c r="CL34">
@@ -42815,7 +43629,7 @@
         <v>30.436183483506301</v>
       </c>
       <c r="DH34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.8069395743798964E-2</v>
       </c>
       <c r="DK34">
@@ -43029,7 +43843,7 @@
         <v>2.0452031876029402</v>
       </c>
     </row>
-    <row r="35" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:184">
       <c r="A35">
         <v>26</v>
       </c>
@@ -43088,11 +43902,11 @@
         <v>18.059999999999999</v>
       </c>
       <c r="T35" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>31.06</v>
       </c>
       <c r="U35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.0599999999999987</v>
       </c>
       <c r="V35" s="4">
@@ -43116,7 +43930,7 @@
         <v>15.929999999999996</v>
       </c>
       <c r="AE35" s="2">
-        <f t="shared" ref="AE35:AE40" si="22">AC35+13.3</f>
+        <f t="shared" ref="AE35:AE40" si="23">AC35+13.3</f>
         <v>30.92</v>
       </c>
       <c r="AF35">
@@ -43143,15 +43957,15 @@
         <v>9.48</v>
       </c>
       <c r="AO35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.22</v>
       </c>
       <c r="AP35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91999999999999815</v>
       </c>
       <c r="AQ35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.759999999999998</v>
       </c>
       <c r="AT35">
@@ -43167,11 +43981,11 @@
         <v>32.28</v>
       </c>
       <c r="AX35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1899999999999977</v>
       </c>
       <c r="AY35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33.375</v>
       </c>
       <c r="BB35">
@@ -43190,7 +44004,7 @@
         <v>1.29</v>
       </c>
       <c r="BG35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.835000000000001</v>
       </c>
       <c r="BJ35">
@@ -43239,7 +44053,7 @@
         <v>31.013541666666701</v>
       </c>
       <c r="CA35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.90645833333330117</v>
       </c>
       <c r="CB35">
@@ -43264,7 +44078,7 @@
         <v>28.822804073840199</v>
       </c>
       <c r="CI35">
-        <f>ABS(CF35-CH35)</f>
+        <f t="shared" si="4"/>
         <v>0.24346343408920035</v>
       </c>
       <c r="CL35">
@@ -43334,7 +44148,7 @@
         <v>33.5656731221153</v>
       </c>
       <c r="DH35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.20982087090430213</v>
       </c>
       <c r="DK35">
@@ -43548,7 +44362,7 @@
         <v>2.0183277051653201</v>
       </c>
     </row>
-    <row r="36" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:184">
       <c r="A36">
         <v>27</v>
       </c>
@@ -43607,11 +44421,11 @@
         <v>16.63</v>
       </c>
       <c r="T36" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>31.11</v>
       </c>
       <c r="U36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.6300000000000026</v>
       </c>
       <c r="V36" s="4">
@@ -43628,7 +44442,7 @@
         <v>18.309999999999999</v>
       </c>
       <c r="AE36" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>31.61</v>
       </c>
       <c r="AG36" s="1">
@@ -43651,15 +44465,15 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AO36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.9</v>
       </c>
       <c r="AP36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1999999999999993</v>
       </c>
       <c r="AQ36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27.799999999999997</v>
       </c>
       <c r="AT36">
@@ -43675,11 +44489,11 @@
         <v>31.76</v>
       </c>
       <c r="AX36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1900000000000013</v>
       </c>
       <c r="AY36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.355000000000004</v>
       </c>
       <c r="BB36">
@@ -43698,7 +44512,7 @@
         <v>2.08</v>
       </c>
       <c r="BG36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.54</v>
       </c>
       <c r="BJ36" t="s">
@@ -43744,7 +44558,7 @@
         <v>28.413541666666699</v>
       </c>
       <c r="CA36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.19645833333330032</v>
       </c>
       <c r="CB36">
@@ -43769,7 +44583,7 @@
         <v>29.181961955035199</v>
       </c>
       <c r="CI36">
-        <f>ABS(CF36-CH36)</f>
+        <f t="shared" si="4"/>
         <v>0.40966529431960197</v>
       </c>
       <c r="CL36">
@@ -43839,7 +44653,7 @@
         <v>33.546167946091799</v>
       </c>
       <c r="DH36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1868267083434958</v>
       </c>
       <c r="DK36">
@@ -44053,7 +44867,7 @@
         <v>2.1366165931128598</v>
       </c>
     </row>
-    <row r="37" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:184">
       <c r="A37">
         <v>28</v>
       </c>
@@ -44112,11 +44926,11 @@
         <v>18.29</v>
       </c>
       <c r="T37" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>30.53</v>
       </c>
       <c r="U37">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.2899999999999991</v>
       </c>
       <c r="V37" s="4">
@@ -44140,7 +44954,7 @@
         <v>13.73</v>
       </c>
       <c r="AE37" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>29.7</v>
       </c>
       <c r="AF37">
@@ -44167,15 +44981,15 @@
         <v>9.91</v>
       </c>
       <c r="AO37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.270000000000003</v>
       </c>
       <c r="AP37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49000000000000199</v>
       </c>
       <c r="AQ37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31.025000000000002</v>
       </c>
       <c r="AT37">
@@ -44191,11 +45005,11 @@
         <v>32.72</v>
       </c>
       <c r="AX37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.64999999999999858</v>
       </c>
       <c r="AY37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33.045000000000002</v>
       </c>
       <c r="BB37">
@@ -44214,7 +45028,7 @@
         <v>2.6500000000000101</v>
       </c>
       <c r="BG37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>34.195</v>
       </c>
       <c r="BJ37">
@@ -44263,7 +45077,7 @@
         <v>31.653541666666701</v>
       </c>
       <c r="CA37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6664583333332992</v>
       </c>
       <c r="CB37">
@@ -44288,7 +45102,7 @@
         <v>29.129826227519501</v>
       </c>
       <c r="CI37">
-        <f>ABS(CF37-CH37)</f>
+        <f t="shared" si="4"/>
         <v>8.8354026674696939E-2</v>
       </c>
       <c r="CL37">
@@ -44358,7 +45172,7 @@
         <v>33.486522216539598</v>
       </c>
       <c r="DH37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.6069664837998801E-2</v>
       </c>
       <c r="DK37" t="s">
@@ -44572,7 +45386,7 @@
         <v>2.4273897158050302</v>
       </c>
     </row>
-    <row r="38" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:184">
       <c r="A38">
         <v>29</v>
       </c>
@@ -44631,11 +45445,11 @@
         <v>15.29</v>
       </c>
       <c r="T38" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>30.65</v>
       </c>
       <c r="U38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.2900000000000027</v>
       </c>
       <c r="V38" s="4">
@@ -44659,7 +45473,7 @@
         <v>13.2</v>
       </c>
       <c r="AE38" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="AF38">
@@ -44686,15 +45500,15 @@
         <v>8.31</v>
       </c>
       <c r="AO38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.82</v>
       </c>
       <c r="AP38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.09</v>
       </c>
       <c r="AQ38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.774999999999999</v>
       </c>
       <c r="AT38">
@@ -44710,11 +45524,11 @@
         <v>30.47</v>
       </c>
       <c r="AX38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2900000000000027</v>
       </c>
       <c r="AY38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31.115000000000002</v>
       </c>
       <c r="BB38">
@@ -44733,7 +45547,7 @@
         <v>1.18</v>
       </c>
       <c r="BG38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.99</v>
       </c>
       <c r="BJ38">
@@ -44782,7 +45596,7 @@
         <v>30.043541666666702</v>
       </c>
       <c r="CA38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0635416666667012</v>
       </c>
       <c r="CB38">
@@ -44807,7 +45621,7 @@
         <v>26.676750270942399</v>
       </c>
       <c r="CI38">
-        <f>ABS(CF38-CH38)</f>
+        <f t="shared" si="4"/>
         <v>6.2650921177802132E-2</v>
       </c>
       <c r="CL38">
@@ -44877,7 +45691,7 @@
         <v>30.700026937014901</v>
       </c>
       <c r="DH38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.24646159940949985</v>
       </c>
       <c r="DK38">
@@ -45091,7 +45905,7 @@
         <v>2.39614184249817</v>
       </c>
     </row>
-    <row r="39" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:184">
       <c r="A39">
         <v>30</v>
       </c>
@@ -45150,11 +45964,11 @@
         <v>15.05</v>
       </c>
       <c r="T39" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>30.71</v>
       </c>
       <c r="U39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.0000000000000711E-2</v>
       </c>
       <c r="V39" s="4">
@@ -45178,7 +45992,7 @@
         <v>11.079999999999998</v>
       </c>
       <c r="AE39" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>27.62</v>
       </c>
       <c r="AF39">
@@ -45205,15 +46019,15 @@
         <v>9.82</v>
       </c>
       <c r="AO39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.36</v>
       </c>
       <c r="AP39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.57999999999999829</v>
       </c>
       <c r="AQ39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.07</v>
       </c>
       <c r="AT39">
@@ -45229,11 +46043,11 @@
         <v>30.99</v>
       </c>
       <c r="AX39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0400000000000027</v>
       </c>
       <c r="AY39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.51</v>
       </c>
       <c r="BB39">
@@ -45252,7 +46066,7 @@
         <v>1.86</v>
       </c>
       <c r="BG39" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.57</v>
       </c>
       <c r="BJ39">
@@ -45301,7 +46115,7 @@
         <v>31.433541666666699</v>
       </c>
       <c r="CA39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2335416666666994</v>
       </c>
       <c r="CB39">
@@ -45326,7 +46140,7 @@
         <v>26.517553932032602</v>
       </c>
       <c r="CI39">
-        <f>ABS(CF39-CH39)</f>
+        <f t="shared" si="4"/>
         <v>5.3304853255003337E-2</v>
       </c>
       <c r="CL39">
@@ -45396,7 +46210,7 @@
         <v>30.643316291953301</v>
       </c>
       <c r="DH39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.454759381379759E-2</v>
       </c>
       <c r="DK39">
@@ -45610,7 +46424,7 @@
         <v>2.6101234065008398</v>
       </c>
     </row>
-    <row r="40" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:184">
       <c r="A40">
         <v>31</v>
       </c>
@@ -45669,11 +46483,11 @@
         <v>13.99</v>
       </c>
       <c r="T40" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>31.73</v>
       </c>
       <c r="U40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0100000000000016</v>
       </c>
       <c r="V40" s="4">
@@ -45697,7 +46511,7 @@
         <v>15.650000000000002</v>
       </c>
       <c r="AE40" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>30.04</v>
       </c>
       <c r="AF40">
@@ -45724,15 +46538,15 @@
         <v>8.89</v>
       </c>
       <c r="AO40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.240000000000002</v>
       </c>
       <c r="AP40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5100000000000016</v>
       </c>
       <c r="AQ40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.484999999999999</v>
       </c>
       <c r="AT40" t="s">
@@ -45745,7 +46559,7 @@
         <v>32.159999999999997</v>
       </c>
       <c r="AY40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.159999999999997</v>
       </c>
       <c r="BB40">
@@ -45764,7 +46578,7 @@
         <v>1.31</v>
       </c>
       <c r="BG40" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.085000000000001</v>
       </c>
       <c r="BJ40">
@@ -45813,7 +46627,7 @@
         <v>31.063541666666701</v>
       </c>
       <c r="CA40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.96354166666669983</v>
       </c>
       <c r="CB40">
@@ -45838,7 +46652,7 @@
         <v>27.0275393645951</v>
       </c>
       <c r="CI40">
-        <f>ABS(CF40-CH40)</f>
+        <f t="shared" si="4"/>
         <v>0.22273863788710102</v>
       </c>
       <c r="CL40">
@@ -45908,7 +46722,7 @@
         <v>30.8249461565138</v>
       </c>
       <c r="DH40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.29605153156310138</v>
       </c>
       <c r="DK40" t="s">
@@ -46122,7 +46936,7 @@
         <v>2.2434430955051199</v>
       </c>
     </row>
-    <row r="41" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:184">
       <c r="A41">
         <v>32</v>
       </c>
@@ -46181,11 +46995,11 @@
         <v>16.16</v>
       </c>
       <c r="T41" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>31.67</v>
       </c>
       <c r="U41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.1599999999999966</v>
       </c>
       <c r="V41" s="4">
@@ -46218,15 +47032,15 @@
         <v>10.45</v>
       </c>
       <c r="AO41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.560000000000002</v>
       </c>
       <c r="AP41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.9999999999997158E-2</v>
       </c>
       <c r="AQ41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.585000000000001</v>
       </c>
       <c r="AT41">
@@ -46242,11 +47056,11 @@
         <v>33.700000000000003</v>
       </c>
       <c r="AX41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.019999999999996</v>
       </c>
       <c r="AY41" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>34.71</v>
       </c>
       <c r="BB41">
@@ -46265,7 +47079,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="BG41" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.909999999999997</v>
       </c>
       <c r="BJ41">
@@ -46314,7 +47128,7 @@
         <v>32.793541666666698</v>
       </c>
       <c r="CA41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.45645833333330188</v>
       </c>
       <c r="CB41">
@@ -46339,7 +47153,7 @@
         <v>28.190078633631298</v>
       </c>
       <c r="CI41">
-        <f>ABS(CF41-CH41)</f>
+        <f t="shared" si="4"/>
         <v>0.13908695264049697</v>
       </c>
       <c r="CL41">
@@ -46409,7 +47223,7 @@
         <v>32.932000075985997</v>
       </c>
       <c r="DH41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.0070284876941855E-3</v>
       </c>
       <c r="DK41">
@@ -46623,7 +47437,7 @@
         <v>2.0857626670385199</v>
       </c>
     </row>
-    <row r="42" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:184">
       <c r="A42">
         <v>41</v>
       </c>
@@ -46682,11 +47496,11 @@
         <v>16.95</v>
       </c>
       <c r="T42" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>30.79</v>
       </c>
       <c r="U42">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.9500000000000028</v>
       </c>
       <c r="V42" s="4">
@@ -46737,15 +47551,15 @@
         <v>10.119999999999999</v>
       </c>
       <c r="AO42" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.75</v>
       </c>
       <c r="AP42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.28000000000000114</v>
       </c>
       <c r="AQ42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.61</v>
       </c>
       <c r="AT42">
@@ -46761,11 +47575,11 @@
         <v>34.159999999999997</v>
       </c>
       <c r="AX42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
       <c r="AY42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33.409999999999997</v>
       </c>
       <c r="BB42">
@@ -46784,7 +47598,7 @@
         <v>0.110000000000003</v>
       </c>
       <c r="BG42" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.045000000000002</v>
       </c>
       <c r="BJ42">
@@ -46830,7 +47644,7 @@
         <v>30.833541666666701</v>
       </c>
       <c r="CA42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18354166666670224</v>
       </c>
       <c r="CB42">
@@ -46855,7 +47669,7 @@
         <v>29.095279968529201</v>
       </c>
       <c r="CI42" t="e">
-        <f>ABS(CF42-CH42)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="CL42">
@@ -46925,7 +47739,7 @@
         <v>36.595448340791997</v>
       </c>
       <c r="DH42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.6705824699939953</v>
       </c>
       <c r="DK42">
@@ -47139,7 +47953,7 @@
         <v>2.0801574312031099</v>
       </c>
     </row>
-    <row r="43" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:184">
       <c r="A43">
         <v>42</v>
       </c>
@@ -47198,11 +48012,11 @@
         <v>19.71</v>
       </c>
       <c r="T43" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>30.45</v>
       </c>
       <c r="U43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.7099999999999973</v>
       </c>
       <c r="V43" s="4">
@@ -47253,15 +48067,15 @@
         <v>10.210000000000001</v>
       </c>
       <c r="AO43" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.6</v>
       </c>
       <c r="AP43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.19000000000000128</v>
       </c>
       <c r="AQ43" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.505000000000003</v>
       </c>
       <c r="AT43">
@@ -47277,11 +48091,11 @@
         <v>33.24</v>
       </c>
       <c r="AX43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1900000000000013</v>
       </c>
       <c r="AY43" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.145000000000003</v>
       </c>
       <c r="BB43">
@@ -47300,7 +48114,7 @@
         <v>1.84</v>
       </c>
       <c r="BG43" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.009999999999998</v>
       </c>
       <c r="BJ43">
@@ -47349,7 +48163,7 @@
         <v>30.263541666666701</v>
       </c>
       <c r="CA43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.116458333333302</v>
       </c>
       <c r="CB43">
@@ -47374,7 +48188,7 @@
         <v>27.406993013260699</v>
       </c>
       <c r="CI43">
-        <f>ABS(CF43-CH43)</f>
+        <f t="shared" si="4"/>
         <v>0.25468905497920247</v>
       </c>
       <c r="CL43">
@@ -47444,7 +48258,7 @@
         <v>32.500795493682098</v>
       </c>
       <c r="DH43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.72678958277349892</v>
       </c>
       <c r="DK43">
@@ -47658,7 +48472,7 @@
         <v>1.7918809896219301</v>
       </c>
     </row>
-    <row r="44" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:184">
       <c r="A44">
         <v>43</v>
       </c>
@@ -47717,11 +48531,11 @@
         <v>15.04</v>
       </c>
       <c r="T44" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>31.56</v>
       </c>
       <c r="U44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.00000000000027E-2</v>
       </c>
       <c r="V44" s="4">
@@ -47754,15 +48568,15 @@
         <v>12.71</v>
       </c>
       <c r="AO44" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.33</v>
       </c>
       <c r="AP44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3100000000000023</v>
       </c>
       <c r="AQ44" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.484999999999999</v>
       </c>
       <c r="AT44" t="s">
@@ -47775,7 +48589,7 @@
         <v>33.31</v>
       </c>
       <c r="AY44" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33.31</v>
       </c>
       <c r="BB44">
@@ -47794,7 +48608,7 @@
         <v>1.39</v>
       </c>
       <c r="BG44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.314999999999998</v>
       </c>
       <c r="BJ44">
@@ -47843,7 +48657,7 @@
         <v>31.903541666666701</v>
       </c>
       <c r="CA44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93354166666670224</v>
       </c>
       <c r="CB44">
@@ -47868,7 +48682,7 @@
         <v>26.556847138384001</v>
       </c>
       <c r="CI44">
-        <f>ABS(CF44-CH44)</f>
+        <f t="shared" si="4"/>
         <v>0.25626507593879921</v>
       </c>
       <c r="CL44">
@@ -47938,7 +48752,7 @@
         <v>31.176454518501998</v>
       </c>
       <c r="DH44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.2366620290043997</v>
       </c>
       <c r="DK44">
@@ -48152,7 +48966,7 @@
         <v>2.24397341779882</v>
       </c>
     </row>
-    <row r="45" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:184">
       <c r="A45">
         <v>44</v>
       </c>
@@ -48211,11 +49025,11 @@
         <v>15.78</v>
       </c>
       <c r="T45" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>32.06</v>
       </c>
       <c r="U45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.78000000000000114</v>
       </c>
       <c r="V45" s="4">
@@ -48266,15 +49080,15 @@
         <v>12.56</v>
       </c>
       <c r="AO45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.65</v>
       </c>
       <c r="AP45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.16</v>
       </c>
       <c r="AQ45" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.729999999999997</v>
       </c>
       <c r="AT45">
@@ -48290,11 +49104,11 @@
         <v>32.93</v>
       </c>
       <c r="AX45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.78999999999999915</v>
       </c>
       <c r="AY45" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.534999999999997</v>
       </c>
       <c r="BB45">
@@ -48313,7 +49127,7 @@
         <v>0.73</v>
       </c>
       <c r="BG45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.045000000000002</v>
       </c>
       <c r="BJ45">
@@ -48362,7 +49176,7 @@
         <v>32.173541666666701</v>
       </c>
       <c r="CA45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.6535416666667011</v>
       </c>
       <c r="CB45">
@@ -48387,7 +49201,7 @@
         <v>28.127021365057601</v>
       </c>
       <c r="CI45">
-        <f>ABS(CF45-CH45)</f>
+        <f t="shared" si="4"/>
         <v>1.0215182625398E-2</v>
       </c>
       <c r="CL45">
@@ -48457,7 +49271,7 @@
         <v>32.416273675247702</v>
       </c>
       <c r="DH45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.22355625918120126</v>
       </c>
       <c r="DK45">
@@ -48671,7 +49485,7 @@
         <v>1.97279258059183</v>
       </c>
     </row>
-    <row r="46" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:184">
       <c r="A46">
         <v>45</v>
       </c>
@@ -48730,11 +49544,11 @@
         <v>14.74</v>
       </c>
       <c r="T46" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>31.61</v>
       </c>
       <c r="U46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.25999999999999801</v>
       </c>
       <c r="V46" s="4">
@@ -48785,15 +49599,15 @@
         <v>13.28</v>
       </c>
       <c r="AO46" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.910000000000004</v>
       </c>
       <c r="AP46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8799999999999955</v>
       </c>
       <c r="AQ46" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31.35</v>
       </c>
       <c r="AT46" t="s">
@@ -48806,7 +49620,7 @@
         <v>35.18</v>
       </c>
       <c r="AY46" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35.18</v>
       </c>
       <c r="BB46">
@@ -48825,7 +49639,7 @@
         <v>1.32</v>
       </c>
       <c r="BG46" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>33.28</v>
       </c>
       <c r="BJ46">
@@ -48874,7 +49688,7 @@
         <v>32.413541666666703</v>
       </c>
       <c r="CA46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.6458333333298185E-2</v>
       </c>
       <c r="CB46">
@@ -48899,7 +49713,7 @@
         <v>27.1436486298457</v>
       </c>
       <c r="CI46">
-        <f>ABS(CF46-CH46)</f>
+        <f t="shared" si="4"/>
         <v>0.20391167598799953</v>
       </c>
       <c r="CL46">
@@ -48969,7 +49783,7 @@
         <v>31.031395779896201</v>
       </c>
       <c r="DH46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.6837235272998896E-2</v>
       </c>
       <c r="DK46">
@@ -49183,7 +49997,7 @@
         <v>3.4221193441425402</v>
       </c>
     </row>
-    <row r="47" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:184">
       <c r="A47">
         <v>46</v>
       </c>
@@ -49242,11 +50056,11 @@
         <v>16.149999999999999</v>
       </c>
       <c r="T47" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>30.93</v>
       </c>
       <c r="U47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.1499999999999986</v>
       </c>
       <c r="V47" s="4">
@@ -49297,15 +50111,15 @@
         <v>10.19</v>
       </c>
       <c r="AO47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.740000000000002</v>
       </c>
       <c r="AP47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.21000000000000085</v>
       </c>
       <c r="AQ47" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.635000000000002</v>
       </c>
       <c r="AT47">
@@ -49321,11 +50135,11 @@
         <v>33.42</v>
       </c>
       <c r="AX47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.45000000000000284</v>
       </c>
       <c r="AY47" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33.195</v>
       </c>
       <c r="BB47">
@@ -49344,7 +50158,7 @@
         <v>0.93999999999999795</v>
       </c>
       <c r="BG47" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.86</v>
       </c>
       <c r="BJ47">
@@ -49393,7 +50207,7 @@
         <v>31.413541666666699</v>
       </c>
       <c r="CA47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.1864583333333023</v>
       </c>
       <c r="CB47">
@@ -49418,7 +50232,7 @@
         <v>28.589171567189599</v>
       </c>
       <c r="CI47">
-        <f>ABS(CF47-CH47)</f>
+        <f t="shared" si="4"/>
         <v>4.7292163449981217E-3</v>
       </c>
       <c r="CL47">
@@ -49488,7 +50302,7 @@
         <v>33.424677808130298</v>
       </c>
       <c r="DH47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.60069518599370042</v>
       </c>
       <c r="DK47">
@@ -49702,7 +50516,7 @@
         <v>2.31754554198795</v>
       </c>
     </row>
-    <row r="48" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:184">
       <c r="A48">
         <v>47</v>
       </c>
@@ -49761,11 +50575,11 @@
         <v>14.25</v>
       </c>
       <c r="T48" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>32.32</v>
       </c>
       <c r="U48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.75</v>
       </c>
       <c r="V48" s="4">
@@ -49816,15 +50630,15 @@
         <v>11.62</v>
       </c>
       <c r="AO48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.310000000000002</v>
       </c>
       <c r="AP48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2199999999999989</v>
       </c>
       <c r="AQ48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.92</v>
       </c>
       <c r="AT48" t="s">
@@ -49837,7 +50651,7 @@
         <v>32.32</v>
       </c>
       <c r="AY48" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.32</v>
       </c>
       <c r="BB48">
@@ -49856,7 +50670,7 @@
         <v>2.52</v>
       </c>
       <c r="BG48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.65</v>
       </c>
       <c r="BJ48">
@@ -49905,7 +50719,7 @@
         <v>31.403541666666701</v>
       </c>
       <c r="CA48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.66354166666670267</v>
       </c>
       <c r="CB48">
@@ -49930,7 +50744,7 @@
         <v>31.308808972651502</v>
       </c>
       <c r="CI48">
-        <f>ABS(CF48-CH48)</f>
+        <f t="shared" si="4"/>
         <v>0.56288063716599979</v>
       </c>
       <c r="CL48">
@@ -50000,7 +50814,7 @@
         <v>35.609306575728901</v>
       </c>
       <c r="DH48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.42315112082759754</v>
       </c>
       <c r="DK48">
@@ -50214,7 +51028,7 @@
         <v>2.2850043704383101</v>
       </c>
     </row>
-    <row r="49" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:184">
       <c r="A49">
         <v>48</v>
       </c>
@@ -50273,11 +51087,11 @@
         <v>16.510000000000002</v>
       </c>
       <c r="T49" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>33.71</v>
       </c>
       <c r="U49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.509999999999998</v>
       </c>
       <c r="V49" s="4">
@@ -50328,15 +51142,15 @@
         <v>9.8699999999999992</v>
       </c>
       <c r="AO49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.479999999999997</v>
       </c>
       <c r="AP49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.52999999999999758</v>
       </c>
       <c r="AQ49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31.214999999999996</v>
       </c>
       <c r="AT49">
@@ -50352,11 +51166,11 @@
         <v>33.340000000000003</v>
       </c>
       <c r="AX49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0900000000000034</v>
       </c>
       <c r="AY49" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.295000000000002</v>
       </c>
       <c r="BB49">
@@ -50375,7 +51189,7 @@
         <v>2.63</v>
       </c>
       <c r="BG49" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.085000000000001</v>
       </c>
       <c r="BJ49">
@@ -50424,7 +51238,7 @@
         <v>32.263541666666697</v>
       </c>
       <c r="CA49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0264583333333022</v>
       </c>
       <c r="CB49">
@@ -50449,7 +51263,7 @@
         <v>29.825330710196301</v>
       </c>
       <c r="CI49">
-        <f>ABS(CF49-CH49)</f>
+        <f t="shared" si="4"/>
         <v>0.33397842802460076</v>
       </c>
       <c r="CL49">
@@ -50519,7 +51333,7 @@
         <v>33.521779122397398</v>
       </c>
       <c r="DH49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.22550934385780153</v>
       </c>
       <c r="DK49">
@@ -50733,7 +51547,7 @@
         <v>1.9838565845443401</v>
       </c>
     </row>
-    <row r="50" spans="1:184" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:184">
       <c r="S50">
         <f>AVERAGE(S2:S49)</f>
         <v>14.969583333333331</v>
@@ -50883,4 +51697,714 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>28.76</v>
+      </c>
+      <c r="B2">
+        <v>27.883541666666702</v>
+      </c>
+      <c r="C2">
+        <v>26.8945589268167</v>
+      </c>
+      <c r="D2">
+        <v>27.600510736098901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>28.42</v>
+      </c>
+      <c r="B3">
+        <v>28.383541666666702</v>
+      </c>
+      <c r="C3">
+        <v>28.220905445048501</v>
+      </c>
+      <c r="D3">
+        <v>28.004720287879699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>29.4</v>
+      </c>
+      <c r="B4">
+        <v>29.5535416666667</v>
+      </c>
+      <c r="C4">
+        <v>27.177808758888499</v>
+      </c>
+      <c r="D4">
+        <v>27.219714404761401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>29.27</v>
+      </c>
+      <c r="B5">
+        <v>29.4435416666667</v>
+      </c>
+      <c r="C5">
+        <v>29.6156952958187</v>
+      </c>
+      <c r="D5">
+        <v>29.827643099711899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>27.57</v>
+      </c>
+      <c r="B6">
+        <v>27.503541666666699</v>
+      </c>
+      <c r="C6">
+        <v>29.174907416314301</v>
+      </c>
+      <c r="D6">
+        <v>29.259102464330901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>33.93</v>
+      </c>
+      <c r="B7">
+        <v>33.203541666666702</v>
+      </c>
+      <c r="C7">
+        <v>29.5768209004802</v>
+      </c>
+      <c r="D7">
+        <v>29.9845511490268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>27.39</v>
+      </c>
+      <c r="B8">
+        <v>27.903541666666701</v>
+      </c>
+      <c r="C8">
+        <v>27.2254881665399</v>
+      </c>
+      <c r="D8">
+        <v>27.8246656955586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>27.09</v>
+      </c>
+      <c r="B9">
+        <v>28.593541666666699</v>
+      </c>
+      <c r="C9">
+        <v>26.7701832318082</v>
+      </c>
+      <c r="D9">
+        <v>25.161923699802902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>28.88</v>
+      </c>
+      <c r="B10">
+        <v>30.1435416666667</v>
+      </c>
+      <c r="C10">
+        <v>26.8633034243956</v>
+      </c>
+      <c r="D10">
+        <v>26.9191216379648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>28.7</v>
+      </c>
+      <c r="B11">
+        <v>28.273541666666699</v>
+      </c>
+      <c r="C11">
+        <v>28.519489904843599</v>
+      </c>
+      <c r="D11">
+        <v>28.663717493034301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>28.39</v>
+      </c>
+      <c r="B12">
+        <v>29.833541666666701</v>
+      </c>
+      <c r="C12">
+        <v>29.570759117374799</v>
+      </c>
+      <c r="D12">
+        <v>29.631032906961199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>27.47</v>
+      </c>
+      <c r="B13">
+        <v>28.723541666666701</v>
+      </c>
+      <c r="C13">
+        <v>28.738886824058099</v>
+      </c>
+      <c r="D13">
+        <v>28.576472486504102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>29.01</v>
+      </c>
+      <c r="B14">
+        <v>29.5535416666667</v>
+      </c>
+      <c r="C14">
+        <v>28.130342930587702</v>
+      </c>
+      <c r="D14">
+        <v>28.312243323254201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>28.57</v>
+      </c>
+      <c r="B15">
+        <v>30.263541666666701</v>
+      </c>
+      <c r="C15">
+        <v>27.365247683284199</v>
+      </c>
+      <c r="D15">
+        <v>27.608146629774001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>27.25</v>
+      </c>
+      <c r="B16">
+        <v>28.843541666666699</v>
+      </c>
+      <c r="C16">
+        <v>26.900430755089602</v>
+      </c>
+      <c r="D16">
+        <v>27.067301885703401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>29.2</v>
+      </c>
+      <c r="B17">
+        <v>30.3735416666667</v>
+      </c>
+      <c r="C17">
+        <v>29.181055705797199</v>
+      </c>
+      <c r="D17">
+        <v>29.433177193542601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>28.57</v>
+      </c>
+      <c r="B18">
+        <v>28.8035416666667</v>
+      </c>
+      <c r="C18">
+        <v>27.0005584094746</v>
+      </c>
+      <c r="D18">
+        <v>26.667588050770199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>27.55</v>
+      </c>
+      <c r="B19">
+        <v>29.363541666666698</v>
+      </c>
+      <c r="C19">
+        <v>30.3688593474409</v>
+      </c>
+      <c r="D19">
+        <v>30.539894533078801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>27.54</v>
+      </c>
+      <c r="B20">
+        <v>29.503541666666699</v>
+      </c>
+      <c r="C20">
+        <v>28.5187671445556</v>
+      </c>
+      <c r="D20">
+        <v>28.813311519701902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>29.31</v>
+      </c>
+      <c r="B21">
+        <v>30.6935416666667</v>
+      </c>
+      <c r="C21">
+        <v>26.194235817808899</v>
+      </c>
+      <c r="D21">
+        <v>25.888334906808399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>29.07</v>
+      </c>
+      <c r="B22">
+        <v>29.8735416666667</v>
+      </c>
+      <c r="C22">
+        <v>27.410525386795701</v>
+      </c>
+      <c r="D22">
+        <v>27.389138207084802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>28.89</v>
+      </c>
+      <c r="B23">
+        <v>30.3035416666667</v>
+      </c>
+      <c r="C23">
+        <v>29.400742326529599</v>
+      </c>
+      <c r="D23">
+        <v>29.1173548169652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>29.48</v>
+      </c>
+      <c r="B24">
+        <v>30.433541666666699</v>
+      </c>
+      <c r="C24">
+        <v>29.780218905607999</v>
+      </c>
+      <c r="D24">
+        <v>29.901002342136799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>28.85</v>
+      </c>
+      <c r="B25">
+        <v>30.913541666666699</v>
+      </c>
+      <c r="C25">
+        <v>29.415829702565699</v>
+      </c>
+      <c r="D25">
+        <v>29.642939040483601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>32.159999999999997</v>
+      </c>
+      <c r="B26">
+        <v>30.933541666666699</v>
+      </c>
+      <c r="C26">
+        <v>27.197574943707899</v>
+      </c>
+      <c r="D26">
+        <v>27.105082733555999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>32.03</v>
+      </c>
+      <c r="B27">
+        <v>30.323541666666699</v>
+      </c>
+      <c r="C27">
+        <v>26.468348478399999</v>
+      </c>
+      <c r="D27">
+        <v>26.297601949440001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="B28">
+        <v>31.313541666666701</v>
+      </c>
+      <c r="C28">
+        <v>26.9692158004672</v>
+      </c>
+      <c r="D28">
+        <v>27.020604200291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="B29">
+        <v>31.633541666666702</v>
+      </c>
+      <c r="C29">
+        <v>29.1249861603421</v>
+      </c>
+      <c r="D29">
+        <v>29.2137733359103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>30.74</v>
+      </c>
+      <c r="B30">
+        <v>31.7135416666667</v>
+      </c>
+      <c r="C30">
+        <v>27.313490638859399</v>
+      </c>
+      <c r="D30">
+        <v>27.423062389238599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>31.25</v>
+      </c>
+      <c r="B31">
+        <v>15.5535416666667</v>
+      </c>
+      <c r="C31">
+        <v>30.2417440287097</v>
+      </c>
+      <c r="D31">
+        <v>30.7189802825181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>30.06</v>
+      </c>
+      <c r="B32">
+        <v>31.413541666666699</v>
+      </c>
+      <c r="C32">
+        <v>33.961620489714797</v>
+      </c>
+      <c r="D32">
+        <v>34.085507208231299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>30.6</v>
+      </c>
+      <c r="B33">
+        <v>31.3035416666667</v>
+      </c>
+      <c r="C33">
+        <v>27.507729447931698</v>
+      </c>
+      <c r="D33">
+        <v>27.771639115698399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>29.6</v>
+      </c>
+      <c r="B34">
+        <v>30.4635416666667</v>
+      </c>
+      <c r="C34">
+        <v>26.437057287124901</v>
+      </c>
+      <c r="D34">
+        <v>26.552657122418999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>31.92</v>
+      </c>
+      <c r="B35">
+        <v>31.013541666666701</v>
+      </c>
+      <c r="C35">
+        <v>29.0662675079294</v>
+      </c>
+      <c r="D35">
+        <v>28.822804073840199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>28.61</v>
+      </c>
+      <c r="B36">
+        <v>28.413541666666699</v>
+      </c>
+      <c r="C36">
+        <v>29.591627249354801</v>
+      </c>
+      <c r="D36">
+        <v>29.181961955035199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>33.32</v>
+      </c>
+      <c r="B37">
+        <v>31.653541666666701</v>
+      </c>
+      <c r="C37">
+        <v>29.218180254194198</v>
+      </c>
+      <c r="D37">
+        <v>29.129826227519501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>28.98</v>
+      </c>
+      <c r="B38">
+        <v>30.043541666666702</v>
+      </c>
+      <c r="C38">
+        <v>26.739401192120202</v>
+      </c>
+      <c r="D38">
+        <v>26.676750270942399</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>30.2</v>
+      </c>
+      <c r="B39">
+        <v>31.433541666666699</v>
+      </c>
+      <c r="C39">
+        <v>26.464249078777598</v>
+      </c>
+      <c r="D39">
+        <v>26.517553932032602</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>30.1</v>
+      </c>
+      <c r="B40">
+        <v>31.063541666666701</v>
+      </c>
+      <c r="C40">
+        <v>27.250278002482201</v>
+      </c>
+      <c r="D40">
+        <v>27.0275393645951</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>33.25</v>
+      </c>
+      <c r="B41">
+        <v>32.793541666666698</v>
+      </c>
+      <c r="C41">
+        <v>28.050991680990801</v>
+      </c>
+      <c r="D41">
+        <v>28.190078633631298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>30.65</v>
+      </c>
+      <c r="B42">
+        <v>30.833541666666701</v>
+      </c>
+      <c r="C42" t="s">
+        <v>307</v>
+      </c>
+      <c r="D42">
+        <v>29.095279968529201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>32.380000000000003</v>
+      </c>
+      <c r="B43">
+        <v>30.263541666666701</v>
+      </c>
+      <c r="C43">
+        <v>27.661682068239902</v>
+      </c>
+      <c r="D43">
+        <v>27.406993013260699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>30.97</v>
+      </c>
+      <c r="B44">
+        <v>31.903541666666701</v>
+      </c>
+      <c r="C44">
+        <v>26.8131122143228</v>
+      </c>
+      <c r="D44">
+        <v>26.556847138384001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>31.52</v>
+      </c>
+      <c r="B45">
+        <v>32.173541666666701</v>
+      </c>
+      <c r="C45">
+        <v>28.137236547682999</v>
+      </c>
+      <c r="D45">
+        <v>28.127021365057601</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>32.46</v>
+      </c>
+      <c r="B46">
+        <v>32.413541666666703</v>
+      </c>
+      <c r="C46">
+        <v>27.347560305833699</v>
+      </c>
+      <c r="D46">
+        <v>27.1436486298457</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>33.6</v>
+      </c>
+      <c r="B47">
+        <v>31.413541666666699</v>
+      </c>
+      <c r="C47">
+        <v>28.584442350844601</v>
+      </c>
+      <c r="D47">
+        <v>28.589171567189599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>30.74</v>
+      </c>
+      <c r="B48">
+        <v>31.403541666666701</v>
+      </c>
+      <c r="C48">
+        <v>31.871689609817501</v>
+      </c>
+      <c r="D48">
+        <v>31.308808972651502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>33.29</v>
+      </c>
+      <c r="B49">
+        <v>32.263541666666697</v>
+      </c>
+      <c r="C49">
+        <v>29.4913522821717</v>
+      </c>
+      <c r="D49">
+        <v>29.825330710196301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>